--- a/Notebooks/temp/dead_ends_reactions.xlsx
+++ b/Notebooks/temp/dead_ends_reactions.xlsx
@@ -2611,2095 +2611,2095 @@
     <t>AGPRim: acg5p_m + h_m + nadph_m --&gt; acg5sa_m + nadp_m + pi_m</t>
   </si>
   <si>
+    <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
+  </si>
+  <si>
+    <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
+  </si>
+  <si>
+    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
+  </si>
+  <si>
+    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
+  </si>
+  <si>
+    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
+  </si>
+  <si>
+    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
+  </si>
+  <si>
+    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
+  </si>
+  <si>
+    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
+  </si>
+  <si>
+    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
+  </si>
+  <si>
+    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
+  </si>
+  <si>
+    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
+  </si>
+  <si>
+    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
+  </si>
+  <si>
+    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+  </si>
+  <si>
+    <t>ENMAN4g: g1m7masnC_g + h2o_g --&gt; glc1man_g + m6masnC_g</t>
+  </si>
+  <si>
+    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
+  </si>
+  <si>
+    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
+  </si>
+  <si>
+    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
+  </si>
+  <si>
+    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
+  </si>
+  <si>
+    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
+  </si>
+  <si>
+    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
+  </si>
+  <si>
+    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
+  </si>
+  <si>
+    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
+  </si>
+  <si>
+    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
+  </si>
+  <si>
+    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
+  </si>
+  <si>
+    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
+  </si>
+  <si>
+    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
+  </si>
+  <si>
+    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
+  </si>
+  <si>
+    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
+  </si>
+  <si>
+    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
+  </si>
+  <si>
+    <t>BVITEt: bvite_e --&gt; bvite_c</t>
+  </si>
+  <si>
+    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
+  </si>
+  <si>
+    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
+  </si>
+  <si>
+    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
+  </si>
+  <si>
+    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
+  </si>
+  <si>
+    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
+  </si>
+  <si>
+    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
+  </si>
+  <si>
+    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
+  </si>
+  <si>
+    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
+  </si>
+  <si>
+    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
+  </si>
+  <si>
+    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
+  </si>
+  <si>
+    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
+  </si>
+  <si>
+    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
+  </si>
+  <si>
+    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
+  </si>
+  <si>
+    <t>r1129: HC00004_c --&gt; HC00004_r</t>
+  </si>
+  <si>
+    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
+  </si>
+  <si>
+    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
+  </si>
+  <si>
+    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
+  </si>
+  <si>
+    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
+  </si>
+  <si>
+    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
+  </si>
+  <si>
+    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
+  </si>
+  <si>
+    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
+  </si>
+  <si>
+    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
+  </si>
+  <si>
+    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
+  </si>
+  <si>
+    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r0778: HC01652_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
+  </si>
+  <si>
+    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
+  </si>
+  <si>
+    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
+  </si>
+  <si>
+    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
+  </si>
+  <si>
+    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
+  </si>
+  <si>
+    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
+  </si>
+  <si>
+    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
+  </si>
+  <si>
+    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
+  </si>
+  <si>
+    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
+  </si>
+  <si>
+    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
+  </si>
+  <si>
+    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
+  </si>
+  <si>
+    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
+  </si>
+  <si>
+    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
+  </si>
+  <si>
+    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
+  </si>
+  <si>
+    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
+  </si>
+  <si>
+    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
+  </si>
+  <si>
+    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
+  </si>
+  <si>
+    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
+  </si>
+  <si>
+    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
+  </si>
+  <si>
+    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
+  </si>
+  <si>
+    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
+  </si>
+  <si>
+    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
+  </si>
+  <si>
+    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
+  </si>
+  <si>
+    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
+  </si>
+  <si>
+    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
+  </si>
+  <si>
+    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
+  </si>
+  <si>
+    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
+  </si>
+  <si>
+    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
+  </si>
+  <si>
+    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
+  </si>
+  <si>
+    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
+  </si>
+  <si>
+    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
+  </si>
+  <si>
+    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
+  </si>
+  <si>
+    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
+  </si>
+  <si>
+    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
+  </si>
+  <si>
+    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
+  </si>
+  <si>
+    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
+  </si>
+  <si>
+    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
+  </si>
+  <si>
+    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
+  </si>
+  <si>
+    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
+  </si>
+  <si>
+    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
+  </si>
+  <si>
+    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
+  </si>
+  <si>
+    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
+  </si>
+  <si>
+    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
+  </si>
+  <si>
+    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
+  </si>
+  <si>
+    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
+  </si>
+  <si>
+    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
+  </si>
+  <si>
+    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
+  </si>
+  <si>
+    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
+  </si>
+  <si>
+    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
+  </si>
+  <si>
+    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
+  </si>
+  <si>
+    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
+  </si>
+  <si>
+    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
+  </si>
+  <si>
+    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
+  </si>
+  <si>
+    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
+  </si>
+  <si>
+    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
+  </si>
+  <si>
+    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
+  </si>
+  <si>
+    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
+  </si>
+  <si>
+    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
+  </si>
+  <si>
+    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
+  </si>
+  <si>
+    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
+  </si>
+  <si>
+    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
+  </si>
+  <si>
+    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
+  </si>
+  <si>
+    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
+  </si>
+  <si>
+    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
+  </si>
+  <si>
+    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
+  </si>
+  <si>
+    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
+  </si>
+  <si>
+    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
+  </si>
+  <si>
+    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
+  </si>
+  <si>
+    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
+  </si>
+  <si>
+    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
+  </si>
+  <si>
+    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
+  </si>
+  <si>
+    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
+  </si>
+  <si>
+    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
+  </si>
+  <si>
+    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
+  </si>
+  <si>
+    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
+  </si>
+  <si>
+    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
+  </si>
+  <si>
+    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
+  </si>
+  <si>
+    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
+  </si>
+  <si>
+    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
+  </si>
+  <si>
+    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
+  </si>
+  <si>
+    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
+  </si>
+  <si>
+    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
+  </si>
+  <si>
+    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
+  </si>
+  <si>
+    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
+  </si>
+  <si>
+    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
+  </si>
+  <si>
+    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
+  </si>
+  <si>
+    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
+  </si>
+  <si>
+    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
+  </si>
+  <si>
+    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
+  </si>
+  <si>
+    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
+  </si>
+  <si>
+    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
+  </si>
+  <si>
+    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
+  </si>
+  <si>
+    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
+  </si>
+  <si>
+    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
+  </si>
+  <si>
+    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
+  </si>
+  <si>
+    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
+  </si>
+  <si>
+    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
+  </si>
+  <si>
+    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
+  </si>
+  <si>
+    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
+  </si>
+  <si>
+    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
+  </si>
+  <si>
+    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
+  </si>
+  <si>
+    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
+  </si>
+  <si>
+    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
+  </si>
+  <si>
+    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
+  </si>
+  <si>
+    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
+  </si>
+  <si>
+    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
+  </si>
+  <si>
+    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
+  </si>
+  <si>
+    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
+  </si>
+  <si>
+    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
+  </si>
+  <si>
+    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
+  </si>
+  <si>
+    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
+  </si>
+  <si>
+    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
+  </si>
+  <si>
+    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
+  </si>
+  <si>
+    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
+  </si>
+  <si>
+    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
+  </si>
+  <si>
+    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
+  </si>
+  <si>
+    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
+  </si>
+  <si>
+    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
+  </si>
+  <si>
+    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
+  </si>
+  <si>
+    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
+  </si>
+  <si>
+    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
+  </si>
+  <si>
+    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
+  </si>
+  <si>
+    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
+  </si>
+  <si>
+    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
+  </si>
+  <si>
+    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
+  </si>
+  <si>
+    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
+  </si>
+  <si>
+    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
+  </si>
+  <si>
+    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
+  </si>
+  <si>
+    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
+  </si>
+  <si>
+    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
+  </si>
+  <si>
+    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
+  </si>
+  <si>
+    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
+  </si>
+  <si>
+    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
+  </si>
+  <si>
+    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
+  </si>
+  <si>
+    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
+  </si>
+  <si>
+    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
+  </si>
+  <si>
+    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
+  </si>
+  <si>
+    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
+  </si>
+  <si>
+    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
+  </si>
+  <si>
+    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
+  </si>
+  <si>
+    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
+  </si>
+  <si>
+    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
+  </si>
+  <si>
+    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1746: M01077_m + h_m + nadph_m + o2_m --&gt; M01076_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_1747: M01080_m + h_m + nadph_m + o2_m --&gt; M01079_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_1750: M00746_m + 3.0 h_m + nadph_m + o2_m --&gt; M02977_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_1751: M00753_m + nadph_m + o2_m --&gt; M00742_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
+  </si>
+  <si>
+    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
+  </si>
+  <si>
+    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
+  </si>
+  <si>
+    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>H8TAer: gpi_cho_r + pre_prot_r --&gt; gpi_prot_cho_r + gpi_sig_r</t>
+  </si>
+  <si>
+    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
+  </si>
+  <si>
+    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
+  </si>
+  <si>
+    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
+  </si>
+  <si>
+    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
+  </si>
+  <si>
+    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
+  </si>
+  <si>
+    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
+  </si>
+  <si>
+    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
+  </si>
+  <si>
+    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
+  </si>
+  <si>
+    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
+  </si>
+  <si>
+    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
+  </si>
+  <si>
+    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
+  </si>
+  <si>
+    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
+  </si>
+  <si>
+    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
+  </si>
+  <si>
+    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
+  </si>
+  <si>
+    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
+  </si>
+  <si>
+    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
+  </si>
+  <si>
+    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
+  </si>
+  <si>
+    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
+  </si>
+  <si>
+    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
+  </si>
+  <si>
+    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+  </si>
+  <si>
+    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
+  </si>
+  <si>
+    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
+  </si>
+  <si>
+    <t>CARhPTtc: carn_l --&gt; carn_c</t>
+  </si>
+  <si>
+    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
+  </si>
+  <si>
+    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
+  </si>
+  <si>
     <t>RE3367X: CE1939_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
   </si>
   <si>
-    <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
-  </si>
-  <si>
-    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
-  </si>
-  <si>
-    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
-  </si>
-  <si>
-    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
-  </si>
-  <si>
-    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
-  </si>
-  <si>
-    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
-  </si>
-  <si>
-    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
-  </si>
-  <si>
-    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
-  </si>
-  <si>
-    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
-  </si>
-  <si>
-    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
-  </si>
-  <si>
-    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
-  </si>
-  <si>
-    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+    <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
+  </si>
+  <si>
+    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
+  </si>
+  <si>
+    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
+  </si>
+  <si>
+    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
+  </si>
+  <si>
+    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
+  </si>
+  <si>
+    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
+  </si>
+  <si>
+    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7092: M00227_c + gthrd_c --&gt; M00565_c + M02144_c</t>
+  </si>
+  <si>
+    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
+  </si>
+  <si>
+    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
+  </si>
+  <si>
+    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
+  </si>
+  <si>
+    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
+  </si>
+  <si>
+    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
+  </si>
+  <si>
+    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
+  </si>
+  <si>
+    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
+  </si>
+  <si>
+    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
+  </si>
+  <si>
+    <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
+  </si>
+  <si>
+    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
+  </si>
+  <si>
+    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
+  </si>
+  <si>
+    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
   </si>
   <si>
     <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
   </si>
   <si>
-    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
-  </si>
-  <si>
-    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
-  </si>
-  <si>
-    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
-  </si>
-  <si>
-    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
-  </si>
-  <si>
-    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
-  </si>
-  <si>
-    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
-  </si>
-  <si>
-    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
-  </si>
-  <si>
-    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
-  </si>
-  <si>
-    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
-  </si>
-  <si>
-    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
-  </si>
-  <si>
-    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
-  </si>
-  <si>
-    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
-  </si>
-  <si>
-    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
-  </si>
-  <si>
-    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
-  </si>
-  <si>
-    <t>BVITEt: bvite_e --&gt; bvite_c</t>
-  </si>
-  <si>
-    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
-  </si>
-  <si>
-    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
-  </si>
-  <si>
-    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
-  </si>
-  <si>
-    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
-  </si>
-  <si>
-    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
-  </si>
-  <si>
-    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
-  </si>
-  <si>
-    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
-  </si>
-  <si>
-    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
-  </si>
-  <si>
-    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
-  </si>
-  <si>
-    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
-  </si>
-  <si>
-    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
-  </si>
-  <si>
-    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
-  </si>
-  <si>
-    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
-  </si>
-  <si>
-    <t>r1129: HC00004_c --&gt; HC00004_r</t>
-  </si>
-  <si>
-    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
-  </si>
-  <si>
-    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
-  </si>
-  <si>
-    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
-  </si>
-  <si>
-    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
-  </si>
-  <si>
-    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
-  </si>
-  <si>
-    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
-  </si>
-  <si>
-    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
-  </si>
-  <si>
-    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
-  </si>
-  <si>
-    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
-  </si>
-  <si>
-    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r0778: HC01652_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
-  </si>
-  <si>
-    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
-  </si>
-  <si>
-    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
-  </si>
-  <si>
-    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
-  </si>
-  <si>
-    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
-  </si>
-  <si>
-    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
-  </si>
-  <si>
-    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
-  </si>
-  <si>
-    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
-  </si>
-  <si>
-    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
-  </si>
-  <si>
-    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
-  </si>
-  <si>
-    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
-  </si>
-  <si>
-    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
-  </si>
-  <si>
-    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
-  </si>
-  <si>
-    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
-  </si>
-  <si>
-    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
-  </si>
-  <si>
-    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
-  </si>
-  <si>
-    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
-  </si>
-  <si>
-    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
-  </si>
-  <si>
-    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
-  </si>
-  <si>
-    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
-  </si>
-  <si>
-    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
-  </si>
-  <si>
-    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
-  </si>
-  <si>
-    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
-  </si>
-  <si>
-    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
-  </si>
-  <si>
-    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
-  </si>
-  <si>
-    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
-  </si>
-  <si>
-    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
-  </si>
-  <si>
-    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
-  </si>
-  <si>
-    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
-  </si>
-  <si>
-    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
-  </si>
-  <si>
-    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
-  </si>
-  <si>
-    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
-  </si>
-  <si>
-    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
-  </si>
-  <si>
-    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
-  </si>
-  <si>
-    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
-  </si>
-  <si>
-    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
-  </si>
-  <si>
-    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
-  </si>
-  <si>
-    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
-  </si>
-  <si>
-    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
-  </si>
-  <si>
-    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
-  </si>
-  <si>
-    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
-  </si>
-  <si>
-    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
-  </si>
-  <si>
-    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
-  </si>
-  <si>
-    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
-  </si>
-  <si>
-    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
-  </si>
-  <si>
-    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
-  </si>
-  <si>
-    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
-  </si>
-  <si>
-    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
-  </si>
-  <si>
-    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
-  </si>
-  <si>
-    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
-  </si>
-  <si>
-    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
-  </si>
-  <si>
-    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
-  </si>
-  <si>
-    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
-  </si>
-  <si>
-    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
-  </si>
-  <si>
-    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
-  </si>
-  <si>
-    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
-  </si>
-  <si>
-    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
-  </si>
-  <si>
-    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
-  </si>
-  <si>
-    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
-  </si>
-  <si>
-    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
-  </si>
-  <si>
-    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
-  </si>
-  <si>
-    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
-  </si>
-  <si>
-    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
-  </si>
-  <si>
-    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
-  </si>
-  <si>
-    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
-  </si>
-  <si>
-    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
-  </si>
-  <si>
-    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
-  </si>
-  <si>
-    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
-  </si>
-  <si>
-    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
-  </si>
-  <si>
-    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
-  </si>
-  <si>
-    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
-  </si>
-  <si>
-    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
-  </si>
-  <si>
-    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
-  </si>
-  <si>
-    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
-  </si>
-  <si>
-    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
-  </si>
-  <si>
-    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
-  </si>
-  <si>
-    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
-  </si>
-  <si>
-    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1934: M00405_m + 4.0 fdxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 fdxo_2_2_m + 3.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
-  </si>
-  <si>
-    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
-  </si>
-  <si>
-    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
-  </si>
-  <si>
-    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
-  </si>
-  <si>
-    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
-  </si>
-  <si>
-    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
-  </si>
-  <si>
-    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
-  </si>
-  <si>
-    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
-  </si>
-  <si>
-    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
-  </si>
-  <si>
-    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
-  </si>
-  <si>
-    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
-  </si>
-  <si>
-    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
-  </si>
-  <si>
-    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
-  </si>
-  <si>
-    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
-  </si>
-  <si>
-    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
-  </si>
-  <si>
-    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
-  </si>
-  <si>
-    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
-  </si>
-  <si>
-    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
-  </si>
-  <si>
-    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
-  </si>
-  <si>
-    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
-  </si>
-  <si>
-    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
-  </si>
-  <si>
-    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
-  </si>
-  <si>
-    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
-  </si>
-  <si>
-    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
-  </si>
-  <si>
-    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
-  </si>
-  <si>
-    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
-  </si>
-  <si>
-    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
-  </si>
-  <si>
-    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
-  </si>
-  <si>
-    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
-  </si>
-  <si>
-    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
-  </si>
-  <si>
-    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
-  </si>
-  <si>
-    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
-  </si>
-  <si>
-    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
-  </si>
-  <si>
-    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
-  </si>
-  <si>
-    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
-  </si>
-  <si>
-    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
-  </si>
-  <si>
-    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
-  </si>
-  <si>
-    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
-  </si>
-  <si>
-    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
-  </si>
-  <si>
-    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
-  </si>
-  <si>
-    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
-  </si>
-  <si>
-    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
-  </si>
-  <si>
-    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
-  </si>
-  <si>
-    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
-  </si>
-  <si>
-    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
-  </si>
-  <si>
-    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
-  </si>
-  <si>
-    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
-  </si>
-  <si>
-    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
-  </si>
-  <si>
-    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
-  </si>
-  <si>
-    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
-  </si>
-  <si>
-    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
-  </si>
-  <si>
-    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
-  </si>
-  <si>
-    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
-  </si>
-  <si>
-    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
-  </si>
-  <si>
-    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
-  </si>
-  <si>
-    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
-  </si>
-  <si>
-    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
-  </si>
-  <si>
-    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
-  </si>
-  <si>
-    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
-  </si>
-  <si>
-    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
-  </si>
-  <si>
-    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
-  </si>
-  <si>
-    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
-  </si>
-  <si>
-    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
-  </si>
-  <si>
-    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
-  </si>
-  <si>
-    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
-  </si>
-  <si>
-    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
-  </si>
-  <si>
-    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
-  </si>
-  <si>
-    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1746: M01077_m + h_m + nadph_m + o2_m --&gt; M01076_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1747: M01080_m + h_m + nadph_m + o2_m --&gt; M01079_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1750: M00746_m + 3.0 h_m + nadph_m + o2_m --&gt; M02977_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1751: M00753_m + nadph_m + o2_m --&gt; M00742_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
-  </si>
-  <si>
-    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
-  </si>
-  <si>
-    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
-  </si>
-  <si>
-    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
-  </si>
-  <si>
-    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
-  </si>
-  <si>
-    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
-  </si>
-  <si>
-    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
-  </si>
-  <si>
-    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
-  </si>
-  <si>
-    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
-  </si>
-  <si>
-    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
-  </si>
-  <si>
-    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
-  </si>
-  <si>
-    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
-  </si>
-  <si>
-    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
-  </si>
-  <si>
-    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
-  </si>
-  <si>
-    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
-  </si>
-  <si>
-    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
-  </si>
-  <si>
-    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
-  </si>
-  <si>
-    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
-  </si>
-  <si>
-    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
-  </si>
-  <si>
-    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
-  </si>
-  <si>
-    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
-  </si>
-  <si>
-    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
-  </si>
-  <si>
-    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
-  </si>
-  <si>
-    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
-  </si>
-  <si>
-    <t>CARhPTtc: carn_l --&gt; carn_c</t>
-  </si>
-  <si>
-    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
-  </si>
-  <si>
-    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
-  </si>
-  <si>
-    <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
-  </si>
-  <si>
-    <t>ENMAN4g: g1m7masnC_g + h2o_g --&gt; glc1man_g + m6masnC_g</t>
-  </si>
-  <si>
-    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
-  </si>
-  <si>
-    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
-  </si>
-  <si>
-    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
-  </si>
-  <si>
-    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
-  </si>
-  <si>
-    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7092: M00227_c + gthrd_c --&gt; M00565_c + M02144_c</t>
-  </si>
-  <si>
-    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
-  </si>
-  <si>
-    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
-  </si>
-  <si>
-    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
-  </si>
-  <si>
-    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
-  </si>
-  <si>
-    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
-  </si>
-  <si>
-    <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
-  </si>
-  <si>
-    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
-  </si>
-  <si>
     <t>H7_TAer: em2emgacpail_cho_r + pre_prot_r --&gt; em2emgacpail_prot_cho_r + gpi_sig_r</t>
-  </si>
-  <si>
-    <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
-  </si>
-  <si>
-    <t>H8TAer: gpi_cho_r + pre_prot_r --&gt; gpi_prot_cho_r + gpi_sig_r</t>
   </si>
 </sst>
 </file>
@@ -5267,7 +5267,7 @@
         <v>865</v>
       </c>
       <c r="C24" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5308,7 +5308,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5316,7 +5316,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6218,7 +6218,7 @@
         <v>932</v>
       </c>
       <c r="C141" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D141" t="s">
         <v>1554</v>
@@ -6483,7 +6483,7 @@
         <v>964</v>
       </c>
       <c r="C173" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D173" t="s">
         <v>1555</v>
@@ -6641,7 +6641,7 @@
         <v>982</v>
       </c>
       <c r="C192" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>1025</v>
       </c>
       <c r="C249" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>1032</v>
       </c>
       <c r="C256" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7218,7 +7218,7 @@
         <v>1039</v>
       </c>
       <c r="C263" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7229,7 +7229,7 @@
         <v>1040</v>
       </c>
       <c r="C264" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7747,7 +7747,7 @@
         <v>1099</v>
       </c>
       <c r="C328" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7814,7 +7814,7 @@
         <v>1107</v>
       </c>
       <c r="C336" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D336" t="s">
         <v>1556</v>
@@ -7916,7 +7916,7 @@
         <v>1118</v>
       </c>
       <c r="C348" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7927,7 +7927,7 @@
         <v>1119</v>
       </c>
       <c r="C349" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7938,7 +7938,7 @@
         <v>1120</v>
       </c>
       <c r="C350" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D350" t="s">
         <v>1122</v>
@@ -7949,16 +7949,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C351" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D351" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E351" t="s">
-        <v>1146</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7966,7 +7966,7 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -7974,7 +7974,7 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7982,7 +7982,7 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C355" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8001,10 +8001,10 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C356" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8012,7 +8012,7 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8020,7 +8020,7 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8028,7 +8028,7 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8036,7 +8036,7 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8044,7 +8044,7 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8052,7 +8052,7 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8060,7 +8060,7 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8068,7 +8068,7 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C366" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D366" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8098,7 +8098,7 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8106,7 +8106,7 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8122,7 +8122,7 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C371" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8141,7 +8141,7 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8149,7 +8149,7 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8165,7 +8165,7 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8173,7 +8173,7 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8181,10 +8181,10 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C377" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D377" t="s">
         <v>1557</v>
@@ -8195,7 +8195,7 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8211,7 +8211,7 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>1146</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8473,7 +8473,7 @@
         <v>1176</v>
       </c>
       <c r="C412" t="s">
-        <v>1538</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8820,10 +8820,10 @@
         <v>1218</v>
       </c>
       <c r="C455" t="s">
-        <v>1247</v>
+        <v>1537</v>
       </c>
       <c r="D455" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8930,7 +8930,7 @@
         <v>1228</v>
       </c>
       <c r="C468" t="s">
-        <v>1229</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8938,7 +8938,7 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8946,10 +8946,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C470" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8965,7 +8965,7 @@
         <v>475</v>
       </c>
       <c r="B472" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8973,10 +8973,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C473" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8992,7 +8992,7 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -9000,7 +9000,7 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -9008,7 +9008,7 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -9016,7 +9016,7 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -9024,7 +9024,7 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -9032,7 +9032,7 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>484</v>
       </c>
       <c r="B481" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>1176</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -9168,7 +9168,7 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -9176,7 +9176,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -9184,7 +9184,7 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9192,7 +9192,7 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9200,7 +9200,7 @@
         <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9208,7 +9208,7 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9216,7 +9216,7 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C503" t="s">
         <v>1539</v>
@@ -9227,7 +9227,7 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9235,7 +9235,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9251,7 +9251,7 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9267,7 +9267,7 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -9275,7 +9275,7 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -9283,7 +9283,7 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -9291,7 +9291,7 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -9299,7 +9299,7 @@
         <v>516</v>
       </c>
       <c r="B513" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -9307,7 +9307,7 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -9315,7 +9315,7 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C515" t="s">
         <v>1540</v>
@@ -9326,7 +9326,7 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9334,7 +9334,7 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -9350,7 +9350,7 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -9366,7 +9366,7 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -9374,7 +9374,7 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -9382,7 +9382,7 @@
         <v>526</v>
       </c>
       <c r="B523" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C523" t="s">
         <v>1541</v>
@@ -9393,7 +9393,7 @@
         <v>527</v>
       </c>
       <c r="B524" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>528</v>
       </c>
       <c r="B525" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -9409,7 +9409,7 @@
         <v>529</v>
       </c>
       <c r="B526" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -9417,7 +9417,7 @@
         <v>530</v>
       </c>
       <c r="B527" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -9425,7 +9425,7 @@
         <v>531</v>
       </c>
       <c r="B528" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -9433,7 +9433,7 @@
         <v>532</v>
       </c>
       <c r="B529" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>533</v>
       </c>
       <c r="B530" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -9449,7 +9449,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>535</v>
       </c>
       <c r="B532" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -9465,7 +9465,7 @@
         <v>536</v>
       </c>
       <c r="B533" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -9473,7 +9473,7 @@
         <v>537</v>
       </c>
       <c r="B534" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -9481,7 +9481,7 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C535" t="s">
         <v>1542</v>
@@ -9492,7 +9492,7 @@
         <v>539</v>
       </c>
       <c r="B536" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>540</v>
       </c>
       <c r="B537" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -9508,7 +9508,7 @@
         <v>541</v>
       </c>
       <c r="B538" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -9516,7 +9516,7 @@
         <v>542</v>
       </c>
       <c r="B539" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -9524,7 +9524,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9532,7 +9532,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9548,7 +9548,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9556,7 +9556,7 @@
         <v>547</v>
       </c>
       <c r="B544" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -9564,7 +9564,7 @@
         <v>548</v>
       </c>
       <c r="B545" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -9572,7 +9572,7 @@
         <v>549</v>
       </c>
       <c r="B546" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -9580,7 +9580,7 @@
         <v>550</v>
       </c>
       <c r="B547" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -9588,7 +9588,7 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -9596,7 +9596,7 @@
         <v>552</v>
       </c>
       <c r="B549" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -9604,7 +9604,7 @@
         <v>553</v>
       </c>
       <c r="B550" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -9612,7 +9612,7 @@
         <v>554</v>
       </c>
       <c r="B551" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9620,10 +9620,10 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C552" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9631,7 +9631,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -9639,7 +9639,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -9647,7 +9647,7 @@
         <v>558</v>
       </c>
       <c r="B555" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -9655,7 +9655,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9663,13 +9663,13 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C557" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D557" t="s">
         <v>1306</v>
-      </c>
-      <c r="D557" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -9677,7 +9677,7 @@
         <v>561</v>
       </c>
       <c r="B558" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -9685,7 +9685,7 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -9693,7 +9693,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -9701,7 +9701,7 @@
         <v>564</v>
       </c>
       <c r="B561" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -9709,10 +9709,10 @@
         <v>565</v>
       </c>
       <c r="B562" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C562" t="s">
-        <v>1308</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -9720,7 +9720,7 @@
         <v>566</v>
       </c>
       <c r="B563" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -9728,7 +9728,7 @@
         <v>567</v>
       </c>
       <c r="B564" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -9736,7 +9736,7 @@
         <v>568</v>
       </c>
       <c r="B565" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>569</v>
       </c>
       <c r="B566" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -9752,7 +9752,7 @@
         <v>570</v>
       </c>
       <c r="B567" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -9760,7 +9760,7 @@
         <v>571</v>
       </c>
       <c r="B568" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -9768,7 +9768,7 @@
         <v>572</v>
       </c>
       <c r="B569" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -9776,7 +9776,7 @@
         <v>573</v>
       </c>
       <c r="B570" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -9784,7 +9784,7 @@
         <v>574</v>
       </c>
       <c r="B571" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -9792,7 +9792,7 @@
         <v>575</v>
       </c>
       <c r="B572" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -9800,7 +9800,7 @@
         <v>576</v>
       </c>
       <c r="B573" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -9808,7 +9808,7 @@
         <v>577</v>
       </c>
       <c r="B574" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -9816,7 +9816,7 @@
         <v>578</v>
       </c>
       <c r="B575" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -9824,7 +9824,7 @@
         <v>579</v>
       </c>
       <c r="B576" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>580</v>
       </c>
       <c r="B577" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9840,7 +9840,7 @@
         <v>581</v>
       </c>
       <c r="B578" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>582</v>
       </c>
       <c r="B579" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -9856,7 +9856,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -9864,10 +9864,10 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C581" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -9875,7 +9875,7 @@
         <v>585</v>
       </c>
       <c r="B582" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -9883,7 +9883,7 @@
         <v>586</v>
       </c>
       <c r="B583" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -9891,7 +9891,7 @@
         <v>587</v>
       </c>
       <c r="B584" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -9899,7 +9899,7 @@
         <v>588</v>
       </c>
       <c r="B585" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -9907,7 +9907,7 @@
         <v>589</v>
       </c>
       <c r="B586" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -9915,7 +9915,7 @@
         <v>590</v>
       </c>
       <c r="B587" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -9923,7 +9923,7 @@
         <v>591</v>
       </c>
       <c r="B588" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>592</v>
       </c>
       <c r="B589" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -9939,7 +9939,7 @@
         <v>593</v>
       </c>
       <c r="B590" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -9947,7 +9947,7 @@
         <v>594</v>
       </c>
       <c r="B591" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -9955,10 +9955,10 @@
         <v>595</v>
       </c>
       <c r="B592" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C592" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -9966,7 +9966,7 @@
         <v>596</v>
       </c>
       <c r="B593" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -9974,7 +9974,7 @@
         <v>597</v>
       </c>
       <c r="B594" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -9982,7 +9982,7 @@
         <v>598</v>
       </c>
       <c r="B595" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -9990,7 +9990,7 @@
         <v>599</v>
       </c>
       <c r="B596" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -9998,7 +9998,7 @@
         <v>600</v>
       </c>
       <c r="B597" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -10006,7 +10006,7 @@
         <v>601</v>
       </c>
       <c r="B598" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -10014,7 +10014,7 @@
         <v>602</v>
       </c>
       <c r="B599" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -10022,7 +10022,7 @@
         <v>603</v>
       </c>
       <c r="B600" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -10030,7 +10030,7 @@
         <v>604</v>
       </c>
       <c r="B601" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -10038,7 +10038,7 @@
         <v>605</v>
       </c>
       <c r="B602" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -10046,7 +10046,7 @@
         <v>606</v>
       </c>
       <c r="B603" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -10054,7 +10054,7 @@
         <v>607</v>
       </c>
       <c r="B604" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -10062,7 +10062,7 @@
         <v>608</v>
       </c>
       <c r="B605" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -10070,7 +10070,7 @@
         <v>609</v>
       </c>
       <c r="B606" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -10078,7 +10078,7 @@
         <v>610</v>
       </c>
       <c r="B607" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -10086,7 +10086,7 @@
         <v>611</v>
       </c>
       <c r="B608" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -10094,7 +10094,7 @@
         <v>612</v>
       </c>
       <c r="B609" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -10102,7 +10102,7 @@
         <v>613</v>
       </c>
       <c r="B610" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -10110,10 +10110,10 @@
         <v>614</v>
       </c>
       <c r="B611" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C611" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D611" t="s">
         <v>1558</v>
@@ -10124,7 +10124,7 @@
         <v>615</v>
       </c>
       <c r="B612" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -10132,7 +10132,7 @@
         <v>616</v>
       </c>
       <c r="B613" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -10140,7 +10140,7 @@
         <v>617</v>
       </c>
       <c r="B614" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>618</v>
       </c>
       <c r="B615" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -10156,7 +10156,7 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -10164,7 +10164,7 @@
         <v>620</v>
       </c>
       <c r="B617" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -10172,10 +10172,10 @@
         <v>621</v>
       </c>
       <c r="B618" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C618" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -10183,10 +10183,10 @@
         <v>622</v>
       </c>
       <c r="B619" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C619" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -10194,7 +10194,7 @@
         <v>623</v>
       </c>
       <c r="B620" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10202,7 +10202,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -10210,7 +10210,7 @@
         <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -10218,7 +10218,7 @@
         <v>626</v>
       </c>
       <c r="B623" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -10226,7 +10226,7 @@
         <v>627</v>
       </c>
       <c r="B624" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -10234,7 +10234,7 @@
         <v>628</v>
       </c>
       <c r="B625" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -10242,7 +10242,7 @@
         <v>629</v>
       </c>
       <c r="B626" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -10250,7 +10250,7 @@
         <v>630</v>
       </c>
       <c r="B627" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10258,7 +10258,7 @@
         <v>631</v>
       </c>
       <c r="B628" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -10266,7 +10266,7 @@
         <v>632</v>
       </c>
       <c r="B629" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -10274,7 +10274,7 @@
         <v>633</v>
       </c>
       <c r="B630" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -10282,13 +10282,13 @@
         <v>634</v>
       </c>
       <c r="B631" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C631" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D631" t="s">
-        <v>1361</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -10296,7 +10296,7 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -10304,7 +10304,7 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -10312,7 +10312,7 @@
         <v>637</v>
       </c>
       <c r="B634" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10320,7 +10320,7 @@
         <v>638</v>
       </c>
       <c r="B635" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10328,7 +10328,7 @@
         <v>639</v>
       </c>
       <c r="B636" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10336,7 +10336,7 @@
         <v>640</v>
       </c>
       <c r="B637" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -10344,7 +10344,7 @@
         <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -10352,7 +10352,7 @@
         <v>642</v>
       </c>
       <c r="B639" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -10360,7 +10360,7 @@
         <v>643</v>
       </c>
       <c r="B640" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -10368,7 +10368,7 @@
         <v>644</v>
       </c>
       <c r="B641" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>645</v>
       </c>
       <c r="B642" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -10384,7 +10384,7 @@
         <v>646</v>
       </c>
       <c r="B643" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -10392,7 +10392,7 @@
         <v>647</v>
       </c>
       <c r="B644" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -10400,10 +10400,10 @@
         <v>648</v>
       </c>
       <c r="B645" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C645" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -10411,7 +10411,7 @@
         <v>649</v>
       </c>
       <c r="B646" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -10419,7 +10419,7 @@
         <v>650</v>
       </c>
       <c r="B647" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -10427,7 +10427,7 @@
         <v>651</v>
       </c>
       <c r="B648" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -10435,7 +10435,7 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -10443,7 +10443,7 @@
         <v>653</v>
       </c>
       <c r="B650" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -10451,7 +10451,7 @@
         <v>654</v>
       </c>
       <c r="B651" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>655</v>
       </c>
       <c r="B652" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -10467,7 +10467,7 @@
         <v>656</v>
       </c>
       <c r="B653" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>657</v>
       </c>
       <c r="B654" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -10483,7 +10483,7 @@
         <v>658</v>
       </c>
       <c r="B655" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -10491,10 +10491,10 @@
         <v>659</v>
       </c>
       <c r="B656" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C656" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -10502,7 +10502,7 @@
         <v>660</v>
       </c>
       <c r="B657" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -10510,7 +10510,7 @@
         <v>661</v>
       </c>
       <c r="B658" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -10518,7 +10518,7 @@
         <v>662</v>
       </c>
       <c r="B659" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -10526,7 +10526,7 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -10534,7 +10534,7 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -10542,7 +10542,7 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -10550,7 +10550,7 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -10558,7 +10558,7 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -10566,7 +10566,7 @@
         <v>668</v>
       </c>
       <c r="B665" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -10574,7 +10574,7 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -10582,7 +10582,7 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -10590,7 +10590,7 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -10598,7 +10598,7 @@
         <v>672</v>
       </c>
       <c r="B669" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -10606,7 +10606,7 @@
         <v>673</v>
       </c>
       <c r="B670" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -10614,7 +10614,7 @@
         <v>674</v>
       </c>
       <c r="B671" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -10622,7 +10622,7 @@
         <v>675</v>
       </c>
       <c r="B672" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -10630,7 +10630,7 @@
         <v>676</v>
       </c>
       <c r="B673" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -10638,7 +10638,7 @@
         <v>677</v>
       </c>
       <c r="B674" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>678</v>
       </c>
       <c r="B675" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -10654,7 +10654,7 @@
         <v>679</v>
       </c>
       <c r="B676" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>680</v>
       </c>
       <c r="B677" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -10670,7 +10670,7 @@
         <v>681</v>
       </c>
       <c r="B678" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -10678,7 +10678,7 @@
         <v>682</v>
       </c>
       <c r="B679" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -10686,7 +10686,7 @@
         <v>683</v>
       </c>
       <c r="B680" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -10694,7 +10694,7 @@
         <v>684</v>
       </c>
       <c r="B681" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -10702,7 +10702,7 @@
         <v>685</v>
       </c>
       <c r="B682" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -10710,10 +10710,10 @@
         <v>686</v>
       </c>
       <c r="B683" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C683" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -10721,7 +10721,7 @@
         <v>687</v>
       </c>
       <c r="B684" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -10729,7 +10729,7 @@
         <v>688</v>
       </c>
       <c r="B685" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -10737,7 +10737,7 @@
         <v>689</v>
       </c>
       <c r="B686" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>690</v>
       </c>
       <c r="B687" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -10753,7 +10753,7 @@
         <v>691</v>
       </c>
       <c r="B688" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -10761,7 +10761,7 @@
         <v>692</v>
       </c>
       <c r="B689" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -10769,7 +10769,7 @@
         <v>693</v>
       </c>
       <c r="B690" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -10777,7 +10777,7 @@
         <v>694</v>
       </c>
       <c r="B691" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -10785,7 +10785,7 @@
         <v>695</v>
       </c>
       <c r="B692" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -10793,7 +10793,7 @@
         <v>696</v>
       </c>
       <c r="B693" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -10801,7 +10801,7 @@
         <v>697</v>
       </c>
       <c r="B694" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -10809,7 +10809,7 @@
         <v>698</v>
       </c>
       <c r="B695" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -10817,7 +10817,7 @@
         <v>699</v>
       </c>
       <c r="B696" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -10825,7 +10825,7 @@
         <v>700</v>
       </c>
       <c r="B697" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -10833,7 +10833,7 @@
         <v>701</v>
       </c>
       <c r="B698" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -10841,7 +10841,7 @@
         <v>702</v>
       </c>
       <c r="B699" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -10849,7 +10849,7 @@
         <v>703</v>
       </c>
       <c r="B700" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -10857,7 +10857,7 @@
         <v>704</v>
       </c>
       <c r="B701" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -10865,7 +10865,7 @@
         <v>705</v>
       </c>
       <c r="B702" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -10873,7 +10873,7 @@
         <v>706</v>
       </c>
       <c r="B703" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -10881,7 +10881,7 @@
         <v>707</v>
       </c>
       <c r="B704" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -10889,7 +10889,7 @@
         <v>708</v>
       </c>
       <c r="B705" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -10897,7 +10897,7 @@
         <v>709</v>
       </c>
       <c r="B706" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -10905,7 +10905,7 @@
         <v>710</v>
       </c>
       <c r="B707" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -10913,7 +10913,7 @@
         <v>711</v>
       </c>
       <c r="B708" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -10921,7 +10921,7 @@
         <v>712</v>
       </c>
       <c r="B709" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -10929,7 +10929,7 @@
         <v>713</v>
       </c>
       <c r="B710" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -10937,7 +10937,7 @@
         <v>714</v>
       </c>
       <c r="B711" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -10945,7 +10945,7 @@
         <v>715</v>
       </c>
       <c r="B712" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -10953,7 +10953,7 @@
         <v>716</v>
       </c>
       <c r="B713" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -10961,7 +10961,7 @@
         <v>717</v>
       </c>
       <c r="B714" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -10969,7 +10969,7 @@
         <v>718</v>
       </c>
       <c r="B715" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -10977,7 +10977,7 @@
         <v>719</v>
       </c>
       <c r="B716" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -10985,7 +10985,7 @@
         <v>720</v>
       </c>
       <c r="B717" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -10993,7 +10993,7 @@
         <v>721</v>
       </c>
       <c r="B718" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -11001,7 +11001,7 @@
         <v>722</v>
       </c>
       <c r="B719" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -11009,7 +11009,7 @@
         <v>723</v>
       </c>
       <c r="B720" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -11017,7 +11017,7 @@
         <v>724</v>
       </c>
       <c r="B721" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -11025,7 +11025,7 @@
         <v>725</v>
       </c>
       <c r="B722" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -11033,7 +11033,7 @@
         <v>726</v>
       </c>
       <c r="B723" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -11041,7 +11041,7 @@
         <v>727</v>
       </c>
       <c r="B724" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -11049,7 +11049,7 @@
         <v>728</v>
       </c>
       <c r="B725" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -11057,7 +11057,7 @@
         <v>729</v>
       </c>
       <c r="B726" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -11065,7 +11065,7 @@
         <v>730</v>
       </c>
       <c r="B727" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -11073,7 +11073,7 @@
         <v>731</v>
       </c>
       <c r="B728" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -11081,10 +11081,10 @@
         <v>732</v>
       </c>
       <c r="B729" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C729" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -11092,7 +11092,7 @@
         <v>733</v>
       </c>
       <c r="B730" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -11100,7 +11100,7 @@
         <v>734</v>
       </c>
       <c r="B731" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -11108,7 +11108,7 @@
         <v>735</v>
       </c>
       <c r="B732" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -11116,10 +11116,10 @@
         <v>736</v>
       </c>
       <c r="B733" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C733" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -11127,7 +11127,7 @@
         <v>737</v>
       </c>
       <c r="B734" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -11135,7 +11135,7 @@
         <v>738</v>
       </c>
       <c r="B735" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -11143,7 +11143,7 @@
         <v>739</v>
       </c>
       <c r="B736" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>740</v>
       </c>
       <c r="B737" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>741</v>
       </c>
       <c r="B738" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>742</v>
       </c>
       <c r="B739" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>743</v>
       </c>
       <c r="B740" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>744</v>
       </c>
       <c r="B741" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>745</v>
       </c>
       <c r="B742" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>746</v>
       </c>
       <c r="B743" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>747</v>
       </c>
       <c r="B744" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>748</v>
       </c>
       <c r="B745" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>749</v>
       </c>
       <c r="B746" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>750</v>
       </c>
       <c r="B747" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>751</v>
       </c>
       <c r="B748" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>752</v>
       </c>
       <c r="B749" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>753</v>
       </c>
       <c r="B750" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>755</v>
       </c>
       <c r="B752" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -11279,10 +11279,10 @@
         <v>756</v>
       </c>
       <c r="B753" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C753" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -11290,10 +11290,10 @@
         <v>757</v>
       </c>
       <c r="B754" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C754" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -11301,7 +11301,7 @@
         <v>758</v>
       </c>
       <c r="B755" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>759</v>
       </c>
       <c r="B756" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -11317,10 +11317,10 @@
         <v>760</v>
       </c>
       <c r="B757" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C757" t="s">
-        <v>1551</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -11328,7 +11328,7 @@
         <v>761</v>
       </c>
       <c r="B758" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -11336,7 +11336,7 @@
         <v>762</v>
       </c>
       <c r="B759" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>763</v>
       </c>
       <c r="B760" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -11352,7 +11352,7 @@
         <v>764</v>
       </c>
       <c r="B761" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -11360,7 +11360,7 @@
         <v>765</v>
       </c>
       <c r="B762" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -11368,7 +11368,7 @@
         <v>766</v>
       </c>
       <c r="B763" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -11376,7 +11376,7 @@
         <v>767</v>
       </c>
       <c r="B764" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -11384,7 +11384,7 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -11392,7 +11392,7 @@
         <v>769</v>
       </c>
       <c r="B766" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -11400,7 +11400,7 @@
         <v>770</v>
       </c>
       <c r="B767" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -11408,7 +11408,7 @@
         <v>771</v>
       </c>
       <c r="B768" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -11416,7 +11416,7 @@
         <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -11424,7 +11424,7 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -11432,7 +11432,7 @@
         <v>774</v>
       </c>
       <c r="B771" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -11440,7 +11440,7 @@
         <v>775</v>
       </c>
       <c r="B772" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -11448,7 +11448,7 @@
         <v>776</v>
       </c>
       <c r="B773" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -11456,7 +11456,7 @@
         <v>777</v>
       </c>
       <c r="B774" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -11464,7 +11464,7 @@
         <v>778</v>
       </c>
       <c r="B775" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -11472,7 +11472,7 @@
         <v>779</v>
       </c>
       <c r="B776" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -11480,7 +11480,7 @@
         <v>780</v>
       </c>
       <c r="B777" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -11488,7 +11488,7 @@
         <v>781</v>
       </c>
       <c r="B778" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -11496,7 +11496,7 @@
         <v>782</v>
       </c>
       <c r="B779" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -11504,7 +11504,7 @@
         <v>783</v>
       </c>
       <c r="B780" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -11512,7 +11512,7 @@
         <v>784</v>
       </c>
       <c r="B781" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -11520,13 +11520,13 @@
         <v>785</v>
       </c>
       <c r="B782" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D782" t="s">
         <v>1471</v>
-      </c>
-      <c r="C782" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D782" t="s">
-        <v>1559</v>
       </c>
       <c r="E782" t="s">
         <v>1561</v>
@@ -11537,13 +11537,13 @@
         <v>786</v>
       </c>
       <c r="B783" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D783" t="s">
         <v>1471</v>
-      </c>
-      <c r="C783" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1559</v>
       </c>
       <c r="E783" t="s">
         <v>1561</v>
@@ -11554,7 +11554,7 @@
         <v>787</v>
       </c>
       <c r="B784" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -11562,7 +11562,7 @@
         <v>788</v>
       </c>
       <c r="B785" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -11570,7 +11570,7 @@
         <v>789</v>
       </c>
       <c r="B786" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -11578,7 +11578,7 @@
         <v>790</v>
       </c>
       <c r="B787" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -11586,7 +11586,7 @@
         <v>791</v>
       </c>
       <c r="B788" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -11594,7 +11594,7 @@
         <v>792</v>
       </c>
       <c r="B789" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -11602,7 +11602,7 @@
         <v>793</v>
       </c>
       <c r="B790" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -11610,7 +11610,7 @@
         <v>794</v>
       </c>
       <c r="B791" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -11618,7 +11618,7 @@
         <v>795</v>
       </c>
       <c r="B792" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -11626,7 +11626,7 @@
         <v>796</v>
       </c>
       <c r="B793" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -11634,7 +11634,7 @@
         <v>797</v>
       </c>
       <c r="B794" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -11642,7 +11642,7 @@
         <v>798</v>
       </c>
       <c r="B795" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C795" t="s">
         <v>1552</v>
@@ -11653,7 +11653,7 @@
         <v>799</v>
       </c>
       <c r="B796" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -11661,7 +11661,7 @@
         <v>800</v>
       </c>
       <c r="B797" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -11669,7 +11669,7 @@
         <v>801</v>
       </c>
       <c r="B798" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -11677,7 +11677,7 @@
         <v>802</v>
       </c>
       <c r="B799" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -11685,7 +11685,7 @@
         <v>803</v>
       </c>
       <c r="B800" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -11693,7 +11693,7 @@
         <v>804</v>
       </c>
       <c r="B801" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -11701,7 +11701,7 @@
         <v>805</v>
       </c>
       <c r="B802" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -11709,7 +11709,7 @@
         <v>806</v>
       </c>
       <c r="B803" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -11717,7 +11717,7 @@
         <v>807</v>
       </c>
       <c r="B804" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -11725,7 +11725,7 @@
         <v>808</v>
       </c>
       <c r="B805" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -11733,7 +11733,7 @@
         <v>809</v>
       </c>
       <c r="B806" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11741,7 +11741,7 @@
         <v>810</v>
       </c>
       <c r="B807" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11749,7 +11749,7 @@
         <v>811</v>
       </c>
       <c r="B808" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -11757,7 +11757,7 @@
         <v>812</v>
       </c>
       <c r="B809" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11765,7 +11765,7 @@
         <v>813</v>
       </c>
       <c r="B810" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11773,7 +11773,7 @@
         <v>814</v>
       </c>
       <c r="B811" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11781,7 +11781,7 @@
         <v>815</v>
       </c>
       <c r="B812" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11789,7 +11789,7 @@
         <v>816</v>
       </c>
       <c r="B813" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -11797,7 +11797,7 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -11805,7 +11805,7 @@
         <v>818</v>
       </c>
       <c r="B815" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="B816" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -11821,7 +11821,7 @@
         <v>820</v>
       </c>
       <c r="B817" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -11829,7 +11829,7 @@
         <v>821</v>
       </c>
       <c r="B818" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -11837,7 +11837,7 @@
         <v>822</v>
       </c>
       <c r="B819" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -11845,7 +11845,7 @@
         <v>823</v>
       </c>
       <c r="B820" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -11853,7 +11853,7 @@
         <v>824</v>
       </c>
       <c r="B821" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -11861,7 +11861,7 @@
         <v>825</v>
       </c>
       <c r="B822" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -11869,7 +11869,7 @@
         <v>826</v>
       </c>
       <c r="B823" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -11877,7 +11877,7 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -11885,7 +11885,7 @@
         <v>828</v>
       </c>
       <c r="B825" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -11893,7 +11893,7 @@
         <v>829</v>
       </c>
       <c r="B826" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -11901,7 +11901,7 @@
         <v>830</v>
       </c>
       <c r="B827" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -11909,7 +11909,7 @@
         <v>831</v>
       </c>
       <c r="B828" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -11917,7 +11917,7 @@
         <v>832</v>
       </c>
       <c r="B829" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -11925,7 +11925,7 @@
         <v>833</v>
       </c>
       <c r="B830" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -11933,7 +11933,7 @@
         <v>834</v>
       </c>
       <c r="B831" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -11941,7 +11941,7 @@
         <v>835</v>
       </c>
       <c r="B832" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -11949,7 +11949,7 @@
         <v>836</v>
       </c>
       <c r="B833" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -11957,7 +11957,7 @@
         <v>837</v>
       </c>
       <c r="B834" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11965,7 +11965,7 @@
         <v>838</v>
       </c>
       <c r="B835" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11973,7 +11973,7 @@
         <v>839</v>
       </c>
       <c r="B836" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -11981,7 +11981,7 @@
         <v>840</v>
       </c>
       <c r="B837" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -11989,7 +11989,7 @@
         <v>841</v>
       </c>
       <c r="B838" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11997,7 +11997,7 @@
         <v>842</v>
       </c>
       <c r="B839" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -12005,7 +12005,7 @@
         <v>843</v>
       </c>
       <c r="B840" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -12013,7 +12013,7 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -12021,7 +12021,7 @@
         <v>845</v>
       </c>
       <c r="B842" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -12029,7 +12029,7 @@
         <v>846</v>
       </c>
       <c r="B843" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/temp/dead_ends_reactions.xlsx
+++ b/Notebooks/temp/dead_ends_reactions.xlsx
@@ -2593,6 +2593,9 @@
     <t>CYSLYSL: Lcystin_c + h2o_c --&gt; nh4_c + pyr_c + thcys_c</t>
   </si>
   <si>
+    <t>HMR_7163: dna_c + h2o_c --&gt; 0.3 damp_c + 0.2 dcmp_c + 0.2 dgmp_c + 0.3 dtmp_c</t>
+  </si>
+  <si>
     <t>HMR_4072: amet_c + dna_c --&gt; ahcys_c + dna5mtc_c + h_c</t>
   </si>
   <si>
@@ -2608,2098 +2611,2095 @@
     <t>AGPRim: acg5p_m + h_m + nadph_m --&gt; acg5sa_m + nadp_m + pi_m</t>
   </si>
   <si>
+    <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
+  </si>
+  <si>
+    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
+  </si>
+  <si>
+    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
+  </si>
+  <si>
+    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
+  </si>
+  <si>
+    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
+  </si>
+  <si>
+    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
+  </si>
+  <si>
+    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
+  </si>
+  <si>
+    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
+  </si>
+  <si>
+    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
+  </si>
+  <si>
+    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
+  </si>
+  <si>
+    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
+  </si>
+  <si>
+    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+  </si>
+  <si>
+    <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
+  </si>
+  <si>
+    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
+  </si>
+  <si>
+    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
+  </si>
+  <si>
+    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
+  </si>
+  <si>
+    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
+  </si>
+  <si>
+    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
+  </si>
+  <si>
+    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
+  </si>
+  <si>
+    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
+  </si>
+  <si>
+    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
+  </si>
+  <si>
+    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
+  </si>
+  <si>
+    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
+  </si>
+  <si>
+    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
+  </si>
+  <si>
+    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
+  </si>
+  <si>
+    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
+  </si>
+  <si>
+    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
+  </si>
+  <si>
+    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
+  </si>
+  <si>
+    <t>BVITEt: bvite_e --&gt; bvite_c</t>
+  </si>
+  <si>
+    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
+  </si>
+  <si>
+    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
+  </si>
+  <si>
+    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
+  </si>
+  <si>
+    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
+  </si>
+  <si>
+    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
+  </si>
+  <si>
+    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
+  </si>
+  <si>
+    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
+  </si>
+  <si>
+    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
+  </si>
+  <si>
+    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
+  </si>
+  <si>
+    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
+  </si>
+  <si>
+    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
+  </si>
+  <si>
+    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
+  </si>
+  <si>
+    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
+  </si>
+  <si>
+    <t>r1129: HC00004_c --&gt; HC00004_r</t>
+  </si>
+  <si>
+    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
+  </si>
+  <si>
+    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
+  </si>
+  <si>
+    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
+  </si>
+  <si>
+    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
+  </si>
+  <si>
+    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
+  </si>
+  <si>
+    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
+  </si>
+  <si>
+    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
+  </si>
+  <si>
+    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
+  </si>
+  <si>
+    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
+  </si>
+  <si>
+    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
+  </si>
+  <si>
+    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
+  </si>
+  <si>
+    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
+  </si>
+  <si>
+    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
+  </si>
+  <si>
+    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
+  </si>
+  <si>
+    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
+  </si>
+  <si>
+    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
+  </si>
+  <si>
+    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
+  </si>
+  <si>
+    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
+  </si>
+  <si>
+    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
+  </si>
+  <si>
+    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
+  </si>
+  <si>
+    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
+  </si>
+  <si>
+    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
+  </si>
+  <si>
+    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
+  </si>
+  <si>
+    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
+  </si>
+  <si>
+    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
+  </si>
+  <si>
+    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
+  </si>
+  <si>
+    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
+  </si>
+  <si>
+    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
+  </si>
+  <si>
+    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
+  </si>
+  <si>
+    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
+  </si>
+  <si>
+    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
+  </si>
+  <si>
+    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
+  </si>
+  <si>
+    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
+  </si>
+  <si>
+    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
+  </si>
+  <si>
+    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
+  </si>
+  <si>
+    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
+  </si>
+  <si>
+    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
+  </si>
+  <si>
+    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
+  </si>
+  <si>
+    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
+  </si>
+  <si>
+    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
+  </si>
+  <si>
+    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
+  </si>
+  <si>
+    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
+  </si>
+  <si>
+    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
+  </si>
+  <si>
+    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
+  </si>
+  <si>
+    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
+  </si>
+  <si>
+    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
+  </si>
+  <si>
+    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
+  </si>
+  <si>
+    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
+  </si>
+  <si>
+    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
+  </si>
+  <si>
+    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
+  </si>
+  <si>
+    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
+  </si>
+  <si>
+    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
+  </si>
+  <si>
+    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
+  </si>
+  <si>
+    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
+  </si>
+  <si>
+    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
+  </si>
+  <si>
+    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
+  </si>
+  <si>
+    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
+  </si>
+  <si>
+    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
+  </si>
+  <si>
+    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
+  </si>
+  <si>
+    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
+  </si>
+  <si>
+    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
+  </si>
+  <si>
+    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
+  </si>
+  <si>
+    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
+  </si>
+  <si>
+    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
+  </si>
+  <si>
+    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
+  </si>
+  <si>
+    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
+  </si>
+  <si>
+    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
+  </si>
+  <si>
+    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
+  </si>
+  <si>
+    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
+  </si>
+  <si>
+    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
+  </si>
+  <si>
+    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
+  </si>
+  <si>
+    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
+  </si>
+  <si>
+    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
+  </si>
+  <si>
+    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
+  </si>
+  <si>
+    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
+  </si>
+  <si>
+    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
+  </si>
+  <si>
+    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
+  </si>
+  <si>
+    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
+  </si>
+  <si>
+    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
+  </si>
+  <si>
+    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
+  </si>
+  <si>
+    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
+  </si>
+  <si>
+    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
+  </si>
+  <si>
+    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
+  </si>
+  <si>
+    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
+  </si>
+  <si>
+    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
+  </si>
+  <si>
+    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
+  </si>
+  <si>
+    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
+  </si>
+  <si>
+    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
+  </si>
+  <si>
+    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
+  </si>
+  <si>
+    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
+  </si>
+  <si>
+    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
+  </si>
+  <si>
+    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
+  </si>
+  <si>
+    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
+  </si>
+  <si>
+    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
+  </si>
+  <si>
+    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
+  </si>
+  <si>
+    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
+  </si>
+  <si>
+    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
+  </si>
+  <si>
+    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
+  </si>
+  <si>
+    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
+  </si>
+  <si>
+    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
+  </si>
+  <si>
+    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
+  </si>
+  <si>
+    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
+  </si>
+  <si>
+    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
+  </si>
+  <si>
+    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
+  </si>
+  <si>
+    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
+  </si>
+  <si>
+    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
+  </si>
+  <si>
+    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
+  </si>
+  <si>
+    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
+  </si>
+  <si>
+    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
+  </si>
+  <si>
+    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
+  </si>
+  <si>
+    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
+  </si>
+  <si>
+    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
+  </si>
+  <si>
+    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
+  </si>
+  <si>
+    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
+  </si>
+  <si>
+    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
+  </si>
+  <si>
+    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
+  </si>
+  <si>
+    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
+  </si>
+  <si>
+    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
+  </si>
+  <si>
+    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
+  </si>
+  <si>
+    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
+  </si>
+  <si>
+    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
+  </si>
+  <si>
+    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
+  </si>
+  <si>
+    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
+  </si>
+  <si>
+    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
+  </si>
+  <si>
+    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
+  </si>
+  <si>
+    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
+  </si>
+  <si>
+    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
+  </si>
+  <si>
+    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
+  </si>
+  <si>
+    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
+  </si>
+  <si>
+    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
+  </si>
+  <si>
+    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
+  </si>
+  <si>
+    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
+  </si>
+  <si>
+    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
+  </si>
+  <si>
+    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
+  </si>
+  <si>
+    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
+  </si>
+  <si>
+    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
+  </si>
+  <si>
+    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
+  </si>
+  <si>
+    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
+  </si>
+  <si>
+    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
+  </si>
+  <si>
+    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
+  </si>
+  <si>
+    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
+  </si>
+  <si>
+    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
+  </si>
+  <si>
+    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
+  </si>
+  <si>
+    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
+  </si>
+  <si>
+    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
+  </si>
+  <si>
+    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
+  </si>
+  <si>
+    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
+  </si>
+  <si>
+    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
+  </si>
+  <si>
+    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
+  </si>
+  <si>
+    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
+  </si>
+  <si>
+    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
+  </si>
+  <si>
+    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
+  </si>
+  <si>
+    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1746: M01077_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01076_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1747: M01080_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01079_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1750: M00746_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M02977_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1751: M00753_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00742_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
+  </si>
+  <si>
+    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
+  </si>
+  <si>
+    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
+  </si>
+  <si>
+    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
+  </si>
+  <si>
+    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
+  </si>
+  <si>
+    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
+  </si>
+  <si>
+    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
+  </si>
+  <si>
+    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
+  </si>
+  <si>
+    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
+  </si>
+  <si>
+    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
+  </si>
+  <si>
+    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
+  </si>
+  <si>
+    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
+  </si>
+  <si>
+    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
+  </si>
+  <si>
+    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
+  </si>
+  <si>
+    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
+  </si>
+  <si>
+    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
+  </si>
+  <si>
+    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
+  </si>
+  <si>
+    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
+  </si>
+  <si>
+    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
+  </si>
+  <si>
+    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
+  </si>
+  <si>
+    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
+  </si>
+  <si>
+    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
+  </si>
+  <si>
+    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+  </si>
+  <si>
+    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
+  </si>
+  <si>
+    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
+  </si>
+  <si>
+    <t>CARhPTtc: carn_l --&gt; carn_c</t>
+  </si>
+  <si>
+    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
+  </si>
+  <si>
+    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
+  </si>
+  <si>
     <t>RE3367X: CE1939_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
   </si>
   <si>
     <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
   </si>
   <si>
-    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
-  </si>
-  <si>
-    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
-  </si>
-  <si>
-    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
-  </si>
-  <si>
-    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
-  </si>
-  <si>
-    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
-  </si>
-  <si>
-    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
-  </si>
-  <si>
-    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
-  </si>
-  <si>
-    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
-  </si>
-  <si>
-    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
-  </si>
-  <si>
-    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
-  </si>
-  <si>
-    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+    <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
+  </si>
+  <si>
+    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
+  </si>
+  <si>
+    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
+  </si>
+  <si>
+    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>r0778: HC01652_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
+  </si>
+  <si>
+    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
+  </si>
+  <si>
+    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
+  </si>
+  <si>
+    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
+  </si>
+  <si>
+    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>H7_TAer: em2emgacpail_cho_r + pre_prot_r --&gt; em2emgacpail_prot_cho_r + gpi_sig_r</t>
+  </si>
+  <si>
+    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
   </si>
   <si>
     <t>ENMAN4g: g1m7masnC_g + h2o_g --&gt; glc1man_g + m6masnC_g</t>
   </si>
   <si>
-    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
-  </si>
-  <si>
-    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
-  </si>
-  <si>
-    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
-  </si>
-  <si>
-    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
-  </si>
-  <si>
-    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
-  </si>
-  <si>
-    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
-  </si>
-  <si>
-    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
-  </si>
-  <si>
-    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
-  </si>
-  <si>
-    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
-  </si>
-  <si>
-    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
-  </si>
-  <si>
-    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
-  </si>
-  <si>
-    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
-  </si>
-  <si>
-    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
-  </si>
-  <si>
-    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
-  </si>
-  <si>
-    <t>BVITEt: bvite_e --&gt; bvite_c</t>
-  </si>
-  <si>
-    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
-  </si>
-  <si>
-    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
-  </si>
-  <si>
-    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
-  </si>
-  <si>
-    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
-  </si>
-  <si>
-    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
-  </si>
-  <si>
-    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
-  </si>
-  <si>
-    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
-  </si>
-  <si>
-    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
-  </si>
-  <si>
-    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
-  </si>
-  <si>
-    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
-  </si>
-  <si>
-    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
-  </si>
-  <si>
-    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
-  </si>
-  <si>
-    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
-  </si>
-  <si>
-    <t>r1129: HC00004_c --&gt; HC00004_r</t>
-  </si>
-  <si>
-    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
-  </si>
-  <si>
-    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
-  </si>
-  <si>
-    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
-  </si>
-  <si>
-    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
-  </si>
-  <si>
-    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
-  </si>
-  <si>
-    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
-  </si>
-  <si>
-    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
-  </si>
-  <si>
-    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
-  </si>
-  <si>
-    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
-  </si>
-  <si>
-    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r0778: HC01652_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
-  </si>
-  <si>
-    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
-  </si>
-  <si>
-    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
-  </si>
-  <si>
-    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
-  </si>
-  <si>
-    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
+    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
+  </si>
+  <si>
+    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
+  </si>
+  <si>
+    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
+  </si>
+  <si>
+    <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
   </si>
   <si>
     <t>HMR_7092: M00227_c + gthrd_c --&gt; M00565_c + M02144_c</t>
   </si>
   <si>
-    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
-  </si>
-  <si>
-    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
-  </si>
-  <si>
-    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
-  </si>
-  <si>
-    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
-  </si>
-  <si>
-    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
-  </si>
-  <si>
-    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
-  </si>
-  <si>
-    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
-  </si>
-  <si>
-    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
-  </si>
-  <si>
-    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
-  </si>
-  <si>
-    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
-  </si>
-  <si>
-    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
-  </si>
-  <si>
-    <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
-  </si>
-  <si>
-    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
-  </si>
-  <si>
-    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
-  </si>
-  <si>
-    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
-  </si>
-  <si>
-    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
-  </si>
-  <si>
-    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
-  </si>
-  <si>
-    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
-  </si>
-  <si>
-    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
-  </si>
-  <si>
-    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
-  </si>
-  <si>
-    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
-  </si>
-  <si>
-    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
-  </si>
-  <si>
-    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
-  </si>
-  <si>
-    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
-  </si>
-  <si>
-    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
-  </si>
-  <si>
-    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
-  </si>
-  <si>
-    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
-  </si>
-  <si>
-    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
-  </si>
-  <si>
-    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
-  </si>
-  <si>
-    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
-  </si>
-  <si>
-    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
-  </si>
-  <si>
-    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
-  </si>
-  <si>
-    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
-  </si>
-  <si>
-    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
-  </si>
-  <si>
-    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
-  </si>
-  <si>
-    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
-  </si>
-  <si>
-    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
-  </si>
-  <si>
-    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
-  </si>
-  <si>
-    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
-  </si>
-  <si>
-    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
-  </si>
-  <si>
-    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
-  </si>
-  <si>
-    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
-  </si>
-  <si>
-    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
-  </si>
-  <si>
-    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
-  </si>
-  <si>
-    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
-  </si>
-  <si>
-    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
-  </si>
-  <si>
-    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
-  </si>
-  <si>
-    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
-  </si>
-  <si>
-    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
-  </si>
-  <si>
-    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
-  </si>
-  <si>
-    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
-  </si>
-  <si>
-    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
-  </si>
-  <si>
-    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
-  </si>
-  <si>
-    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
-  </si>
-  <si>
-    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
-  </si>
-  <si>
-    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
-  </si>
-  <si>
-    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
-  </si>
-  <si>
-    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
-  </si>
-  <si>
-    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
-  </si>
-  <si>
-    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
-  </si>
-  <si>
-    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
-  </si>
-  <si>
-    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
-  </si>
-  <si>
-    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
-  </si>
-  <si>
-    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
-  </si>
-  <si>
-    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
-  </si>
-  <si>
-    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
-  </si>
-  <si>
-    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
-  </si>
-  <si>
-    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
-  </si>
-  <si>
-    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
-  </si>
-  <si>
-    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
-  </si>
-  <si>
-    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
-  </si>
-  <si>
-    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
-  </si>
-  <si>
-    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
-  </si>
-  <si>
-    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
-  </si>
-  <si>
-    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
-  </si>
-  <si>
-    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
-  </si>
-  <si>
-    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
-  </si>
-  <si>
-    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
-  </si>
-  <si>
-    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
-  </si>
-  <si>
-    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
-  </si>
-  <si>
-    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
-  </si>
-  <si>
-    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
-  </si>
-  <si>
-    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
-  </si>
-  <si>
-    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
-  </si>
-  <si>
-    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
-  </si>
-  <si>
-    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
-  </si>
-  <si>
-    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
-  </si>
-  <si>
-    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
-  </si>
-  <si>
-    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
-  </si>
-  <si>
-    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
-  </si>
-  <si>
-    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
-  </si>
-  <si>
-    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
-  </si>
-  <si>
-    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
-  </si>
-  <si>
-    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
-  </si>
-  <si>
-    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
-  </si>
-  <si>
-    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
-  </si>
-  <si>
-    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
-  </si>
-  <si>
-    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
-  </si>
-  <si>
-    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
-  </si>
-  <si>
-    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
-  </si>
-  <si>
-    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
-  </si>
-  <si>
-    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
-  </si>
-  <si>
-    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
-  </si>
-  <si>
-    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
-  </si>
-  <si>
-    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
-  </si>
-  <si>
-    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
-  </si>
-  <si>
-    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
-  </si>
-  <si>
-    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
-  </si>
-  <si>
-    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
-  </si>
-  <si>
-    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
-  </si>
-  <si>
-    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
-  </si>
-  <si>
-    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
-  </si>
-  <si>
-    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
-  </si>
-  <si>
-    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
-  </si>
-  <si>
-    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
-  </si>
-  <si>
-    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
-  </si>
-  <si>
-    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
-  </si>
-  <si>
-    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
-  </si>
-  <si>
-    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
-  </si>
-  <si>
-    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
-  </si>
-  <si>
-    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
-  </si>
-  <si>
-    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
-  </si>
-  <si>
-    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
-  </si>
-  <si>
-    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
-  </si>
-  <si>
-    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
-  </si>
-  <si>
-    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
-  </si>
-  <si>
-    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
-  </si>
-  <si>
-    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
-  </si>
-  <si>
-    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
-  </si>
-  <si>
-    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
-  </si>
-  <si>
-    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
-  </si>
-  <si>
-    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
-  </si>
-  <si>
-    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
-  </si>
-  <si>
-    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
-  </si>
-  <si>
-    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
-  </si>
-  <si>
-    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
-  </si>
-  <si>
-    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
-  </si>
-  <si>
-    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
-  </si>
-  <si>
-    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
-  </si>
-  <si>
-    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1746: M01077_m + h_m + nadph_m + o2_m --&gt; M01076_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1747: M01080_m + h_m + nadph_m + o2_m --&gt; M01079_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1750: M00746_m + 3.0 h_m + nadph_m + o2_m --&gt; M02977_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1751: M00753_m + nadph_m + o2_m --&gt; M00742_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
-  </si>
-  <si>
-    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
-  </si>
-  <si>
-    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
-  </si>
-  <si>
-    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>H7_TAer: em2emgacpail_cho_r + pre_prot_r --&gt; em2emgacpail_prot_cho_r + gpi_sig_r</t>
-  </si>
-  <si>
-    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
-  </si>
-  <si>
-    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
-  </si>
-  <si>
-    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
-  </si>
-  <si>
-    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
-  </si>
-  <si>
-    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
-  </si>
-  <si>
-    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
-  </si>
-  <si>
-    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
-  </si>
-  <si>
-    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
-  </si>
-  <si>
-    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
-  </si>
-  <si>
-    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
-  </si>
-  <si>
-    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
-  </si>
-  <si>
-    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
-  </si>
-  <si>
-    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
-  </si>
-  <si>
-    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
-  </si>
-  <si>
-    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
-  </si>
-  <si>
-    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
-  </si>
-  <si>
-    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
-  </si>
-  <si>
-    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
-  </si>
-  <si>
-    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
-  </si>
-  <si>
-    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
-  </si>
-  <si>
-    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
-  </si>
-  <si>
-    <t>CARhPTtc: carn_l --&gt; carn_c</t>
-  </si>
-  <si>
-    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
-  </si>
-  <si>
-    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_7163: dna_c + h2o_c --&gt; 0.3 damp_c + 0.2 dcmp_c + 0.2 dgmp_c + 0.3 dtmp_c</t>
-  </si>
-  <si>
-    <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
-  </si>
-  <si>
-    <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
-  </si>
-  <si>
-    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
-  </si>
-  <si>
-    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
-  </si>
-  <si>
-    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
-  </si>
-  <si>
-    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
-  </si>
-  <si>
-    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
-  </si>
-  <si>
-    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
-  </si>
-  <si>
-    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
-  </si>
-  <si>
-    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
-  </si>
-  <si>
-    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
-  </si>
-  <si>
     <t>H8TAer: gpi_cho_r + pre_prot_r --&gt; gpi_prot_cho_r + gpi_sig_r</t>
-  </si>
-  <si>
-    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
-  </si>
-  <si>
-    <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
-  </si>
-  <si>
-    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
-  </si>
-  <si>
-    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
-  </si>
-  <si>
-    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
-  </si>
-  <si>
-    <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
   </si>
 </sst>
 </file>
@@ -5208,7 +5208,7 @@
         <v>859</v>
       </c>
       <c r="C17" t="s">
-        <v>1522</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5216,7 +5216,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5224,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5232,7 +5232,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5240,7 +5240,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5248,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5256,7 +5256,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5264,10 +5264,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C24" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5275,13 +5275,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C25" t="s">
-        <v>866</v>
+        <v>1521</v>
       </c>
       <c r="D25" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5308,7 +5308,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5316,7 +5316,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6156,10 +6156,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
+        <v>926</v>
+      </c>
+      <c r="C134" t="s">
         <v>927</v>
-      </c>
-      <c r="C134" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6218,13 +6218,13 @@
         <v>931</v>
       </c>
       <c r="C141" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D141" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E141" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6483,10 +6483,10 @@
         <v>963</v>
       </c>
       <c r="C173" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D173" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6641,7 +6641,7 @@
         <v>981</v>
       </c>
       <c r="C192" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>1024</v>
       </c>
       <c r="C249" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>1031</v>
       </c>
       <c r="C256" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7218,7 +7218,7 @@
         <v>1038</v>
       </c>
       <c r="C263" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7229,7 +7229,7 @@
         <v>1039</v>
       </c>
       <c r="C264" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7747,7 +7747,7 @@
         <v>1098</v>
       </c>
       <c r="C328" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7814,10 +7814,10 @@
         <v>1106</v>
       </c>
       <c r="C336" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D336" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7916,7 +7916,7 @@
         <v>1117</v>
       </c>
       <c r="C348" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7927,7 +7927,7 @@
         <v>1118</v>
       </c>
       <c r="C349" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7938,10 +7938,10 @@
         <v>1119</v>
       </c>
       <c r="C350" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D350" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7949,16 +7949,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C351" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D351" t="s">
         <v>1145</v>
       </c>
-      <c r="D351" t="s">
-        <v>1146</v>
-      </c>
       <c r="E351" t="s">
-        <v>1121</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7966,7 +7966,7 @@
         <v>355</v>
       </c>
       <c r="B352" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -7974,7 +7974,7 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7982,7 +7982,7 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C355" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8004,7 +8004,7 @@
         <v>1123</v>
       </c>
       <c r="C356" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8087,10 +8087,10 @@
         <v>1132</v>
       </c>
       <c r="C366" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D366" t="s">
         <v>1133</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8106,7 +8106,7 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8122,7 +8122,7 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C371" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8141,7 +8141,7 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8149,7 +8149,7 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8165,7 +8165,7 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8173,7 +8173,7 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C377" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D377" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8195,7 +8195,7 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8211,7 +8211,7 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8219,7 +8219,7 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8227,10 +8227,10 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C382" t="s">
         <v>1147</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8238,7 +8238,7 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8246,7 +8246,7 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -8382,7 +8382,7 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -8398,7 +8398,7 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -8406,7 +8406,7 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -8414,7 +8414,7 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -8422,7 +8422,7 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -8430,7 +8430,7 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -8438,7 +8438,7 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -8446,7 +8446,7 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -8454,7 +8454,7 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -8470,10 +8470,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C412" t="s">
-        <v>1539</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8481,7 +8481,7 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -8497,7 +8497,7 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -8505,7 +8505,7 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -8513,7 +8513,7 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -8521,7 +8521,7 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -8529,7 +8529,7 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -8537,7 +8537,7 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -8545,7 +8545,7 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -8553,7 +8553,7 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -8561,7 +8561,7 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -8569,7 +8569,7 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -8577,7 +8577,7 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -8585,7 +8585,7 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -8593,7 +8593,7 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -8601,7 +8601,7 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -8609,7 +8609,7 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8617,7 +8617,7 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8625,7 +8625,7 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8633,7 +8633,7 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8641,7 +8641,7 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8649,7 +8649,7 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8657,7 +8657,7 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8665,7 +8665,7 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8673,7 +8673,7 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8681,7 +8681,7 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8689,7 +8689,7 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8697,7 +8697,7 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8705,7 +8705,7 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8713,7 +8713,7 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8721,7 +8721,7 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8729,7 +8729,7 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8737,7 +8737,7 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8745,7 +8745,7 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8753,7 +8753,7 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8761,7 +8761,7 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8769,7 +8769,7 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8777,7 +8777,7 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8785,7 +8785,7 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8793,7 +8793,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8801,7 +8801,7 @@
         <v>456</v>
       </c>
       <c r="B453" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8809,7 +8809,7 @@
         <v>457</v>
       </c>
       <c r="B454" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8817,13 +8817,13 @@
         <v>458</v>
       </c>
       <c r="B455" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C455" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D455" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8831,7 +8831,7 @@
         <v>459</v>
       </c>
       <c r="B456" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8839,7 +8839,7 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8847,7 +8847,7 @@
         <v>461</v>
       </c>
       <c r="B458" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8855,7 +8855,7 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8863,7 +8863,7 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8871,7 +8871,7 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8879,7 +8879,7 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8887,7 +8887,7 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8895,7 +8895,7 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8903,7 +8903,7 @@
         <v>468</v>
       </c>
       <c r="B465" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8911,7 +8911,7 @@
         <v>469</v>
       </c>
       <c r="B466" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8919,7 +8919,7 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8927,10 +8927,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C468" t="s">
         <v>1228</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8938,7 +8938,7 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8946,10 +8946,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C470" t="s">
-        <v>1232</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8965,7 +8965,7 @@
         <v>475</v>
       </c>
       <c r="B472" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8973,10 +8973,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C473" t="s">
-        <v>1231</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8992,7 +8992,7 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -9000,7 +9000,7 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -9008,7 +9008,7 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -9016,7 +9016,7 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -9024,7 +9024,7 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -9032,7 +9032,7 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>484</v>
       </c>
       <c r="B481" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>1176</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -9168,7 +9168,7 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -9176,7 +9176,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -9184,7 +9184,7 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9192,7 +9192,7 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9200,7 +9200,7 @@
         <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9208,7 +9208,7 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9216,10 +9216,10 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C503" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9227,7 +9227,7 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9235,7 +9235,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9251,7 +9251,7 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9267,7 +9267,7 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -9275,7 +9275,7 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -9283,7 +9283,7 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -9291,7 +9291,7 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -9299,7 +9299,7 @@
         <v>516</v>
       </c>
       <c r="B513" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -9307,7 +9307,7 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -9315,10 +9315,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C515" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -9326,7 +9326,7 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9334,7 +9334,7 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -9350,7 +9350,7 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -9366,7 +9366,7 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -9374,7 +9374,7 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>526</v>
       </c>
       <c r="B523" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C523" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -9393,7 +9393,7 @@
         <v>527</v>
       </c>
       <c r="B524" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>528</v>
       </c>
       <c r="B525" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -9409,7 +9409,7 @@
         <v>529</v>
       </c>
       <c r="B526" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -9417,7 +9417,7 @@
         <v>530</v>
       </c>
       <c r="B527" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -9425,7 +9425,7 @@
         <v>531</v>
       </c>
       <c r="B528" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -9433,7 +9433,7 @@
         <v>532</v>
       </c>
       <c r="B529" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>533</v>
       </c>
       <c r="B530" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -9449,7 +9449,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>535</v>
       </c>
       <c r="B532" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -9465,7 +9465,7 @@
         <v>536</v>
       </c>
       <c r="B533" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -9473,7 +9473,7 @@
         <v>537</v>
       </c>
       <c r="B534" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C535" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -9492,7 +9492,7 @@
         <v>539</v>
       </c>
       <c r="B536" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>540</v>
       </c>
       <c r="B537" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -9508,7 +9508,7 @@
         <v>541</v>
       </c>
       <c r="B538" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -9516,7 +9516,7 @@
         <v>542</v>
       </c>
       <c r="B539" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -9524,7 +9524,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9532,7 +9532,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9548,7 +9548,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9556,7 +9556,7 @@
         <v>547</v>
       </c>
       <c r="B544" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -9564,7 +9564,7 @@
         <v>548</v>
       </c>
       <c r="B545" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -9572,7 +9572,7 @@
         <v>549</v>
       </c>
       <c r="B546" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -9580,7 +9580,7 @@
         <v>550</v>
       </c>
       <c r="B547" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -9588,7 +9588,7 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -9596,7 +9596,7 @@
         <v>552</v>
       </c>
       <c r="B549" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -9604,7 +9604,7 @@
         <v>553</v>
       </c>
       <c r="B550" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -9612,7 +9612,7 @@
         <v>554</v>
       </c>
       <c r="B551" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9623,7 +9623,7 @@
         <v>1299</v>
       </c>
       <c r="C552" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>577</v>
       </c>
       <c r="B574" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -9816,7 +9816,7 @@
         <v>578</v>
       </c>
       <c r="B575" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -9824,7 +9824,7 @@
         <v>579</v>
       </c>
       <c r="B576" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>580</v>
       </c>
       <c r="B577" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9840,7 +9840,7 @@
         <v>581</v>
       </c>
       <c r="B578" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>582</v>
       </c>
       <c r="B579" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -9856,7 +9856,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -9864,10 +9864,10 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C581" t="s">
-        <v>1321</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -9875,7 +9875,7 @@
         <v>585</v>
       </c>
       <c r="B582" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -9883,7 +9883,7 @@
         <v>586</v>
       </c>
       <c r="B583" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -9891,7 +9891,7 @@
         <v>587</v>
       </c>
       <c r="B584" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -9899,7 +9899,7 @@
         <v>588</v>
       </c>
       <c r="B585" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -9907,7 +9907,7 @@
         <v>589</v>
       </c>
       <c r="B586" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -9915,7 +9915,7 @@
         <v>590</v>
       </c>
       <c r="B587" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -9923,7 +9923,7 @@
         <v>591</v>
       </c>
       <c r="B588" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>592</v>
       </c>
       <c r="B589" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -9939,7 +9939,7 @@
         <v>593</v>
       </c>
       <c r="B590" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -9947,7 +9947,7 @@
         <v>594</v>
       </c>
       <c r="B591" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -9955,10 +9955,10 @@
         <v>595</v>
       </c>
       <c r="B592" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C592" t="s">
-        <v>1544</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -9966,7 +9966,7 @@
         <v>596</v>
       </c>
       <c r="B593" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -9974,7 +9974,7 @@
         <v>597</v>
       </c>
       <c r="B594" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -9982,7 +9982,7 @@
         <v>598</v>
       </c>
       <c r="B595" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -9990,7 +9990,7 @@
         <v>599</v>
       </c>
       <c r="B596" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -9998,7 +9998,7 @@
         <v>600</v>
       </c>
       <c r="B597" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -10006,7 +10006,7 @@
         <v>601</v>
       </c>
       <c r="B598" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -10014,7 +10014,7 @@
         <v>602</v>
       </c>
       <c r="B599" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -10022,7 +10022,7 @@
         <v>603</v>
       </c>
       <c r="B600" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -10030,7 +10030,7 @@
         <v>604</v>
       </c>
       <c r="B601" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -10038,7 +10038,7 @@
         <v>605</v>
       </c>
       <c r="B602" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -10046,7 +10046,7 @@
         <v>606</v>
       </c>
       <c r="B603" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -10054,7 +10054,7 @@
         <v>607</v>
       </c>
       <c r="B604" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -10062,7 +10062,7 @@
         <v>608</v>
       </c>
       <c r="B605" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -10070,7 +10070,7 @@
         <v>609</v>
       </c>
       <c r="B606" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -10078,7 +10078,7 @@
         <v>610</v>
       </c>
       <c r="B607" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -10086,7 +10086,7 @@
         <v>611</v>
       </c>
       <c r="B608" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -10094,7 +10094,7 @@
         <v>612</v>
       </c>
       <c r="B609" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -10102,7 +10102,7 @@
         <v>613</v>
       </c>
       <c r="B610" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -10110,13 +10110,13 @@
         <v>614</v>
       </c>
       <c r="B611" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C611" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D611" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -10124,7 +10124,7 @@
         <v>615</v>
       </c>
       <c r="B612" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -10132,7 +10132,7 @@
         <v>616</v>
       </c>
       <c r="B613" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -10140,7 +10140,7 @@
         <v>617</v>
       </c>
       <c r="B614" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>618</v>
       </c>
       <c r="B615" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -10156,7 +10156,7 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -10164,7 +10164,7 @@
         <v>620</v>
       </c>
       <c r="B617" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -10172,10 +10172,10 @@
         <v>621</v>
       </c>
       <c r="B618" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C618" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -10183,10 +10183,10 @@
         <v>622</v>
       </c>
       <c r="B619" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C619" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -10194,7 +10194,7 @@
         <v>623</v>
       </c>
       <c r="B620" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10202,7 +10202,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -10210,7 +10210,7 @@
         <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -10218,7 +10218,7 @@
         <v>626</v>
       </c>
       <c r="B623" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -10226,7 +10226,7 @@
         <v>627</v>
       </c>
       <c r="B624" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -10234,7 +10234,7 @@
         <v>628</v>
       </c>
       <c r="B625" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -10242,7 +10242,7 @@
         <v>629</v>
       </c>
       <c r="B626" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -10250,7 +10250,7 @@
         <v>630</v>
       </c>
       <c r="B627" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10258,7 +10258,7 @@
         <v>631</v>
       </c>
       <c r="B628" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -10266,7 +10266,7 @@
         <v>632</v>
       </c>
       <c r="B629" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -10274,7 +10274,7 @@
         <v>633</v>
       </c>
       <c r="B630" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -10282,13 +10282,13 @@
         <v>634</v>
       </c>
       <c r="B631" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C631" t="s">
         <v>1359</v>
       </c>
-      <c r="C631" t="s">
-        <v>1547</v>
-      </c>
       <c r="D631" t="s">
-        <v>1360</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -10296,7 +10296,7 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -10304,7 +10304,7 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -10312,7 +10312,7 @@
         <v>637</v>
       </c>
       <c r="B634" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10320,7 +10320,7 @@
         <v>638</v>
       </c>
       <c r="B635" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10328,7 +10328,7 @@
         <v>639</v>
       </c>
       <c r="B636" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10336,7 +10336,7 @@
         <v>640</v>
       </c>
       <c r="B637" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -10344,7 +10344,7 @@
         <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -10352,7 +10352,7 @@
         <v>642</v>
       </c>
       <c r="B639" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -10360,7 +10360,7 @@
         <v>643</v>
       </c>
       <c r="B640" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -10368,7 +10368,7 @@
         <v>644</v>
       </c>
       <c r="B641" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>645</v>
       </c>
       <c r="B642" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -10384,7 +10384,7 @@
         <v>646</v>
       </c>
       <c r="B643" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -10392,7 +10392,7 @@
         <v>647</v>
       </c>
       <c r="B644" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -10403,7 +10403,7 @@
         <v>1367</v>
       </c>
       <c r="C645" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -10411,7 +10411,7 @@
         <v>649</v>
       </c>
       <c r="B646" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -10419,7 +10419,7 @@
         <v>650</v>
       </c>
       <c r="B647" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -10427,7 +10427,7 @@
         <v>651</v>
       </c>
       <c r="B648" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -10435,7 +10435,7 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -10443,7 +10443,7 @@
         <v>653</v>
       </c>
       <c r="B650" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -10451,7 +10451,7 @@
         <v>654</v>
       </c>
       <c r="B651" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>655</v>
       </c>
       <c r="B652" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -10467,7 +10467,7 @@
         <v>656</v>
       </c>
       <c r="B653" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>657</v>
       </c>
       <c r="B654" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -10483,7 +10483,7 @@
         <v>658</v>
       </c>
       <c r="B655" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -10494,7 +10494,7 @@
         <v>1374</v>
       </c>
       <c r="C656" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -10502,7 +10502,7 @@
         <v>660</v>
       </c>
       <c r="B657" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -10510,7 +10510,7 @@
         <v>661</v>
       </c>
       <c r="B658" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -10518,7 +10518,7 @@
         <v>662</v>
       </c>
       <c r="B659" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -10526,7 +10526,7 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -10534,7 +10534,7 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -10542,7 +10542,7 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -10550,7 +10550,7 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -10558,7 +10558,7 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -10566,7 +10566,7 @@
         <v>668</v>
       </c>
       <c r="B665" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -10574,7 +10574,7 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -10582,7 +10582,7 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -10590,7 +10590,7 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -10598,7 +10598,7 @@
         <v>672</v>
       </c>
       <c r="B669" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -10606,7 +10606,7 @@
         <v>673</v>
       </c>
       <c r="B670" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -10614,7 +10614,7 @@
         <v>674</v>
       </c>
       <c r="B671" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -10622,7 +10622,7 @@
         <v>675</v>
       </c>
       <c r="B672" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -10630,7 +10630,7 @@
         <v>676</v>
       </c>
       <c r="B673" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -10638,7 +10638,7 @@
         <v>677</v>
       </c>
       <c r="B674" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>678</v>
       </c>
       <c r="B675" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -10654,7 +10654,7 @@
         <v>679</v>
       </c>
       <c r="B676" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>680</v>
       </c>
       <c r="B677" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -10670,7 +10670,7 @@
         <v>681</v>
       </c>
       <c r="B678" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -10678,7 +10678,7 @@
         <v>682</v>
       </c>
       <c r="B679" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -10686,7 +10686,7 @@
         <v>683</v>
       </c>
       <c r="B680" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -10694,7 +10694,7 @@
         <v>684</v>
       </c>
       <c r="B681" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -10702,7 +10702,7 @@
         <v>685</v>
       </c>
       <c r="B682" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -10710,10 +10710,10 @@
         <v>686</v>
       </c>
       <c r="B683" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C683" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -10721,7 +10721,7 @@
         <v>687</v>
       </c>
       <c r="B684" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -10729,7 +10729,7 @@
         <v>688</v>
       </c>
       <c r="B685" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -10737,7 +10737,7 @@
         <v>689</v>
       </c>
       <c r="B686" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>690</v>
       </c>
       <c r="B687" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -10753,7 +10753,7 @@
         <v>691</v>
       </c>
       <c r="B688" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -10761,7 +10761,7 @@
         <v>692</v>
       </c>
       <c r="B689" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -10769,7 +10769,7 @@
         <v>693</v>
       </c>
       <c r="B690" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -10777,7 +10777,7 @@
         <v>694</v>
       </c>
       <c r="B691" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -10785,7 +10785,7 @@
         <v>695</v>
       </c>
       <c r="B692" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -10793,7 +10793,7 @@
         <v>696</v>
       </c>
       <c r="B693" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -10801,7 +10801,7 @@
         <v>697</v>
       </c>
       <c r="B694" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -10809,7 +10809,7 @@
         <v>698</v>
       </c>
       <c r="B695" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -10817,7 +10817,7 @@
         <v>699</v>
       </c>
       <c r="B696" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -10825,7 +10825,7 @@
         <v>700</v>
       </c>
       <c r="B697" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -10833,7 +10833,7 @@
         <v>701</v>
       </c>
       <c r="B698" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -10841,7 +10841,7 @@
         <v>702</v>
       </c>
       <c r="B699" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -10849,7 +10849,7 @@
         <v>703</v>
       </c>
       <c r="B700" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -10857,7 +10857,7 @@
         <v>704</v>
       </c>
       <c r="B701" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -10865,7 +10865,7 @@
         <v>705</v>
       </c>
       <c r="B702" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -10873,7 +10873,7 @@
         <v>706</v>
       </c>
       <c r="B703" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -10881,7 +10881,7 @@
         <v>707</v>
       </c>
       <c r="B704" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -10889,7 +10889,7 @@
         <v>708</v>
       </c>
       <c r="B705" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -10897,7 +10897,7 @@
         <v>709</v>
       </c>
       <c r="B706" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -10905,7 +10905,7 @@
         <v>710</v>
       </c>
       <c r="B707" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -10913,7 +10913,7 @@
         <v>711</v>
       </c>
       <c r="B708" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -10921,7 +10921,7 @@
         <v>712</v>
       </c>
       <c r="B709" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -10929,7 +10929,7 @@
         <v>713</v>
       </c>
       <c r="B710" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -10937,7 +10937,7 @@
         <v>714</v>
       </c>
       <c r="B711" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -10945,7 +10945,7 @@
         <v>715</v>
       </c>
       <c r="B712" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -10953,7 +10953,7 @@
         <v>716</v>
       </c>
       <c r="B713" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -10961,7 +10961,7 @@
         <v>717</v>
       </c>
       <c r="B714" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -10969,7 +10969,7 @@
         <v>718</v>
       </c>
       <c r="B715" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -10977,7 +10977,7 @@
         <v>719</v>
       </c>
       <c r="B716" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -10985,7 +10985,7 @@
         <v>720</v>
       </c>
       <c r="B717" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -10993,7 +10993,7 @@
         <v>721</v>
       </c>
       <c r="B718" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -11001,7 +11001,7 @@
         <v>722</v>
       </c>
       <c r="B719" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -11009,7 +11009,7 @@
         <v>723</v>
       </c>
       <c r="B720" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -11017,7 +11017,7 @@
         <v>724</v>
       </c>
       <c r="B721" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -11025,7 +11025,7 @@
         <v>725</v>
       </c>
       <c r="B722" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -11033,7 +11033,7 @@
         <v>726</v>
       </c>
       <c r="B723" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -11041,7 +11041,7 @@
         <v>727</v>
       </c>
       <c r="B724" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -11049,7 +11049,7 @@
         <v>728</v>
       </c>
       <c r="B725" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -11057,7 +11057,7 @@
         <v>729</v>
       </c>
       <c r="B726" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -11065,7 +11065,7 @@
         <v>730</v>
       </c>
       <c r="B727" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -11073,7 +11073,7 @@
         <v>731</v>
       </c>
       <c r="B728" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -11081,10 +11081,10 @@
         <v>732</v>
       </c>
       <c r="B729" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C729" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -11092,7 +11092,7 @@
         <v>733</v>
       </c>
       <c r="B730" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -11100,7 +11100,7 @@
         <v>734</v>
       </c>
       <c r="B731" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -11108,7 +11108,7 @@
         <v>735</v>
       </c>
       <c r="B732" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -11116,10 +11116,10 @@
         <v>736</v>
       </c>
       <c r="B733" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C733" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -11127,7 +11127,7 @@
         <v>737</v>
       </c>
       <c r="B734" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -11135,7 +11135,7 @@
         <v>738</v>
       </c>
       <c r="B735" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -11143,7 +11143,7 @@
         <v>739</v>
       </c>
       <c r="B736" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>740</v>
       </c>
       <c r="B737" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>741</v>
       </c>
       <c r="B738" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>742</v>
       </c>
       <c r="B739" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>743</v>
       </c>
       <c r="B740" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>744</v>
       </c>
       <c r="B741" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>745</v>
       </c>
       <c r="B742" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>746</v>
       </c>
       <c r="B743" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>747</v>
       </c>
       <c r="B744" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>748</v>
       </c>
       <c r="B745" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>749</v>
       </c>
       <c r="B746" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>750</v>
       </c>
       <c r="B747" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>751</v>
       </c>
       <c r="B748" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>752</v>
       </c>
       <c r="B749" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>753</v>
       </c>
       <c r="B750" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>755</v>
       </c>
       <c r="B752" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -11279,10 +11279,10 @@
         <v>756</v>
       </c>
       <c r="B753" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C753" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -11290,10 +11290,10 @@
         <v>757</v>
       </c>
       <c r="B754" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C754" t="s">
         <v>1446</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -11301,7 +11301,7 @@
         <v>758</v>
       </c>
       <c r="B755" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>759</v>
       </c>
       <c r="B756" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -11317,10 +11317,10 @@
         <v>760</v>
       </c>
       <c r="B757" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C757" t="s">
         <v>1448</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -11328,7 +11328,7 @@
         <v>761</v>
       </c>
       <c r="B758" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -11336,7 +11336,7 @@
         <v>762</v>
       </c>
       <c r="B759" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>763</v>
       </c>
       <c r="B760" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -11352,7 +11352,7 @@
         <v>764</v>
       </c>
       <c r="B761" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -11360,7 +11360,7 @@
         <v>765</v>
       </c>
       <c r="B762" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -11368,7 +11368,7 @@
         <v>766</v>
       </c>
       <c r="B763" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -11376,7 +11376,7 @@
         <v>767</v>
       </c>
       <c r="B764" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -11384,7 +11384,7 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -11392,7 +11392,7 @@
         <v>769</v>
       </c>
       <c r="B766" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -11400,7 +11400,7 @@
         <v>770</v>
       </c>
       <c r="B767" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -11408,7 +11408,7 @@
         <v>771</v>
       </c>
       <c r="B768" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -11416,7 +11416,7 @@
         <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -11424,7 +11424,7 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -11432,7 +11432,7 @@
         <v>774</v>
       </c>
       <c r="B771" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -11440,7 +11440,7 @@
         <v>775</v>
       </c>
       <c r="B772" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -11448,7 +11448,7 @@
         <v>776</v>
       </c>
       <c r="B773" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -11456,7 +11456,7 @@
         <v>777</v>
       </c>
       <c r="B774" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -11464,7 +11464,7 @@
         <v>778</v>
       </c>
       <c r="B775" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -11472,7 +11472,7 @@
         <v>779</v>
       </c>
       <c r="B776" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -11480,7 +11480,7 @@
         <v>780</v>
       </c>
       <c r="B777" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -11488,7 +11488,7 @@
         <v>781</v>
       </c>
       <c r="B778" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -11496,7 +11496,7 @@
         <v>782</v>
       </c>
       <c r="B779" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -11504,7 +11504,7 @@
         <v>783</v>
       </c>
       <c r="B780" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -11512,7 +11512,7 @@
         <v>784</v>
       </c>
       <c r="B781" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -11520,16 +11520,16 @@
         <v>785</v>
       </c>
       <c r="B782" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D782" t="s">
         <v>1471</v>
       </c>
-      <c r="C782" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D782" t="s">
-        <v>1472</v>
-      </c>
       <c r="E782" t="s">
-        <v>1473</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -11537,16 +11537,16 @@
         <v>786</v>
       </c>
       <c r="B783" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D783" t="s">
         <v>1471</v>
       </c>
-      <c r="C783" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1472</v>
-      </c>
       <c r="E783" t="s">
-        <v>1473</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -11554,7 +11554,7 @@
         <v>787</v>
       </c>
       <c r="B784" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -11562,7 +11562,7 @@
         <v>788</v>
       </c>
       <c r="B785" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -11570,7 +11570,7 @@
         <v>789</v>
       </c>
       <c r="B786" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -11578,7 +11578,7 @@
         <v>790</v>
       </c>
       <c r="B787" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -11586,7 +11586,7 @@
         <v>791</v>
       </c>
       <c r="B788" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -11594,7 +11594,7 @@
         <v>792</v>
       </c>
       <c r="B789" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -11602,7 +11602,7 @@
         <v>793</v>
       </c>
       <c r="B790" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -11610,7 +11610,7 @@
         <v>794</v>
       </c>
       <c r="B791" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -11618,7 +11618,7 @@
         <v>795</v>
       </c>
       <c r="B792" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -11626,7 +11626,7 @@
         <v>796</v>
       </c>
       <c r="B793" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -11634,7 +11634,7 @@
         <v>797</v>
       </c>
       <c r="B794" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -11642,10 +11642,10 @@
         <v>798</v>
       </c>
       <c r="B795" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C795" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -11653,7 +11653,7 @@
         <v>799</v>
       </c>
       <c r="B796" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -11661,7 +11661,7 @@
         <v>800</v>
       </c>
       <c r="B797" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -11669,7 +11669,7 @@
         <v>801</v>
       </c>
       <c r="B798" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -11677,7 +11677,7 @@
         <v>802</v>
       </c>
       <c r="B799" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -11685,7 +11685,7 @@
         <v>803</v>
       </c>
       <c r="B800" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -11693,7 +11693,7 @@
         <v>804</v>
       </c>
       <c r="B801" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -11701,7 +11701,7 @@
         <v>805</v>
       </c>
       <c r="B802" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -11709,7 +11709,7 @@
         <v>806</v>
       </c>
       <c r="B803" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -11717,7 +11717,7 @@
         <v>807</v>
       </c>
       <c r="B804" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -11725,7 +11725,7 @@
         <v>808</v>
       </c>
       <c r="B805" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -11733,7 +11733,7 @@
         <v>809</v>
       </c>
       <c r="B806" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11741,7 +11741,7 @@
         <v>810</v>
       </c>
       <c r="B807" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11749,7 +11749,7 @@
         <v>811</v>
       </c>
       <c r="B808" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -11757,7 +11757,7 @@
         <v>812</v>
       </c>
       <c r="B809" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11765,7 +11765,7 @@
         <v>813</v>
       </c>
       <c r="B810" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11773,7 +11773,7 @@
         <v>814</v>
       </c>
       <c r="B811" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11781,7 +11781,7 @@
         <v>815</v>
       </c>
       <c r="B812" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11789,7 +11789,7 @@
         <v>816</v>
       </c>
       <c r="B813" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -11797,7 +11797,7 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -11805,7 +11805,7 @@
         <v>818</v>
       </c>
       <c r="B815" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="B816" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -11821,7 +11821,7 @@
         <v>820</v>
       </c>
       <c r="B817" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -11829,7 +11829,7 @@
         <v>821</v>
       </c>
       <c r="B818" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -11837,7 +11837,7 @@
         <v>822</v>
       </c>
       <c r="B819" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -11845,7 +11845,7 @@
         <v>823</v>
       </c>
       <c r="B820" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -11853,7 +11853,7 @@
         <v>824</v>
       </c>
       <c r="B821" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -11861,7 +11861,7 @@
         <v>825</v>
       </c>
       <c r="B822" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -11869,7 +11869,7 @@
         <v>826</v>
       </c>
       <c r="B823" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -11877,7 +11877,7 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -11885,7 +11885,7 @@
         <v>828</v>
       </c>
       <c r="B825" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -11893,7 +11893,7 @@
         <v>829</v>
       </c>
       <c r="B826" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -11901,7 +11901,7 @@
         <v>830</v>
       </c>
       <c r="B827" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -11909,7 +11909,7 @@
         <v>831</v>
       </c>
       <c r="B828" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -11917,7 +11917,7 @@
         <v>832</v>
       </c>
       <c r="B829" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -11925,7 +11925,7 @@
         <v>833</v>
       </c>
       <c r="B830" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -11933,7 +11933,7 @@
         <v>834</v>
       </c>
       <c r="B831" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -11941,7 +11941,7 @@
         <v>835</v>
       </c>
       <c r="B832" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -11949,7 +11949,7 @@
         <v>836</v>
       </c>
       <c r="B833" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -11957,7 +11957,7 @@
         <v>837</v>
       </c>
       <c r="B834" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11965,7 +11965,7 @@
         <v>838</v>
       </c>
       <c r="B835" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11973,7 +11973,7 @@
         <v>839</v>
       </c>
       <c r="B836" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -11981,7 +11981,7 @@
         <v>840</v>
       </c>
       <c r="B837" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -11989,7 +11989,7 @@
         <v>841</v>
       </c>
       <c r="B838" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11997,7 +11997,7 @@
         <v>842</v>
       </c>
       <c r="B839" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -12005,7 +12005,7 @@
         <v>843</v>
       </c>
       <c r="B840" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -12013,7 +12013,7 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -12021,7 +12021,7 @@
         <v>845</v>
       </c>
       <c r="B842" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -12029,7 +12029,7 @@
         <v>846</v>
       </c>
       <c r="B843" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/temp/dead_ends_reactions.xlsx
+++ b/Notebooks/temp/dead_ends_reactions.xlsx
@@ -2611,2095 +2611,2095 @@
     <t>AGPRim: acg5p_m + h_m + nadph_m --&gt; acg5sa_m + nadp_m + pi_m</t>
   </si>
   <si>
+    <t>RE3367X: CE1939_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
+  </si>
+  <si>
+    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
+  </si>
+  <si>
+    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
+  </si>
+  <si>
+    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
+  </si>
+  <si>
+    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
+  </si>
+  <si>
+    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
+  </si>
+  <si>
+    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
+  </si>
+  <si>
+    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
+  </si>
+  <si>
+    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
+  </si>
+  <si>
+    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
+  </si>
+  <si>
+    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
+  </si>
+  <si>
+    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+  </si>
+  <si>
+    <t>ENMAN4g: g1m7masnC_g + h2o_g --&gt; glc1man_g + m6masnC_g</t>
+  </si>
+  <si>
+    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
+  </si>
+  <si>
+    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
+  </si>
+  <si>
+    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
+  </si>
+  <si>
+    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
+  </si>
+  <si>
+    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
+  </si>
+  <si>
+    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
+  </si>
+  <si>
+    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
+  </si>
+  <si>
+    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
+  </si>
+  <si>
+    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
+  </si>
+  <si>
+    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
+  </si>
+  <si>
+    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
+  </si>
+  <si>
+    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
+  </si>
+  <si>
+    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
+  </si>
+  <si>
+    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
+  </si>
+  <si>
+    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
+  </si>
+  <si>
+    <t>BVITEt: bvite_e --&gt; bvite_c</t>
+  </si>
+  <si>
+    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
+  </si>
+  <si>
+    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
+  </si>
+  <si>
+    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
+  </si>
+  <si>
+    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
+  </si>
+  <si>
+    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
+  </si>
+  <si>
+    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
+  </si>
+  <si>
+    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
+  </si>
+  <si>
+    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
+  </si>
+  <si>
+    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
+  </si>
+  <si>
+    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
+  </si>
+  <si>
+    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
+  </si>
+  <si>
+    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
+  </si>
+  <si>
+    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
+  </si>
+  <si>
+    <t>r1129: HC00004_c --&gt; HC00004_r</t>
+  </si>
+  <si>
+    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
+  </si>
+  <si>
+    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
+  </si>
+  <si>
+    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
+  </si>
+  <si>
+    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
+  </si>
+  <si>
+    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
+  </si>
+  <si>
+    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
+  </si>
+  <si>
+    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
+  </si>
+  <si>
+    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
+  </si>
+  <si>
+    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
+  </si>
+  <si>
+    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r0778: HC01652_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
+  </si>
+  <si>
+    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
+  </si>
+  <si>
+    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
+  </si>
+  <si>
+    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
+  </si>
+  <si>
+    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
+  </si>
+  <si>
+    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
+  </si>
+  <si>
+    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
+  </si>
+  <si>
+    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
+  </si>
+  <si>
+    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
+  </si>
+  <si>
+    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
+  </si>
+  <si>
+    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
+  </si>
+  <si>
+    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
+  </si>
+  <si>
+    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
+  </si>
+  <si>
+    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
+  </si>
+  <si>
+    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
+  </si>
+  <si>
+    <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
+  </si>
+  <si>
+    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
+  </si>
+  <si>
+    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
+  </si>
+  <si>
+    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
+  </si>
+  <si>
+    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
+  </si>
+  <si>
+    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
+  </si>
+  <si>
+    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
+  </si>
+  <si>
+    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
+  </si>
+  <si>
+    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
+  </si>
+  <si>
+    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
+  </si>
+  <si>
+    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
+  </si>
+  <si>
+    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
+  </si>
+  <si>
+    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
+  </si>
+  <si>
+    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
+  </si>
+  <si>
+    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
+  </si>
+  <si>
+    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
+  </si>
+  <si>
+    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
+  </si>
+  <si>
+    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
+  </si>
+  <si>
+    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
+  </si>
+  <si>
+    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
+  </si>
+  <si>
+    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
+  </si>
+  <si>
+    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
+  </si>
+  <si>
+    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
+  </si>
+  <si>
+    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
+  </si>
+  <si>
+    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
+  </si>
+  <si>
+    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
+  </si>
+  <si>
+    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
+  </si>
+  <si>
+    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
+  </si>
+  <si>
+    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
+  </si>
+  <si>
+    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
+  </si>
+  <si>
+    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
+  </si>
+  <si>
+    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
+  </si>
+  <si>
+    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
+  </si>
+  <si>
+    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
+  </si>
+  <si>
+    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
+  </si>
+  <si>
+    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
+  </si>
+  <si>
+    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
+  </si>
+  <si>
+    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
+  </si>
+  <si>
+    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
+  </si>
+  <si>
+    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
+  </si>
+  <si>
+    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
+  </si>
+  <si>
+    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
+  </si>
+  <si>
+    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
+  </si>
+  <si>
+    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
+  </si>
+  <si>
+    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
+  </si>
+  <si>
+    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
+  </si>
+  <si>
+    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
+  </si>
+  <si>
+    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
+  </si>
+  <si>
+    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
+  </si>
+  <si>
+    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
+  </si>
+  <si>
+    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
+  </si>
+  <si>
+    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
+  </si>
+  <si>
+    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
+  </si>
+  <si>
+    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
+  </si>
+  <si>
+    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
+  </si>
+  <si>
+    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
+  </si>
+  <si>
+    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
+  </si>
+  <si>
+    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
+  </si>
+  <si>
+    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
+  </si>
+  <si>
+    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
+  </si>
+  <si>
+    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
+  </si>
+  <si>
+    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
+  </si>
+  <si>
+    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
+  </si>
+  <si>
+    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
+  </si>
+  <si>
+    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
+  </si>
+  <si>
+    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
+  </si>
+  <si>
+    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
+  </si>
+  <si>
+    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
+  </si>
+  <si>
+    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
+  </si>
+  <si>
+    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
+  </si>
+  <si>
+    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
+  </si>
+  <si>
+    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
+  </si>
+  <si>
+    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
+  </si>
+  <si>
+    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
+  </si>
+  <si>
+    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
+  </si>
+  <si>
+    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
+  </si>
+  <si>
+    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
+  </si>
+  <si>
+    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
+  </si>
+  <si>
+    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
+  </si>
+  <si>
+    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
+  </si>
+  <si>
+    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
+  </si>
+  <si>
+    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
+  </si>
+  <si>
+    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
+  </si>
+  <si>
+    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
+  </si>
+  <si>
+    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
+  </si>
+  <si>
+    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
+  </si>
+  <si>
+    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
+  </si>
+  <si>
+    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
+  </si>
+  <si>
+    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
+  </si>
+  <si>
+    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
+  </si>
+  <si>
+    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
+  </si>
+  <si>
+    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
+  </si>
+  <si>
+    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
+  </si>
+  <si>
+    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
+  </si>
+  <si>
+    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
+  </si>
+  <si>
+    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
+  </si>
+  <si>
+    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
+  </si>
+  <si>
+    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
+  </si>
+  <si>
+    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
+  </si>
+  <si>
+    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
+  </si>
+  <si>
+    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
+  </si>
+  <si>
+    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
+  </si>
+  <si>
+    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
+  </si>
+  <si>
+    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
+  </si>
+  <si>
+    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
+  </si>
+  <si>
+    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
+  </si>
+  <si>
+    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
+  </si>
+  <si>
+    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
+  </si>
+  <si>
+    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
+  </si>
+  <si>
+    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
+  </si>
+  <si>
+    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
+  </si>
+  <si>
+    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
+  </si>
+  <si>
+    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
+  </si>
+  <si>
+    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
+  </si>
+  <si>
+    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
+  </si>
+  <si>
+    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
+  </si>
+  <si>
+    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
+  </si>
+  <si>
+    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
+  </si>
+  <si>
+    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
+  </si>
+  <si>
+    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
+  </si>
+  <si>
+    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
+  </si>
+  <si>
+    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
+  </si>
+  <si>
+    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
+  </si>
+  <si>
+    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
+  </si>
+  <si>
+    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
+  </si>
+  <si>
+    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
+  </si>
+  <si>
+    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
+  </si>
+  <si>
+    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
+  </si>
+  <si>
+    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
+  </si>
+  <si>
+    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1746: M01077_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01076_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1747: M01080_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01079_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1750: M00746_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M02977_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1751: M00753_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00742_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
+  </si>
+  <si>
+    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
+  </si>
+  <si>
+    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
+  </si>
+  <si>
+    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>H7_TAer: em2emgacpail_cho_r + pre_prot_r --&gt; em2emgacpail_prot_cho_r + gpi_sig_r</t>
+  </si>
+  <si>
+    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
+  </si>
+  <si>
+    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
+  </si>
+  <si>
+    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
+  </si>
+  <si>
+    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
+  </si>
+  <si>
+    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
+  </si>
+  <si>
+    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
+  </si>
+  <si>
+    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
+  </si>
+  <si>
+    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
+  </si>
+  <si>
+    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
+  </si>
+  <si>
+    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
+  </si>
+  <si>
+    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
+  </si>
+  <si>
+    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
+  </si>
+  <si>
+    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
+  </si>
+  <si>
+    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
+  </si>
+  <si>
+    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
+  </si>
+  <si>
+    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
+  </si>
+  <si>
+    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
+  </si>
+  <si>
+    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
+  </si>
+  <si>
+    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
+  </si>
+  <si>
+    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+  </si>
+  <si>
+    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
+  </si>
+  <si>
+    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
+  </si>
+  <si>
+    <t>CARhPTtc: carn_l --&gt; carn_c</t>
+  </si>
+  <si>
+    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
+  </si>
+  <si>
+    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
+  </si>
+  <si>
     <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
   </si>
   <si>
-    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
-  </si>
-  <si>
-    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
-  </si>
-  <si>
-    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
-  </si>
-  <si>
-    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
-  </si>
-  <si>
-    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
-  </si>
-  <si>
-    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
-  </si>
-  <si>
-    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
-  </si>
-  <si>
-    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
-  </si>
-  <si>
-    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
-  </si>
-  <si>
-    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
-  </si>
-  <si>
-    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
+  </si>
+  <si>
+    <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
+  </si>
+  <si>
+    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
+  </si>
+  <si>
+    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
+  </si>
+  <si>
+    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
+  </si>
+  <si>
+    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
+  </si>
+  <si>
+    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
+  </si>
+  <si>
+    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
+  </si>
+  <si>
+    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
+  </si>
+  <si>
+    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
+  </si>
+  <si>
+    <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
+  </si>
+  <si>
+    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
+  </si>
+  <si>
+    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
+  </si>
+  <si>
+    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
+  </si>
+  <si>
+    <t>H8TAer: gpi_cho_r + pre_prot_r --&gt; gpi_prot_cho_r + gpi_sig_r</t>
   </si>
   <si>
     <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
   </si>
   <si>
-    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
-  </si>
-  <si>
-    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
-  </si>
-  <si>
-    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
-  </si>
-  <si>
-    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
-  </si>
-  <si>
-    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
-  </si>
-  <si>
-    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
-  </si>
-  <si>
-    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
-  </si>
-  <si>
-    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
-  </si>
-  <si>
-    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
-  </si>
-  <si>
-    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
-  </si>
-  <si>
-    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
-  </si>
-  <si>
-    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
-  </si>
-  <si>
-    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
-  </si>
-  <si>
-    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
-  </si>
-  <si>
-    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
-  </si>
-  <si>
-    <t>BVITEt: bvite_e --&gt; bvite_c</t>
-  </si>
-  <si>
-    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
-  </si>
-  <si>
-    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
-  </si>
-  <si>
-    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
-  </si>
-  <si>
-    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
-  </si>
-  <si>
-    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
-  </si>
-  <si>
-    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
-  </si>
-  <si>
-    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
-  </si>
-  <si>
-    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
-  </si>
-  <si>
-    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
-  </si>
-  <si>
-    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
-  </si>
-  <si>
-    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
-  </si>
-  <si>
-    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
-  </si>
-  <si>
-    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
-  </si>
-  <si>
-    <t>r1129: HC00004_c --&gt; HC00004_r</t>
-  </si>
-  <si>
-    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
-  </si>
-  <si>
-    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
-  </si>
-  <si>
-    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
-  </si>
-  <si>
-    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
-  </si>
-  <si>
-    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
-  </si>
-  <si>
-    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
-  </si>
-  <si>
-    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
-  </si>
-  <si>
-    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
-  </si>
-  <si>
-    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
-  </si>
-  <si>
-    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
-  </si>
-  <si>
-    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
-  </si>
-  <si>
-    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
-  </si>
-  <si>
-    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
-  </si>
-  <si>
-    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
-  </si>
-  <si>
-    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
-  </si>
-  <si>
-    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
-  </si>
-  <si>
-    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
-  </si>
-  <si>
-    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
-  </si>
-  <si>
-    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
-  </si>
-  <si>
-    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
-  </si>
-  <si>
-    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
-  </si>
-  <si>
-    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
-  </si>
-  <si>
-    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
-  </si>
-  <si>
-    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
-  </si>
-  <si>
-    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
-  </si>
-  <si>
-    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
-  </si>
-  <si>
-    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
-  </si>
-  <si>
-    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
-  </si>
-  <si>
-    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
-  </si>
-  <si>
-    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
-  </si>
-  <si>
-    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
-  </si>
-  <si>
-    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
-  </si>
-  <si>
-    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
-  </si>
-  <si>
-    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
-  </si>
-  <si>
-    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
-  </si>
-  <si>
-    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
-  </si>
-  <si>
-    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
-  </si>
-  <si>
-    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
-  </si>
-  <si>
-    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
-  </si>
-  <si>
-    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
-  </si>
-  <si>
-    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
-  </si>
-  <si>
-    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
-  </si>
-  <si>
-    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
-  </si>
-  <si>
-    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
-  </si>
-  <si>
-    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
-  </si>
-  <si>
-    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
-  </si>
-  <si>
-    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
-  </si>
-  <si>
-    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
-  </si>
-  <si>
-    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
-  </si>
-  <si>
-    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
-  </si>
-  <si>
-    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
-  </si>
-  <si>
-    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
-  </si>
-  <si>
-    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
-  </si>
-  <si>
-    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
-  </si>
-  <si>
-    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
-  </si>
-  <si>
-    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
-  </si>
-  <si>
-    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
-  </si>
-  <si>
-    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
-  </si>
-  <si>
-    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
-  </si>
-  <si>
-    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
-  </si>
-  <si>
-    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
-  </si>
-  <si>
-    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
-  </si>
-  <si>
-    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
-  </si>
-  <si>
-    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
-  </si>
-  <si>
-    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
-  </si>
-  <si>
-    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
-  </si>
-  <si>
-    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
-  </si>
-  <si>
-    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
-  </si>
-  <si>
-    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
-  </si>
-  <si>
-    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
-  </si>
-  <si>
-    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
-  </si>
-  <si>
-    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
-  </si>
-  <si>
-    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
-  </si>
-  <si>
-    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
-  </si>
-  <si>
-    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
-  </si>
-  <si>
-    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
-  </si>
-  <si>
-    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
-  </si>
-  <si>
-    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
-  </si>
-  <si>
-    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
-  </si>
-  <si>
-    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
-  </si>
-  <si>
-    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
-  </si>
-  <si>
-    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
-  </si>
-  <si>
-    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
-  </si>
-  <si>
-    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
-  </si>
-  <si>
-    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
-  </si>
-  <si>
-    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
-  </si>
-  <si>
-    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
-  </si>
-  <si>
-    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
-  </si>
-  <si>
-    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
-  </si>
-  <si>
-    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
-  </si>
-  <si>
-    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
-  </si>
-  <si>
-    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
-  </si>
-  <si>
-    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
-  </si>
-  <si>
-    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
-  </si>
-  <si>
-    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
-  </si>
-  <si>
-    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
-  </si>
-  <si>
-    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
-  </si>
-  <si>
-    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
-  </si>
-  <si>
-    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
-  </si>
-  <si>
-    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
-  </si>
-  <si>
-    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
-  </si>
-  <si>
-    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
-  </si>
-  <si>
-    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
-  </si>
-  <si>
-    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
-  </si>
-  <si>
-    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
-  </si>
-  <si>
-    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
-  </si>
-  <si>
-    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
-  </si>
-  <si>
-    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
-  </si>
-  <si>
-    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
-  </si>
-  <si>
-    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
-  </si>
-  <si>
-    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
-  </si>
-  <si>
-    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
-  </si>
-  <si>
-    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
-  </si>
-  <si>
-    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
-  </si>
-  <si>
-    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
-  </si>
-  <si>
-    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
-  </si>
-  <si>
-    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
-  </si>
-  <si>
-    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
-  </si>
-  <si>
-    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
-  </si>
-  <si>
-    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
-  </si>
-  <si>
-    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
-  </si>
-  <si>
-    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
-  </si>
-  <si>
-    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
-  </si>
-  <si>
-    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
-  </si>
-  <si>
-    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
-  </si>
-  <si>
-    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
-  </si>
-  <si>
-    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
-  </si>
-  <si>
-    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
-  </si>
-  <si>
-    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
-  </si>
-  <si>
-    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
-  </si>
-  <si>
-    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
-  </si>
-  <si>
-    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
-  </si>
-  <si>
-    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
-  </si>
-  <si>
-    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
-  </si>
-  <si>
-    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
-  </si>
-  <si>
-    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
-  </si>
-  <si>
-    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
-  </si>
-  <si>
-    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
-  </si>
-  <si>
-    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
-  </si>
-  <si>
-    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
-  </si>
-  <si>
-    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
-  </si>
-  <si>
-    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
-  </si>
-  <si>
-    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
-  </si>
-  <si>
-    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
-  </si>
-  <si>
-    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
-  </si>
-  <si>
-    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
-  </si>
-  <si>
-    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
-  </si>
-  <si>
-    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
-  </si>
-  <si>
-    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
-  </si>
-  <si>
-    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
-  </si>
-  <si>
-    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
-  </si>
-  <si>
-    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
-  </si>
-  <si>
-    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
-  </si>
-  <si>
-    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
-  </si>
-  <si>
-    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1746: M01077_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01076_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1747: M01080_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01079_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1750: M00746_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M02977_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1751: M00753_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00742_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
-  </si>
-  <si>
-    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
-  </si>
-  <si>
-    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
-  </si>
-  <si>
-    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
-  </si>
-  <si>
-    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
-  </si>
-  <si>
-    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
-  </si>
-  <si>
-    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
-  </si>
-  <si>
-    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
-  </si>
-  <si>
-    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
-  </si>
-  <si>
-    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
-  </si>
-  <si>
-    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
-  </si>
-  <si>
-    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
-  </si>
-  <si>
-    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
-  </si>
-  <si>
-    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
-  </si>
-  <si>
-    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
-  </si>
-  <si>
-    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
-  </si>
-  <si>
-    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
-  </si>
-  <si>
-    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
-  </si>
-  <si>
-    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
-  </si>
-  <si>
-    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
-  </si>
-  <si>
-    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
-  </si>
-  <si>
-    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
-  </si>
-  <si>
-    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
-  </si>
-  <si>
-    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
-  </si>
-  <si>
-    <t>CARhPTtc: carn_l --&gt; carn_c</t>
-  </si>
-  <si>
-    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
-  </si>
-  <si>
-    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
-  </si>
-  <si>
-    <t>RE3367X: CE1939_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
-  </si>
-  <si>
-    <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
-  </si>
-  <si>
-    <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
-  </si>
-  <si>
-    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
-  </si>
-  <si>
-    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
-  </si>
-  <si>
-    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>r0778: HC01652_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
-  </si>
-  <si>
-    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
-  </si>
-  <si>
-    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
-  </si>
-  <si>
-    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
-  </si>
-  <si>
-    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>H7_TAer: em2emgacpail_cho_r + pre_prot_r --&gt; em2emgacpail_prot_cho_r + gpi_sig_r</t>
-  </si>
-  <si>
-    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
-  </si>
-  <si>
-    <t>ENMAN4g: g1m7masnC_g + h2o_g --&gt; glc1man_g + m6masnC_g</t>
-  </si>
-  <si>
-    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
-  </si>
-  <si>
-    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
-  </si>
-  <si>
     <t>HMR_7092: M00227_c + gthrd_c --&gt; M00565_c + M02144_c</t>
-  </si>
-  <si>
-    <t>H8TAer: gpi_cho_r + pre_prot_r --&gt; gpi_prot_cho_r + gpi_sig_r</t>
   </si>
 </sst>
 </file>
@@ -5267,7 +5267,7 @@
         <v>865</v>
       </c>
       <c r="C24" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5278,10 +5278,10 @@
         <v>866</v>
       </c>
       <c r="C25" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D25" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6156,10 +6156,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
+        <v>927</v>
+      </c>
+      <c r="C134" t="s">
         <v>926</v>
-      </c>
-      <c r="C134" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6218,13 +6218,13 @@
         <v>931</v>
       </c>
       <c r="C141" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D141" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E141" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6483,10 +6483,10 @@
         <v>963</v>
       </c>
       <c r="C173" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D173" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6641,7 +6641,7 @@
         <v>981</v>
       </c>
       <c r="C192" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>1024</v>
       </c>
       <c r="C249" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>1031</v>
       </c>
       <c r="C256" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7218,7 +7218,7 @@
         <v>1038</v>
       </c>
       <c r="C263" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7229,7 +7229,7 @@
         <v>1039</v>
       </c>
       <c r="C264" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7264,7 +7264,7 @@
         <v>1043</v>
       </c>
       <c r="C268" t="s">
-        <v>1054</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7360,7 +7360,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7688,7 +7688,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7696,7 +7696,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7704,7 +7704,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7712,7 +7712,7 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7720,7 +7720,7 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7728,7 +7728,7 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7736,7 +7736,7 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7744,10 +7744,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C328" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7755,7 +7755,7 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7763,7 +7763,7 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7771,7 +7771,7 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7779,7 +7779,7 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7787,7 +7787,7 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7795,7 +7795,7 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7803,7 +7803,7 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7811,13 +7811,13 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C336" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="D336" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7825,7 +7825,7 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7833,7 +7833,7 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7841,7 +7841,7 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7849,7 +7849,7 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7857,7 +7857,7 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7865,7 +7865,7 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7873,7 +7873,7 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7881,7 +7881,7 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7889,7 +7889,7 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7897,7 +7897,7 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7905,7 +7905,7 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7913,10 +7913,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C348" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7924,10 +7924,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C349" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C350" t="s">
         <v>1119</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1121</v>
       </c>
       <c r="D350" t="s">
         <v>1120</v>
@@ -7952,13 +7952,13 @@
         <v>1119</v>
       </c>
       <c r="C351" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D351" t="s">
         <v>1144</v>
       </c>
-      <c r="D351" t="s">
-        <v>1145</v>
-      </c>
       <c r="E351" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7974,7 +7974,7 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7982,7 +7982,7 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C355" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8001,10 +8001,10 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C356" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8012,7 +8012,7 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8020,7 +8020,7 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8028,7 +8028,7 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8036,7 +8036,7 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8044,7 +8044,7 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8052,7 +8052,7 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8060,7 +8060,7 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8068,7 +8068,7 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D366" t="s">
         <v>1132</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8098,7 +8098,7 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8106,7 +8106,7 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8122,7 +8122,7 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C371" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8141,7 +8141,7 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8149,7 +8149,7 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8165,7 +8165,7 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8173,7 +8173,7 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C377" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D377" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8195,7 +8195,7 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8211,7 +8211,7 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8219,7 +8219,7 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8227,10 +8227,10 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C382" t="s">
         <v>1146</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8238,7 +8238,7 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8246,7 +8246,7 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -8382,7 +8382,7 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -8398,7 +8398,7 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -8406,7 +8406,7 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -8414,7 +8414,7 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -8422,7 +8422,7 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -8430,7 +8430,7 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -8438,7 +8438,7 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -8446,7 +8446,7 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -8454,7 +8454,7 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -8470,10 +8470,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C412" t="s">
-        <v>1248</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8481,7 +8481,7 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -8497,7 +8497,7 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -8505,7 +8505,7 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -8513,7 +8513,7 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -8521,7 +8521,7 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -8529,7 +8529,7 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -8537,7 +8537,7 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -8545,7 +8545,7 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -8553,7 +8553,7 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -8561,7 +8561,7 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -8569,7 +8569,7 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -8577,7 +8577,7 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -8585,7 +8585,7 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -8593,7 +8593,7 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -8601,7 +8601,7 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -8609,7 +8609,7 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8617,7 +8617,7 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8625,7 +8625,7 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8633,7 +8633,7 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8641,7 +8641,7 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8649,7 +8649,7 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8657,7 +8657,7 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8665,7 +8665,7 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8673,7 +8673,7 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8681,7 +8681,7 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8689,7 +8689,7 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8697,7 +8697,7 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8705,7 +8705,7 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8713,7 +8713,7 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8721,7 +8721,7 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8729,7 +8729,7 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8737,7 +8737,7 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8745,7 +8745,7 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8753,7 +8753,7 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8761,7 +8761,7 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8769,7 +8769,7 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8777,7 +8777,7 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8785,7 +8785,7 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8793,7 +8793,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8801,7 +8801,7 @@
         <v>456</v>
       </c>
       <c r="B453" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8809,7 +8809,7 @@
         <v>457</v>
       </c>
       <c r="B454" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8817,13 +8817,13 @@
         <v>458</v>
       </c>
       <c r="B455" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C455" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D455" t="s">
-        <v>1556</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8831,7 +8831,7 @@
         <v>459</v>
       </c>
       <c r="B456" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8839,7 +8839,7 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8847,7 +8847,7 @@
         <v>461</v>
       </c>
       <c r="B458" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8855,7 +8855,7 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8863,7 +8863,7 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8871,7 +8871,7 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8879,7 +8879,7 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8887,7 +8887,7 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8895,7 +8895,7 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8903,7 +8903,7 @@
         <v>468</v>
       </c>
       <c r="B465" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8911,7 +8911,7 @@
         <v>469</v>
       </c>
       <c r="B466" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8919,7 +8919,7 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8927,10 +8927,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C468" t="s">
-        <v>1228</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8938,7 +8938,7 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8946,10 +8946,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C470" t="s">
         <v>1229</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8965,7 +8965,7 @@
         <v>475</v>
       </c>
       <c r="B472" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8973,10 +8973,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C473" t="s">
-        <v>1537</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8992,7 +8992,7 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -9000,7 +9000,7 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -9008,7 +9008,7 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -9016,7 +9016,7 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -9024,7 +9024,7 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -9032,7 +9032,7 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>484</v>
       </c>
       <c r="B481" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>1217</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>1248</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -9168,7 +9168,7 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -9176,7 +9176,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -9184,7 +9184,7 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9192,7 +9192,7 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9200,7 +9200,7 @@
         <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9208,7 +9208,7 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9216,10 +9216,10 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C503" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9227,7 +9227,7 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9235,7 +9235,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9251,7 +9251,7 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9267,7 +9267,7 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -9275,7 +9275,7 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -9283,7 +9283,7 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -9291,7 +9291,7 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -9299,7 +9299,7 @@
         <v>516</v>
       </c>
       <c r="B513" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -9307,7 +9307,7 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -9315,10 +9315,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C515" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -9326,7 +9326,7 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9334,7 +9334,7 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -9350,7 +9350,7 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -9366,7 +9366,7 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -9374,7 +9374,7 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>526</v>
       </c>
       <c r="B523" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C523" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -9393,7 +9393,7 @@
         <v>527</v>
       </c>
       <c r="B524" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>528</v>
       </c>
       <c r="B525" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -9409,7 +9409,7 @@
         <v>529</v>
       </c>
       <c r="B526" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -9417,7 +9417,7 @@
         <v>530</v>
       </c>
       <c r="B527" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -9425,7 +9425,7 @@
         <v>531</v>
       </c>
       <c r="B528" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -9433,7 +9433,7 @@
         <v>532</v>
       </c>
       <c r="B529" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>533</v>
       </c>
       <c r="B530" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -9449,7 +9449,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>535</v>
       </c>
       <c r="B532" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -9465,7 +9465,7 @@
         <v>536</v>
       </c>
       <c r="B533" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -9473,7 +9473,7 @@
         <v>537</v>
       </c>
       <c r="B534" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C535" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -9492,7 +9492,7 @@
         <v>539</v>
       </c>
       <c r="B536" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>540</v>
       </c>
       <c r="B537" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -9508,7 +9508,7 @@
         <v>541</v>
       </c>
       <c r="B538" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -9516,7 +9516,7 @@
         <v>542</v>
       </c>
       <c r="B539" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -9524,7 +9524,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9532,7 +9532,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9548,7 +9548,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9556,7 +9556,7 @@
         <v>547</v>
       </c>
       <c r="B544" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -9564,7 +9564,7 @@
         <v>548</v>
       </c>
       <c r="B545" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -9572,7 +9572,7 @@
         <v>549</v>
       </c>
       <c r="B546" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -9580,7 +9580,7 @@
         <v>550</v>
       </c>
       <c r="B547" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -9588,7 +9588,7 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -9596,7 +9596,7 @@
         <v>552</v>
       </c>
       <c r="B549" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -9604,7 +9604,7 @@
         <v>553</v>
       </c>
       <c r="B550" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -9612,7 +9612,7 @@
         <v>554</v>
       </c>
       <c r="B551" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9620,10 +9620,10 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C552" t="s">
-        <v>1298</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9631,7 +9631,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -9639,7 +9639,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -9647,7 +9647,7 @@
         <v>558</v>
       </c>
       <c r="B555" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -9655,7 +9655,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9663,13 +9663,13 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C557" t="s">
         <v>1303</v>
       </c>
-      <c r="C557" t="s">
-        <v>1305</v>
-      </c>
       <c r="D557" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -9677,7 +9677,7 @@
         <v>561</v>
       </c>
       <c r="B558" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -9685,7 +9685,7 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -9693,7 +9693,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -9701,7 +9701,7 @@
         <v>564</v>
       </c>
       <c r="B561" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -9709,10 +9709,10 @@
         <v>565</v>
       </c>
       <c r="B562" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C562" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -9720,7 +9720,7 @@
         <v>566</v>
       </c>
       <c r="B563" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -9728,7 +9728,7 @@
         <v>567</v>
       </c>
       <c r="B564" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -9736,7 +9736,7 @@
         <v>568</v>
       </c>
       <c r="B565" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>569</v>
       </c>
       <c r="B566" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -9752,7 +9752,7 @@
         <v>570</v>
       </c>
       <c r="B567" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -9760,7 +9760,7 @@
         <v>571</v>
       </c>
       <c r="B568" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -9768,7 +9768,7 @@
         <v>572</v>
       </c>
       <c r="B569" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -9776,7 +9776,7 @@
         <v>573</v>
       </c>
       <c r="B570" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -9784,7 +9784,7 @@
         <v>574</v>
       </c>
       <c r="B571" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -9792,7 +9792,7 @@
         <v>575</v>
       </c>
       <c r="B572" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -9800,7 +9800,7 @@
         <v>576</v>
       </c>
       <c r="B573" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -9808,7 +9808,7 @@
         <v>577</v>
       </c>
       <c r="B574" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -9816,7 +9816,7 @@
         <v>578</v>
       </c>
       <c r="B575" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -9824,7 +9824,7 @@
         <v>579</v>
       </c>
       <c r="B576" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>580</v>
       </c>
       <c r="B577" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -9840,7 +9840,7 @@
         <v>581</v>
       </c>
       <c r="B578" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>582</v>
       </c>
       <c r="B579" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -9856,7 +9856,7 @@
         <v>583</v>
       </c>
       <c r="B580" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -9864,10 +9864,10 @@
         <v>584</v>
       </c>
       <c r="B581" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C581" t="s">
         <v>1319</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -9955,10 +9955,10 @@
         <v>595</v>
       </c>
       <c r="B592" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C592" t="s">
-        <v>1328</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -9966,7 +9966,7 @@
         <v>596</v>
       </c>
       <c r="B593" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -9974,7 +9974,7 @@
         <v>597</v>
       </c>
       <c r="B594" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -9982,7 +9982,7 @@
         <v>598</v>
       </c>
       <c r="B595" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -9990,7 +9990,7 @@
         <v>599</v>
       </c>
       <c r="B596" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -9998,7 +9998,7 @@
         <v>600</v>
       </c>
       <c r="B597" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -10006,7 +10006,7 @@
         <v>601</v>
       </c>
       <c r="B598" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -10014,7 +10014,7 @@
         <v>602</v>
       </c>
       <c r="B599" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -10022,7 +10022,7 @@
         <v>603</v>
       </c>
       <c r="B600" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -10030,7 +10030,7 @@
         <v>604</v>
       </c>
       <c r="B601" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -10038,7 +10038,7 @@
         <v>605</v>
       </c>
       <c r="B602" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -10046,7 +10046,7 @@
         <v>606</v>
       </c>
       <c r="B603" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -10054,7 +10054,7 @@
         <v>607</v>
       </c>
       <c r="B604" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -10062,7 +10062,7 @@
         <v>608</v>
       </c>
       <c r="B605" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -10070,7 +10070,7 @@
         <v>609</v>
       </c>
       <c r="B606" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -10078,7 +10078,7 @@
         <v>610</v>
       </c>
       <c r="B607" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -10086,7 +10086,7 @@
         <v>611</v>
       </c>
       <c r="B608" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -10094,7 +10094,7 @@
         <v>612</v>
       </c>
       <c r="B609" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -10102,7 +10102,7 @@
         <v>613</v>
       </c>
       <c r="B610" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -10110,10 +10110,10 @@
         <v>614</v>
       </c>
       <c r="B611" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C611" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="D611" t="s">
         <v>1557</v>
@@ -10124,7 +10124,7 @@
         <v>615</v>
       </c>
       <c r="B612" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -10132,7 +10132,7 @@
         <v>616</v>
       </c>
       <c r="B613" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -10140,7 +10140,7 @@
         <v>617</v>
       </c>
       <c r="B614" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>618</v>
       </c>
       <c r="B615" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -10156,7 +10156,7 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -10164,7 +10164,7 @@
         <v>620</v>
       </c>
       <c r="B617" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -10172,10 +10172,10 @@
         <v>621</v>
       </c>
       <c r="B618" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C618" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -10183,10 +10183,10 @@
         <v>622</v>
       </c>
       <c r="B619" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C619" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -10194,7 +10194,7 @@
         <v>623</v>
       </c>
       <c r="B620" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10202,7 +10202,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -10210,7 +10210,7 @@
         <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -10218,7 +10218,7 @@
         <v>626</v>
       </c>
       <c r="B623" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -10226,7 +10226,7 @@
         <v>627</v>
       </c>
       <c r="B624" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -10234,7 +10234,7 @@
         <v>628</v>
       </c>
       <c r="B625" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -10242,7 +10242,7 @@
         <v>629</v>
       </c>
       <c r="B626" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -10250,7 +10250,7 @@
         <v>630</v>
       </c>
       <c r="B627" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10258,7 +10258,7 @@
         <v>631</v>
       </c>
       <c r="B628" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -10266,7 +10266,7 @@
         <v>632</v>
       </c>
       <c r="B629" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -10274,7 +10274,7 @@
         <v>633</v>
       </c>
       <c r="B630" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -10282,10 +10282,10 @@
         <v>634</v>
       </c>
       <c r="B631" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C631" t="s">
         <v>1358</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1359</v>
       </c>
       <c r="D631" t="s">
         <v>1558</v>
@@ -10296,7 +10296,7 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -10304,7 +10304,7 @@
         <v>636</v>
       </c>
       <c r="B633" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -10312,7 +10312,7 @@
         <v>637</v>
       </c>
       <c r="B634" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10320,7 +10320,7 @@
         <v>638</v>
       </c>
       <c r="B635" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10328,7 +10328,7 @@
         <v>639</v>
       </c>
       <c r="B636" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10336,7 +10336,7 @@
         <v>640</v>
       </c>
       <c r="B637" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -10344,7 +10344,7 @@
         <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -10352,7 +10352,7 @@
         <v>642</v>
       </c>
       <c r="B639" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -10360,7 +10360,7 @@
         <v>643</v>
       </c>
       <c r="B640" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -10368,7 +10368,7 @@
         <v>644</v>
       </c>
       <c r="B641" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>645</v>
       </c>
       <c r="B642" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -10384,7 +10384,7 @@
         <v>646</v>
       </c>
       <c r="B643" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -10392,7 +10392,7 @@
         <v>647</v>
       </c>
       <c r="B644" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -10400,7 +10400,7 @@
         <v>648</v>
       </c>
       <c r="B645" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C645" t="s">
         <v>1366</v>
@@ -10411,7 +10411,7 @@
         <v>649</v>
       </c>
       <c r="B646" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -10419,7 +10419,7 @@
         <v>650</v>
       </c>
       <c r="B647" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -10427,7 +10427,7 @@
         <v>651</v>
       </c>
       <c r="B648" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -10435,7 +10435,7 @@
         <v>652</v>
       </c>
       <c r="B649" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -10443,7 +10443,7 @@
         <v>653</v>
       </c>
       <c r="B650" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -10451,7 +10451,7 @@
         <v>654</v>
       </c>
       <c r="B651" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>655</v>
       </c>
       <c r="B652" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -10467,7 +10467,7 @@
         <v>656</v>
       </c>
       <c r="B653" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>657</v>
       </c>
       <c r="B654" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -10483,7 +10483,7 @@
         <v>658</v>
       </c>
       <c r="B655" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -10491,10 +10491,10 @@
         <v>659</v>
       </c>
       <c r="B656" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C656" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -10502,7 +10502,7 @@
         <v>660</v>
       </c>
       <c r="B657" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -10510,7 +10510,7 @@
         <v>661</v>
       </c>
       <c r="B658" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -10518,7 +10518,7 @@
         <v>662</v>
       </c>
       <c r="B659" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -10526,7 +10526,7 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -10534,7 +10534,7 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -10542,7 +10542,7 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -10550,7 +10550,7 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -10558,7 +10558,7 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -10566,7 +10566,7 @@
         <v>668</v>
       </c>
       <c r="B665" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -10574,7 +10574,7 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -10582,7 +10582,7 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -10590,7 +10590,7 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -10598,7 +10598,7 @@
         <v>672</v>
       </c>
       <c r="B669" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -10606,7 +10606,7 @@
         <v>673</v>
       </c>
       <c r="B670" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -10614,7 +10614,7 @@
         <v>674</v>
       </c>
       <c r="B671" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -10622,7 +10622,7 @@
         <v>675</v>
       </c>
       <c r="B672" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -10630,7 +10630,7 @@
         <v>676</v>
       </c>
       <c r="B673" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -10638,7 +10638,7 @@
         <v>677</v>
       </c>
       <c r="B674" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>678</v>
       </c>
       <c r="B675" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -10654,7 +10654,7 @@
         <v>679</v>
       </c>
       <c r="B676" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>680</v>
       </c>
       <c r="B677" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -10670,7 +10670,7 @@
         <v>681</v>
       </c>
       <c r="B678" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -10678,7 +10678,7 @@
         <v>682</v>
       </c>
       <c r="B679" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -10686,7 +10686,7 @@
         <v>683</v>
       </c>
       <c r="B680" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -10694,7 +10694,7 @@
         <v>684</v>
       </c>
       <c r="B681" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -10702,7 +10702,7 @@
         <v>685</v>
       </c>
       <c r="B682" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -10710,10 +10710,10 @@
         <v>686</v>
       </c>
       <c r="B683" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C683" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -10721,7 +10721,7 @@
         <v>687</v>
       </c>
       <c r="B684" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -10729,7 +10729,7 @@
         <v>688</v>
       </c>
       <c r="B685" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -10737,7 +10737,7 @@
         <v>689</v>
       </c>
       <c r="B686" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>690</v>
       </c>
       <c r="B687" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -10753,7 +10753,7 @@
         <v>691</v>
       </c>
       <c r="B688" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -10761,7 +10761,7 @@
         <v>692</v>
       </c>
       <c r="B689" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -10769,7 +10769,7 @@
         <v>693</v>
       </c>
       <c r="B690" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -10777,7 +10777,7 @@
         <v>694</v>
       </c>
       <c r="B691" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -10785,7 +10785,7 @@
         <v>695</v>
       </c>
       <c r="B692" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -10793,7 +10793,7 @@
         <v>696</v>
       </c>
       <c r="B693" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -10801,7 +10801,7 @@
         <v>697</v>
       </c>
       <c r="B694" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -10809,7 +10809,7 @@
         <v>698</v>
       </c>
       <c r="B695" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -10817,7 +10817,7 @@
         <v>699</v>
       </c>
       <c r="B696" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -10825,7 +10825,7 @@
         <v>700</v>
       </c>
       <c r="B697" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -10833,7 +10833,7 @@
         <v>701</v>
       </c>
       <c r="B698" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -10841,7 +10841,7 @@
         <v>702</v>
       </c>
       <c r="B699" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -10849,7 +10849,7 @@
         <v>703</v>
       </c>
       <c r="B700" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -10857,7 +10857,7 @@
         <v>704</v>
       </c>
       <c r="B701" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -10865,7 +10865,7 @@
         <v>705</v>
       </c>
       <c r="B702" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -10873,7 +10873,7 @@
         <v>706</v>
       </c>
       <c r="B703" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -10881,7 +10881,7 @@
         <v>707</v>
       </c>
       <c r="B704" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -10889,7 +10889,7 @@
         <v>708</v>
       </c>
       <c r="B705" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -10897,7 +10897,7 @@
         <v>709</v>
       </c>
       <c r="B706" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -10905,7 +10905,7 @@
         <v>710</v>
       </c>
       <c r="B707" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -10913,7 +10913,7 @@
         <v>711</v>
       </c>
       <c r="B708" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -10921,7 +10921,7 @@
         <v>712</v>
       </c>
       <c r="B709" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -10929,7 +10929,7 @@
         <v>713</v>
       </c>
       <c r="B710" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -10937,7 +10937,7 @@
         <v>714</v>
       </c>
       <c r="B711" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -10945,7 +10945,7 @@
         <v>715</v>
       </c>
       <c r="B712" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -10953,7 +10953,7 @@
         <v>716</v>
       </c>
       <c r="B713" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -10961,7 +10961,7 @@
         <v>717</v>
       </c>
       <c r="B714" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -10969,7 +10969,7 @@
         <v>718</v>
       </c>
       <c r="B715" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -10977,7 +10977,7 @@
         <v>719</v>
       </c>
       <c r="B716" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -10985,7 +10985,7 @@
         <v>720</v>
       </c>
       <c r="B717" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -10993,7 +10993,7 @@
         <v>721</v>
       </c>
       <c r="B718" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -11001,7 +11001,7 @@
         <v>722</v>
       </c>
       <c r="B719" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -11009,7 +11009,7 @@
         <v>723</v>
       </c>
       <c r="B720" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -11017,7 +11017,7 @@
         <v>724</v>
       </c>
       <c r="B721" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -11025,7 +11025,7 @@
         <v>725</v>
       </c>
       <c r="B722" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -11033,7 +11033,7 @@
         <v>726</v>
       </c>
       <c r="B723" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -11041,7 +11041,7 @@
         <v>727</v>
       </c>
       <c r="B724" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -11049,7 +11049,7 @@
         <v>728</v>
       </c>
       <c r="B725" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -11057,7 +11057,7 @@
         <v>729</v>
       </c>
       <c r="B726" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -11065,7 +11065,7 @@
         <v>730</v>
       </c>
       <c r="B727" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -11073,7 +11073,7 @@
         <v>731</v>
       </c>
       <c r="B728" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -11081,10 +11081,10 @@
         <v>732</v>
       </c>
       <c r="B729" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C729" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -11092,7 +11092,7 @@
         <v>733</v>
       </c>
       <c r="B730" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -11100,7 +11100,7 @@
         <v>734</v>
       </c>
       <c r="B731" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -11108,7 +11108,7 @@
         <v>735</v>
       </c>
       <c r="B732" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -11116,10 +11116,10 @@
         <v>736</v>
       </c>
       <c r="B733" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C733" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -11127,7 +11127,7 @@
         <v>737</v>
       </c>
       <c r="B734" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -11135,7 +11135,7 @@
         <v>738</v>
       </c>
       <c r="B735" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -11143,7 +11143,7 @@
         <v>739</v>
       </c>
       <c r="B736" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>740</v>
       </c>
       <c r="B737" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -11159,7 +11159,7 @@
         <v>741</v>
       </c>
       <c r="B738" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>742</v>
       </c>
       <c r="B739" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>743</v>
       </c>
       <c r="B740" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>744</v>
       </c>
       <c r="B741" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>745</v>
       </c>
       <c r="B742" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -11199,7 +11199,7 @@
         <v>746</v>
       </c>
       <c r="B743" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>747</v>
       </c>
       <c r="B744" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>748</v>
       </c>
       <c r="B745" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>749</v>
       </c>
       <c r="B746" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>750</v>
       </c>
       <c r="B747" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>751</v>
       </c>
       <c r="B748" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>752</v>
       </c>
       <c r="B749" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>753</v>
       </c>
       <c r="B750" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>754</v>
       </c>
       <c r="B751" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>755</v>
       </c>
       <c r="B752" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -11279,10 +11279,10 @@
         <v>756</v>
       </c>
       <c r="B753" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C753" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -11290,10 +11290,10 @@
         <v>757</v>
       </c>
       <c r="B754" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C754" t="s">
         <v>1445</v>
-      </c>
-      <c r="C754" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>759</v>
       </c>
       <c r="B756" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -11317,10 +11317,10 @@
         <v>760</v>
       </c>
       <c r="B757" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C757" t="s">
         <v>1447</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -11328,7 +11328,7 @@
         <v>761</v>
       </c>
       <c r="B758" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -11336,7 +11336,7 @@
         <v>762</v>
       </c>
       <c r="B759" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>763</v>
       </c>
       <c r="B760" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -11352,7 +11352,7 @@
         <v>764</v>
       </c>
       <c r="B761" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -11360,7 +11360,7 @@
         <v>765</v>
       </c>
       <c r="B762" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -11368,7 +11368,7 @@
         <v>766</v>
       </c>
       <c r="B763" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -11376,7 +11376,7 @@
         <v>767</v>
       </c>
       <c r="B764" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -11384,7 +11384,7 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -11392,7 +11392,7 @@
         <v>769</v>
       </c>
       <c r="B766" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -11400,7 +11400,7 @@
         <v>770</v>
       </c>
       <c r="B767" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -11408,7 +11408,7 @@
         <v>771</v>
       </c>
       <c r="B768" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -11416,7 +11416,7 @@
         <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -11424,7 +11424,7 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -11432,7 +11432,7 @@
         <v>774</v>
       </c>
       <c r="B771" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -11440,7 +11440,7 @@
         <v>775</v>
       </c>
       <c r="B772" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -11448,7 +11448,7 @@
         <v>776</v>
       </c>
       <c r="B773" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -11456,7 +11456,7 @@
         <v>777</v>
       </c>
       <c r="B774" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -11464,7 +11464,7 @@
         <v>778</v>
       </c>
       <c r="B775" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -11472,7 +11472,7 @@
         <v>779</v>
       </c>
       <c r="B776" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -11480,7 +11480,7 @@
         <v>780</v>
       </c>
       <c r="B777" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -11488,7 +11488,7 @@
         <v>781</v>
       </c>
       <c r="B778" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -11496,7 +11496,7 @@
         <v>782</v>
       </c>
       <c r="B779" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -11504,7 +11504,7 @@
         <v>783</v>
       </c>
       <c r="B780" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -11512,7 +11512,7 @@
         <v>784</v>
       </c>
       <c r="B781" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -11520,16 +11520,16 @@
         <v>785</v>
       </c>
       <c r="B782" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C782" t="s">
         <v>1470</v>
       </c>
-      <c r="C782" t="s">
-        <v>1549</v>
-      </c>
       <c r="D782" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E782" t="s">
         <v>1471</v>
-      </c>
-      <c r="E782" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -11537,16 +11537,16 @@
         <v>786</v>
       </c>
       <c r="B783" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C783" t="s">
         <v>1470</v>
       </c>
-      <c r="C783" t="s">
-        <v>1549</v>
-      </c>
       <c r="D783" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E783" t="s">
         <v>1471</v>
-      </c>
-      <c r="E783" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -11645,7 +11645,7 @@
         <v>1479</v>
       </c>
       <c r="C795" t="s">
-        <v>1550</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -11653,7 +11653,7 @@
         <v>799</v>
       </c>
       <c r="B796" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -11661,7 +11661,7 @@
         <v>800</v>
       </c>
       <c r="B797" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -11669,7 +11669,7 @@
         <v>801</v>
       </c>
       <c r="B798" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -11677,7 +11677,7 @@
         <v>802</v>
       </c>
       <c r="B799" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -11685,7 +11685,7 @@
         <v>803</v>
       </c>
       <c r="B800" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -11693,7 +11693,7 @@
         <v>804</v>
       </c>
       <c r="B801" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -11701,7 +11701,7 @@
         <v>805</v>
       </c>
       <c r="B802" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -11709,7 +11709,7 @@
         <v>806</v>
       </c>
       <c r="B803" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -11717,7 +11717,7 @@
         <v>807</v>
       </c>
       <c r="B804" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -11725,7 +11725,7 @@
         <v>808</v>
       </c>
       <c r="B805" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -11733,7 +11733,7 @@
         <v>809</v>
       </c>
       <c r="B806" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11741,7 +11741,7 @@
         <v>810</v>
       </c>
       <c r="B807" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11749,7 +11749,7 @@
         <v>811</v>
       </c>
       <c r="B808" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -11757,7 +11757,7 @@
         <v>812</v>
       </c>
       <c r="B809" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11765,7 +11765,7 @@
         <v>813</v>
       </c>
       <c r="B810" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11773,7 +11773,7 @@
         <v>814</v>
       </c>
       <c r="B811" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11781,7 +11781,7 @@
         <v>815</v>
       </c>
       <c r="B812" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11789,7 +11789,7 @@
         <v>816</v>
       </c>
       <c r="B813" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -11797,7 +11797,7 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -11805,7 +11805,7 @@
         <v>818</v>
       </c>
       <c r="B815" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="B816" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -11821,7 +11821,7 @@
         <v>820</v>
       </c>
       <c r="B817" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -11829,7 +11829,7 @@
         <v>821</v>
       </c>
       <c r="B818" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -11837,7 +11837,7 @@
         <v>822</v>
       </c>
       <c r="B819" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -11845,7 +11845,7 @@
         <v>823</v>
       </c>
       <c r="B820" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -11853,7 +11853,7 @@
         <v>824</v>
       </c>
       <c r="B821" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -11861,7 +11861,7 @@
         <v>825</v>
       </c>
       <c r="B822" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -11869,7 +11869,7 @@
         <v>826</v>
       </c>
       <c r="B823" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -11877,7 +11877,7 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -11885,7 +11885,7 @@
         <v>828</v>
       </c>
       <c r="B825" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -11893,7 +11893,7 @@
         <v>829</v>
       </c>
       <c r="B826" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -11901,7 +11901,7 @@
         <v>830</v>
       </c>
       <c r="B827" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -11909,7 +11909,7 @@
         <v>831</v>
       </c>
       <c r="B828" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -11917,7 +11917,7 @@
         <v>832</v>
       </c>
       <c r="B829" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -11925,7 +11925,7 @@
         <v>833</v>
       </c>
       <c r="B830" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -11933,7 +11933,7 @@
         <v>834</v>
       </c>
       <c r="B831" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -11941,7 +11941,7 @@
         <v>835</v>
       </c>
       <c r="B832" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -11949,7 +11949,7 @@
         <v>836</v>
       </c>
       <c r="B833" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -11957,7 +11957,7 @@
         <v>837</v>
       </c>
       <c r="B834" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11965,7 +11965,7 @@
         <v>838</v>
       </c>
       <c r="B835" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11973,7 +11973,7 @@
         <v>839</v>
       </c>
       <c r="B836" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -11981,7 +11981,7 @@
         <v>840</v>
       </c>
       <c r="B837" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -11989,7 +11989,7 @@
         <v>841</v>
       </c>
       <c r="B838" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11997,7 +11997,7 @@
         <v>842</v>
       </c>
       <c r="B839" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -12005,7 +12005,7 @@
         <v>843</v>
       </c>
       <c r="B840" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -12013,7 +12013,7 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -12021,7 +12021,7 @@
         <v>845</v>
       </c>
       <c r="B842" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -12029,7 +12029,7 @@
         <v>846</v>
       </c>
       <c r="B843" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/temp/dead_ends_reactions.xlsx
+++ b/Notebooks/temp/dead_ends_reactions.xlsx
@@ -2593,2113 +2593,2113 @@
     <t>CYSLYSL: Lcystin_c + h2o_c --&gt; nh4_c + pyr_c + thcys_c</t>
   </si>
   <si>
+    <t>HMR_4072: amet_c + dna_c --&gt; ahcys_c + dna5mtc_c + h_c</t>
+  </si>
+  <si>
+    <t>r0001: ametam_c --&gt; 5mta_c + HC02119_c</t>
+  </si>
+  <si>
+    <t>PGLYCP: 2pglyc_c + h2o_c --&gt; glyclt_c + pi_c</t>
+  </si>
+  <si>
+    <t>GDPGPH: gdpglc_c + pi_c --&gt; g1p_c + gdp_c + h_c</t>
+  </si>
+  <si>
+    <t>AGPRim: acg5p_m + h_m + nadph_m --&gt; acg5sa_m + nadp_m + pi_m</t>
+  </si>
+  <si>
+    <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
+  </si>
+  <si>
+    <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
+  </si>
+  <si>
+    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
+  </si>
+  <si>
+    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
+  </si>
+  <si>
+    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
+  </si>
+  <si>
+    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
+  </si>
+  <si>
+    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
+  </si>
+  <si>
+    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
+  </si>
+  <si>
+    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
+  </si>
+  <si>
+    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
+  </si>
+  <si>
+    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
+  </si>
+  <si>
+    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
+  </si>
+  <si>
+    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
+  </si>
+  <si>
+    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
+  </si>
+  <si>
+    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
+  </si>
+  <si>
+    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
+  </si>
+  <si>
+    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
+  </si>
+  <si>
+    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+  </si>
+  <si>
+    <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
+  </si>
+  <si>
+    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
+  </si>
+  <si>
+    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
+  </si>
+  <si>
+    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
+  </si>
+  <si>
+    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
+  </si>
+  <si>
+    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
+  </si>
+  <si>
+    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
+  </si>
+  <si>
+    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
+  </si>
+  <si>
+    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
+  </si>
+  <si>
+    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
+  </si>
+  <si>
+    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
+  </si>
+  <si>
+    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
+  </si>
+  <si>
+    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
+  </si>
+  <si>
+    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
+  </si>
+  <si>
+    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
+  </si>
+  <si>
+    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
+  </si>
+  <si>
+    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
+  </si>
+  <si>
+    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
+  </si>
+  <si>
+    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
+  </si>
+  <si>
+    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
+  </si>
+  <si>
+    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
+  </si>
+  <si>
+    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
+  </si>
+  <si>
+    <t>BVITEt: bvite_e --&gt; bvite_c</t>
+  </si>
+  <si>
+    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
+  </si>
+  <si>
+    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
+  </si>
+  <si>
+    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
+  </si>
+  <si>
+    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
+  </si>
+  <si>
+    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
+  </si>
+  <si>
+    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
+  </si>
+  <si>
+    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
+  </si>
+  <si>
+    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
+  </si>
+  <si>
+    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
+  </si>
+  <si>
+    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
+  </si>
+  <si>
+    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
+  </si>
+  <si>
+    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
+  </si>
+  <si>
+    <t>r1129: HC00004_c --&gt; HC00004_r</t>
+  </si>
+  <si>
+    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
+  </si>
+  <si>
+    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
+  </si>
+  <si>
+    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
+  </si>
+  <si>
+    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
+  </si>
+  <si>
+    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
+  </si>
+  <si>
+    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
+  </si>
+  <si>
+    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
+  </si>
+  <si>
+    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
+  </si>
+  <si>
+    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
+  </si>
+  <si>
+    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
+  </si>
+  <si>
+    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
+  </si>
+  <si>
+    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
+  </si>
+  <si>
+    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
+  </si>
+  <si>
+    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
+  </si>
+  <si>
+    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
+  </si>
+  <si>
+    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
+  </si>
+  <si>
+    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
+  </si>
+  <si>
+    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
+  </si>
+  <si>
+    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
+  </si>
+  <si>
+    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
+  </si>
+  <si>
+    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
+  </si>
+  <si>
+    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
+  </si>
+  <si>
+    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
+  </si>
+  <si>
+    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
+  </si>
+  <si>
+    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
+  </si>
+  <si>
+    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
+  </si>
+  <si>
+    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
+  </si>
+  <si>
+    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
+  </si>
+  <si>
+    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
+  </si>
+  <si>
+    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
+  </si>
+  <si>
+    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
+  </si>
+  <si>
+    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
+  </si>
+  <si>
+    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
+  </si>
+  <si>
+    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
+  </si>
+  <si>
+    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
+  </si>
+  <si>
+    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
+  </si>
+  <si>
+    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
+  </si>
+  <si>
+    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
+  </si>
+  <si>
+    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
+  </si>
+  <si>
+    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
+  </si>
+  <si>
+    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
+  </si>
+  <si>
+    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
+  </si>
+  <si>
+    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
+  </si>
+  <si>
+    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
+  </si>
+  <si>
+    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
+  </si>
+  <si>
+    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
+  </si>
+  <si>
+    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
+  </si>
+  <si>
+    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
+  </si>
+  <si>
+    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
+  </si>
+  <si>
+    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
+  </si>
+  <si>
+    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
+  </si>
+  <si>
+    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
+  </si>
+  <si>
+    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
+  </si>
+  <si>
+    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
+  </si>
+  <si>
+    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
+  </si>
+  <si>
+    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
+  </si>
+  <si>
+    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
+  </si>
+  <si>
+    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
+  </si>
+  <si>
+    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
+  </si>
+  <si>
+    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
+  </si>
+  <si>
+    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
+  </si>
+  <si>
+    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
+  </si>
+  <si>
+    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
+  </si>
+  <si>
+    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
+  </si>
+  <si>
+    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
+  </si>
+  <si>
+    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
+  </si>
+  <si>
+    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
+  </si>
+  <si>
+    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
+  </si>
+  <si>
+    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
+  </si>
+  <si>
+    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
+  </si>
+  <si>
+    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
+  </si>
+  <si>
+    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
+  </si>
+  <si>
+    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
+  </si>
+  <si>
+    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
+  </si>
+  <si>
+    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
+  </si>
+  <si>
+    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
+  </si>
+  <si>
+    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
+  </si>
+  <si>
+    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
+  </si>
+  <si>
+    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
+  </si>
+  <si>
+    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
+  </si>
+  <si>
+    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
+  </si>
+  <si>
+    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
+  </si>
+  <si>
+    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
+  </si>
+  <si>
+    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
+  </si>
+  <si>
+    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
+  </si>
+  <si>
+    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
+  </si>
+  <si>
+    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
+  </si>
+  <si>
+    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
+  </si>
+  <si>
+    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
+  </si>
+  <si>
+    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
+  </si>
+  <si>
+    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
+  </si>
+  <si>
+    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
+  </si>
+  <si>
+    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
+  </si>
+  <si>
+    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
+  </si>
+  <si>
+    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
+  </si>
+  <si>
+    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
+  </si>
+  <si>
+    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
+  </si>
+  <si>
+    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
+  </si>
+  <si>
+    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
+  </si>
+  <si>
+    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
+  </si>
+  <si>
+    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
+  </si>
+  <si>
+    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
+  </si>
+  <si>
+    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
+  </si>
+  <si>
+    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
+  </si>
+  <si>
+    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
+  </si>
+  <si>
+    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
+  </si>
+  <si>
+    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
+  </si>
+  <si>
+    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
+  </si>
+  <si>
+    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
+  </si>
+  <si>
+    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
+  </si>
+  <si>
+    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
+  </si>
+  <si>
+    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
+  </si>
+  <si>
+    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
+  </si>
+  <si>
+    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
+  </si>
+  <si>
+    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
+  </si>
+  <si>
+    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
+  </si>
+  <si>
+    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
+  </si>
+  <si>
+    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
+  </si>
+  <si>
+    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
+  </si>
+  <si>
+    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
+  </si>
+  <si>
+    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
+  </si>
+  <si>
+    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
+  </si>
+  <si>
+    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
+  </si>
+  <si>
+    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
+  </si>
+  <si>
+    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
+  </si>
+  <si>
+    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
+  </si>
+  <si>
+    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
+  </si>
+  <si>
+    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
+  </si>
+  <si>
+    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
+  </si>
+  <si>
+    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
+  </si>
+  <si>
+    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
+  </si>
+  <si>
+    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
+  </si>
+  <si>
+    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
+  </si>
+  <si>
+    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
+  </si>
+  <si>
+    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
+  </si>
+  <si>
+    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
+  </si>
+  <si>
+    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
+  </si>
+  <si>
+    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
+  </si>
+  <si>
+    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
+  </si>
+  <si>
+    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
+  </si>
+  <si>
+    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
+  </si>
+  <si>
+    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
+  </si>
+  <si>
+    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
+  </si>
+  <si>
+    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
+  </si>
+  <si>
+    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
+  </si>
+  <si>
+    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
+  </si>
+  <si>
+    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
+  </si>
+  <si>
+    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
+  </si>
+  <si>
+    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
+  </si>
+  <si>
+    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
+  </si>
+  <si>
+    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
+  </si>
+  <si>
+    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
+  </si>
+  <si>
+    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
+  </si>
+  <si>
+    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
+  </si>
+  <si>
+    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
+  </si>
+  <si>
+    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
+  </si>
+  <si>
+    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
+  </si>
+  <si>
+    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
+  </si>
+  <si>
+    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
+  </si>
+  <si>
+    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
+  </si>
+  <si>
+    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
+  </si>
+  <si>
+    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
+  </si>
+  <si>
+    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
+  </si>
+  <si>
+    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
+  </si>
+  <si>
+    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
+  </si>
+  <si>
+    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
+  </si>
+  <si>
+    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
+  </si>
+  <si>
+    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
+  </si>
+  <si>
+    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
+  </si>
+  <si>
+    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
+  </si>
+  <si>
+    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
+  </si>
+  <si>
+    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
+  </si>
+  <si>
+    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
+  </si>
+  <si>
+    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
+  </si>
+  <si>
+    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
+  </si>
+  <si>
+    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
+  </si>
+  <si>
+    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
+  </si>
+  <si>
+    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
+  </si>
+  <si>
+    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
+  </si>
+  <si>
+    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
+  </si>
+  <si>
+    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
+  </si>
+  <si>
+    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
+  </si>
+  <si>
+    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
+  </si>
+  <si>
+    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
+  </si>
+  <si>
+    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_1746: M01077_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01076_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1747: M01080_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01079_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1750: M00746_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M02977_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1751: M00753_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00742_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
+  </si>
+  <si>
+    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
+  </si>
+  <si>
+    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
+  </si>
+  <si>
+    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
+  </si>
+  <si>
+    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
+  </si>
+  <si>
+    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
+  </si>
+  <si>
+    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
+  </si>
+  <si>
+    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
+  </si>
+  <si>
+    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
+  </si>
+  <si>
+    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
+  </si>
+  <si>
+    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
+  </si>
+  <si>
+    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
+  </si>
+  <si>
+    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
+  </si>
+  <si>
+    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
+  </si>
+  <si>
+    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
+  </si>
+  <si>
+    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
+  </si>
+  <si>
+    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
+  </si>
+  <si>
+    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
+  </si>
+  <si>
+    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
+  </si>
+  <si>
+    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
+  </si>
+  <si>
+    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
+  </si>
+  <si>
+    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
+  </si>
+  <si>
+    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
+  </si>
+  <si>
+    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
+  </si>
+  <si>
+    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
+  </si>
+  <si>
+    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
+  </si>
+  <si>
+    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
+  </si>
+  <si>
+    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
+  </si>
+  <si>
+    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
+  </si>
+  <si>
+    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
+  </si>
+  <si>
+    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
+  </si>
+  <si>
+    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
+  </si>
+  <si>
+    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
+  </si>
+  <si>
+    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
+  </si>
+  <si>
+    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
+  </si>
+  <si>
+    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
+  </si>
+  <si>
+    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
+  </si>
+  <si>
+    <t>CARhPTtc: carn_l --&gt; carn_c</t>
+  </si>
+  <si>
+    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
+  </si>
+  <si>
+    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
+  </si>
+  <si>
+    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
+  </si>
+  <si>
+    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
+  </si>
+  <si>
     <t>HMR_7163: dna_c + h2o_c --&gt; 0.3 damp_c + 0.2 dcmp_c + 0.2 dgmp_c + 0.3 dtmp_c</t>
   </si>
   <si>
-    <t>HMR_4072: amet_c + dna_c --&gt; ahcys_c + dna5mtc_c + h_c</t>
-  </si>
-  <si>
-    <t>r0001: ametam_c --&gt; 5mta_c + HC02119_c</t>
-  </si>
-  <si>
-    <t>PGLYCP: 2pglyc_c + h2o_c --&gt; glyclt_c + pi_c</t>
-  </si>
-  <si>
-    <t>GDPGPH: gdpglc_c + pi_c --&gt; g1p_c + gdp_c + h_c</t>
-  </si>
-  <si>
-    <t>AGPRim: acg5p_m + h_m + nadph_m --&gt; acg5sa_m + nadp_m + pi_m</t>
-  </si>
-  <si>
     <t>RE3367X: CE1939_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
   </si>
   <si>
-    <t>RE1538X: C03413_x + h2o_x + o2_x --&gt; 3aap_x + N1aspmd_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>HMGCOARr: 2.0 h_r + hmgcoa_r + 2.0 nadph_r --&gt; coa_r + mev_R_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMGLr: hmgcoa_r --&gt; acac_r + accoa_r</t>
-  </si>
-  <si>
-    <t>HMR_1536: C05109_c + h_c + nadph_c + o2_c --&gt; M00940_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_3538: M01498_l + h2o_l --&gt; chsterol_l + ddca_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3539: M01510_l + h2o_l --&gt; M03051_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3540: M01501_l + h2o_l --&gt; chsterol_l + h_l + ttdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3541: M01487_l + h2o_l --&gt; chsterol_l + h_l + ttdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3542: M01479_l + h2o_l --&gt; M00117_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3543: M01470_l + h2o_l --&gt; M02745_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3544: M01506_l + h2o_l --&gt; chsterol_l + h_l + ptdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3546: M01477_l + h2o_l --&gt; M01197_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3547: HC02021_l + h2o_l --&gt; chsterol_l + h_l + hdcea_l</t>
-  </si>
-  <si>
-    <t>HMR_3548: M01495_l + h2o_l --&gt; chsterol_l + h_l + hpdca_l</t>
-  </si>
-  <si>
-    <t>HMR_3549: M01454_l + h2o_l --&gt; M00003_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3550: M01485_l + h2o_l --&gt; M01238_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3553: M01464_l + h2o_l --&gt; M00019_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3555: M01486_l + h2o_l --&gt; chsterol_l + elaid_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3556: M01478_l + h2o_l --&gt; M00115_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3557: M01474_l + h2o_l --&gt; chsterol_l + h_l + lneldc_l</t>
-  </si>
-  <si>
-    <t>HMR_3558: M01502_l + h2o_l --&gt; M02613_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3559: M01492_l + h2o_l --&gt; arach_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3560: M01463_l + h2o_l --&gt; M00017_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3561: M01458_l + h2o_l --&gt; CE2510_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3562: M01484_l + h2o_l --&gt; M01235_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3563: M01481_l + h2o_l --&gt; M01207_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3564: M01469_l + h2o_l --&gt; M02457_l + chsterol_l</t>
-  </si>
-  <si>
-    <t>HMR_3565: M01494_l + h2o_l --&gt; M02053_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3566: M01491_l + h2o_l --&gt; chsterol_l + docosac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3567: M01462_l + h2o_l --&gt; chsterol_l + doco13ac_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3568: M01457_l + h2o_l --&gt; M01582_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3569: M01509_l + h2o_l --&gt; M03045_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3570: M01508_l + h2o_l --&gt; chsterol_l + h_l + lgnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3571: M01465_l + h2o_l --&gt; chsterol_l + h_l + nrvnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3572: M01496_l + h2o_l --&gt; chsterol_l + h_l + hexc_l</t>
-  </si>
-  <si>
-    <t>HMR_3573: M01497_l + h2o_l --&gt; M03153_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3574: HC02025_l + h2o_l --&gt; chsterol_l + h_l + lnlnca_l</t>
-  </si>
-  <si>
-    <t>HMR_3575: M01473_l + h2o_l --&gt; chsterol_l + h_l + strdnc_l</t>
-  </si>
-  <si>
-    <t>HMR_3576: M01480_l + h2o_l --&gt; chsterol_l + eicostet_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3578: M01475_l + h2o_l --&gt; chsterol_l + clpnd_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3579: M01482_l + h2o_l --&gt; chsterol_l + h_l + tetpent3_l</t>
-  </si>
-  <si>
-    <t>HMR_3580: M01471_l + h2o_l --&gt; chsterol_l + h_l + tethex3_l</t>
-  </si>
-  <si>
-    <t>HMR_3582: M01455_l + h2o_l --&gt; M00010_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3583: M01460_l + h2o_l --&gt; M00341_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3584: M01452_l + h2o_l --&gt; M00260_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3585: M01459_l + h2o_l --&gt; M00315_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3587: HC02026_l + h2o_l --&gt; chsterol_l + h_l + lnlncg_l</t>
-  </si>
-  <si>
-    <t>HMR_3588: M01490_l + h2o_l --&gt; chsterol_l + dlnlcg_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3590: M01476_l + h2o_l --&gt; adrn_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3591: M01483_l + h2o_l --&gt; chsterol_l + h_l + tettet6_l</t>
-  </si>
-  <si>
-    <t>HMR_3592: M01472_l + h2o_l --&gt; chsterol_l + h_l + tetpent6_l</t>
-  </si>
-  <si>
-    <t>HMR_3593: M01467_l + h2o_l --&gt; chsterol_l + dcsptn1_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3594: M01456_l + h2o_l --&gt; M00008_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3595: M01461_l + h2o_l --&gt; M00021_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3596: M01453_l + h2o_l --&gt; M00265_l + chsterol_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_3702: M01478_r + h2o_r --&gt; M00115_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3730: M01452_r + h2o_r --&gt; M00260_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3731: M01459_r + h2o_r --&gt; M00315_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_3742: M01453_r + h2o_r --&gt; M00265_r + chsterol_r + h_r</t>
-  </si>
-  <si>
-    <t>RE2220C: 7dhchsterol_c + h_c + nadh_c + o2_c --&gt; CE1293_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>SOAT11r: R1coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>SOAT12r: R2coa_cho_r + chsterol_r --&gt; coa_r + xolest_cho_r</t>
-  </si>
-  <si>
-    <t>A_MANASE: 2.0 h2o_c + m2mn_c --&gt; 2.0 man_c + mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE: h2o_c + s2l2n2m2m_c --&gt; acgam_c + s2l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>ENGASE2: h2o_c + n2m2nm_c --&gt; acgam_c + n2m2nmn_c</t>
+    <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
+  </si>
+  <si>
+    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
+  </si>
+  <si>
+    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
+  </si>
+  <si>
+    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
+  </si>
+  <si>
+    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
+  </si>
+  <si>
+    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
+  </si>
+  <si>
+    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>r0778: HC01652_n --&gt; HC01710_n</t>
+  </si>
+  <si>
+    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
+  </si>
+  <si>
+    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
+  </si>
+  <si>
+    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
+  </si>
+  <si>
+    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
+  </si>
+  <si>
+    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
+  </si>
+  <si>
+    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
+  </si>
+  <si>
+    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
+  </si>
+  <si>
+    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
+  </si>
+  <si>
+    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
+  </si>
+  <si>
+    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
+  </si>
+  <si>
+    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
+  </si>
+  <si>
+    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
+  </si>
+  <si>
+    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
+  </si>
+  <si>
+    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
+  </si>
+  <si>
+    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
+  </si>
+  <si>
+    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
+  </si>
+  <si>
+    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
+  </si>
+  <si>
+    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
   </si>
   <si>
     <t>ENMAN4g: g1m7masnC_g + h2o_g --&gt; glc1man_g + m6masnC_g</t>
   </si>
   <si>
-    <t>ENMAN2g: g2m8masn_g + h2o_g --&gt; glc2man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>ENMAN3g: g3m8masn_g + h2o_g --&gt; glc3man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>HMR_7329: M01869_g + uacgam_g --&gt; M01870_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>S23TN10g: 3.0 cmpacna_g + lnl3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN11g: 4.0 cmpacna_g + lndl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN12g: 4.0 cmpacna_g + lndl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lndl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN13g: 4.0 cmpacna_g + lncl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN14g: 4.0 cmpacna_g + lncl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lncl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN15g: 4.0 cmpacna_g + lnbl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN16g: 4.0 cmpacna_g + lnbl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4lnbl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN17g: 4.0 cmpacna_g + l2n2cdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN18g: 4.0 cmpacna_g + l2n2cdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2cdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN19g: 4.0 cmpacna_g + l2n2bdl4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN20g: 4.0 cmpacna_g + l2n2bdl4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l2n2bdl4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN21g: 4.0 cmpacna_g + l3n3l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN22g: 4.0 cmpacna_g + l3n3l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l3n3l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN2g: 2.0 cmpacna_g + l2n2m2masn_g --&gt; 2.0 cmp_g + 2.0 h_g + s2l2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN3g: 3.0 cmpacna_g + l3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN4g: 3.0 cmpacna_g + l3n3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3n3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN5g: 3.0 cmpacna_g + l3fn3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN6g: 3.0 cmpacna_g + l3fn3rm2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3l3fn3rm2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN7g: 4.0 cmpacna_g + l4fn4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4fn4m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN8g: 3.0 cmpacna_g + lnl3n3m2masn_g --&gt; 3.0 cmp_g + 3.0 h_g + s3lnl3n3m2masn_g</t>
-  </si>
-  <si>
-    <t>S23TN9g: 4.0 cmpacna_g + l4n4m2masn_g --&gt; 4.0 cmp_g + 4.0 h_g + s4l4n4m2masn_g</t>
-  </si>
-  <si>
-    <t>SIAASE: 2.0 h2o_c + s2l2n2m2mn_c --&gt; 2.0 acnam_c + l2n2m2mn_c</t>
-  </si>
-  <si>
-    <t>CORE5GTg: Tn_antigen_g + udpacgal_g --&gt; core5_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE7GTg: Tn_antigen_g + udpacgal_g --&gt; core7_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>CORE8GTg: Tn_antigen_g + udpgal_g --&gt; core8_g + h_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_7181: M01871_g + udpgal_g --&gt; M01872_g + udp_g</t>
-  </si>
-  <si>
-    <t>NS26T2g: cmpacna_g + sT_antigen_g --&gt; cmp_g + dsT_antigen_g + h_g</t>
-  </si>
-  <si>
-    <t>NS26Tg: Tn_antigen_g + cmpacna_g --&gt; cmp_g + h_g + sTn_antigen_g</t>
-  </si>
-  <si>
-    <t>DOLPOMTr: Ser_Thr_r + dolmanp_r --&gt; dolp_r + h_r + mser_r</t>
-  </si>
-  <si>
-    <t>G14Tg_1: fn2m2masn_g + udpgal_g --&gt; h_g + lfn2m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new2: fnm2masn_g + udpgal_g --&gt; h_g + lfnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>G14Tg_new3: nm2masn_g + udpgal_g --&gt; h_g + lnm2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFGALTg: nmser_g + udpgal_g --&gt; corem1_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNOFPGALT2g: n2mser_g + udpgal_g --&gt; corem2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GNPT: h_l + m4masn_l + uacgam_l --&gt; nm4masn_l + ump_l</t>
-  </si>
-  <si>
-    <t>GXYLTr: gser_r + udpxyl_r --&gt; udp_r + xgser_r</t>
-  </si>
-  <si>
-    <t>LARGEg: nxylrbtlprbtlpgalnmser_g + udpxyl_g --&gt; adystroglycan_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new1: l5fn4m2masn_g + uacgam_g --&gt; h_g + l5fn5m2masn_g + udp_g</t>
-  </si>
-  <si>
-    <t>M16N4Tg_new2: l6fn4m2masn_g + 2.0 uacgam_g --&gt; 2.0 h_g + l6fn6m2masn_g + 2.0 udp_g</t>
-  </si>
-  <si>
-    <t>S16Tg_1: cmpacna_g + l2n2m2masn_g --&gt; cmp_g + sl2n2m2masn_g</t>
-  </si>
-  <si>
-    <t>HMR_4763: M02050_c + fadh2_c + 3.0 o2_c --&gt; M01957_c + biliverd_c + co_c + fad_c + fe3_c + 3.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_5285: 142.0 atp_l + glyc_l + 142.0 h2o_l --&gt; 142.0 adp_l + 21.0 ala_L_l + 20.0 arg_L_l + 11.0 asn_L_l + 10.0 asp_L_l + 5.0 cys_L_l + 17.0 gln_L_l + 22.0 glu_L_l + 21.0 gly_l + 6.0 his_L_l + 10.0 ile_L_l + 31.0 leu_L_l + 19.0 lys_L_l + 12.0 met_L_l + 6.0 phe_L_l + 142.0 pi_l + 12.0 pro_L_l + 20.0 ser_L_l + 12.0 thr_L_l + 5.0 trp_L_l + 4.0 tyr_L_l + 21.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5287: M01358_l + 162.0 atp_l + 162.0 h2o_l --&gt; 162.0 adp_l + 38.0 ala_L_l + 23.0 arg_L_l + 5.0 asn_L_l + 14.0 asp_L_l + 6.0 cys_L_l + 7.0 gln_L_l + 15.0 glu_L_l + 28.0 gly_l + 10.0 his_L_l + 6.0 ile_L_l + 37.0 leu_L_l + 14.0 lys_L_l + 14.0 met_L_l + 10.0 phe_L_l + 162.0 pi_l + 26.0 pro_L_l + 25.0 ser_L_l + 10.0 thr_L_l + 3.0 trp_L_l + 14.0 tyr_L_l + 20.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5289: M02757_l + 234.0 atp_l + 234.0 h2o_l --&gt; 234.0 adp_l + 31.0 ala_L_l + 19.0 arg_L_l + 19.0 asn_L_l + 27.0 asp_L_l + 19.0 cys_L_l + 16.0 gln_L_l + 34.0 glu_L_l + 28.0 gly_l + 13.0 his_L_l + 29.0 ile_L_l + 47.0 leu_L_l + 33.0 lys_L_l + 15.0 met_L_l + 22.0 phe_L_l + 234.0 pi_l + 20.0 pro_L_l + 37.0 ser_L_l + 18.0 thr_L_l + 14.0 tyr_L_l + 27.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_5290: M01352_l + 2281.0 atp_l + 2281.0 h2o_l --&gt; 2281.0 adp_l + 276.0 ala_L_l + 150.0 arg_L_l + 245.0 asn_L_l + 234.0 asp_L_l + 24.0 cys_L_l + 231.0 gln_L_l + 297.0 glu_L_l + 207.0 gly_l + 114.0 his_L_l + 287.0 ile_L_l + 536.0 leu_L_l + 356.0 lys_L_l + 79.0 met_L_l + 224.0 phe_L_l + 2281.0 pi_l + 171.0 pro_L_l + 393.0 ser_L_l + 299.0 thr_L_l + 37.0 trp_L_l + 153.0 tyr_L_l + 250.0 val_L_l</t>
-  </si>
-  <si>
-    <t>HMR_7622: M00197_c + h2o_c + h_c --&gt; M00199_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_7626: M02496_c + h2o_c --&gt; adprib_c + arg_L_c</t>
-  </si>
-  <si>
-    <t>HMR_6727: phpyr_c --&gt; M00647_c</t>
-  </si>
-  <si>
-    <t>HMR_6757: 34dhoxpeg_c + amet_c --&gt; M00819_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6844: CE2872_c + paps_c --&gt; CE2873_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>ALDD20xm: h2o_m + id3acald_m + nad_m --&gt; 2.0 h_m + ind3ac_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_4227: 2.0 3hanthrn_c + 4.0 o2_c --&gt; M01572_c + 2.0 h2o2_c + 4.0 h_c + 2.0 o2s_c</t>
-  </si>
-  <si>
-    <t>HMR_6711: amet_c + trypta_c --&gt; M02605_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2133C: amet_c + ind3ac_c --&gt; CE2122_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>RE2477C: CE3087_c + amet_c --&gt; C09209_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>DOPASULT4: dopa_c + paps_c --&gt; dopa4sf_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>FUMAH: fumpyr_c + h2o_c --&gt; fum_c + h_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RE0919C: CE2872_c + udpglcur_c --&gt; CE2876_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0919R: CE2872_r + udpglcur_r --&gt; CE2876_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0920C: thyox_L_c + udpglcur_c --&gt; CE2877_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0920R: thyox_L_r + udpglcur_r --&gt; CE2877_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0921C: CE2754_c + udpglcur_c --&gt; CE2878_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0921R: CE2754_r + udpglcur_r --&gt; CE2878_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0922C: triodthy_c + udpglcur_c --&gt; CE2879_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0922R: triodthy_r + udpglcur_r --&gt; CE2879_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0923C: CE2866_c + udpglcur_c --&gt; CE2880_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0923R: CE2866_r + udpglcur_r --&gt; CE2880_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0924C: CE2881_c + udpglcur_c --&gt; CE2885_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0924R: CE2881_r + udpglcur_r --&gt; CE2885_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0925C: CE2882_c + udpglcur_c --&gt; CE2886_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0925R: CE2882_r + udpglcur_r --&gt; CE2886_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0927C: CE2883_c + udpglcur_c --&gt; CE2887_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0927R: CE2883_r + udpglcur_r --&gt; CE2887_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE0928C: CE2884_c + udpglcur_c --&gt; CE2888_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE0928R: CE2884_r + udpglcur_r --&gt; CE2888_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1920C: CE5626_c + amet_c --&gt; CE5627_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1922C: C09642_c + amet_c --&gt; C09640_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2124C: amet_c + tym_c --&gt; C02442_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2384C: C09642_c + amet_c --&gt; CE2196_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE3201C: 56dihindlcrbxlt_c + o2_c --&gt; CE1562_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE3233C: C06199_c + o2_c --&gt; CE6316_c + h2o_c</t>
-  </si>
-  <si>
-    <t>RE3233G: C06199_g + o2_g --&gt; CE6316_g + h2o_g</t>
-  </si>
-  <si>
-    <t>RE3233L: C06199_l + o2_l --&gt; CE6316_l + h2o_l</t>
-  </si>
-  <si>
-    <t>RN0014R: nrpphr_r --&gt; CE5538_r + 5.0 h_r</t>
-  </si>
-  <si>
-    <t>TYRDHINDOX: 2.0 CE4888_c + o2_c --&gt; 2.0 h2o_c + 2.0 ind56qn_c</t>
-  </si>
-  <si>
-    <t>BVITEt: bvite_e --&gt; bvite_c</t>
-  </si>
-  <si>
-    <t>CAATPasg: atp_c + 2.0 ca2_c + h2o_c --&gt; adp_c + 2.0 ca2_g + h_g + pi_c</t>
-  </si>
-  <si>
-    <t>CBL1tm: cbl1_c --&gt; cbl1_m</t>
-  </si>
-  <si>
-    <t>CBL2tm: cbl2_c --&gt; cbl2_m</t>
-  </si>
-  <si>
-    <t>FTMTm: 4.0 fe2_m + 4.0 h_m + o2_m --&gt; 4.0 fe3_m + 2.0 h2o_m</t>
-  </si>
-  <si>
-    <t>GTHDNBabc: atp_c + gth24dnb_c + h2o_c --&gt; adp_c + gth24dnb_e + h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_0019: xolest_cho_e --&gt; xolest_cho_l</t>
-  </si>
-  <si>
-    <t>HEXDTRtm: h_c + hexdtr_m --&gt; h_m + hexdtr_c</t>
-  </si>
-  <si>
-    <t>HMR_5241: M03146_e --&gt; M03146_l</t>
-  </si>
-  <si>
-    <t>HMR_5246: M01569_e --&gt; M01569_l</t>
-  </si>
-  <si>
-    <t>HMR_9580: 4.0 M02382_e + ca2_c --&gt; 4.0 M02382_c + ca2_e</t>
-  </si>
-  <si>
-    <t>INDSt: akg_c + inds_e --&gt; akg_e + inds_c</t>
-  </si>
-  <si>
-    <t>HMR_9199: zn2_c --&gt; zn2_g</t>
-  </si>
-  <si>
-    <t>HPDECEtm: h_c + hpdece_m --&gt; h_m + hpdece_c</t>
-  </si>
-  <si>
-    <t>SameRxns147: h2o_r + hspg_r --&gt; Ser_Gly_Ala_X_Gly_r + hs_r</t>
-  </si>
-  <si>
-    <t>r1129: HC00004_c --&gt; HC00004_r</t>
-  </si>
-  <si>
-    <t>HMR_8746: h_c + pyr_c + thmpp_c --&gt; M00561_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_6634: nadph_c + o2_c + retinol_c --&gt; M01032_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6639: pchol_cho_c + retinol_cis_11_c --&gt; M00292_c + M00535_c</t>
-  </si>
-  <si>
-    <t>HMR_6648: h_c + nadph_c + o2_c + retinal_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6655: CE5592_c + nadph_c + o2_c --&gt; CE5652_c + h2o_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6656: CE5592_r + nadph_r + o2_r --&gt; CE5652_r + h2o_r + h_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6682: 13_cis_retn_r + h_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + oretn_r</t>
-  </si>
-  <si>
-    <t>RE2146R: CE2953_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1904C: h_c + nadph_c + o2_c + retinal_cis_13_c --&gt; CE5591_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1904R: h_r + nadph_r + o2_r + retinal_cis_13_r --&gt; CE5591_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1906R: h_r + nadph_r + o2_r + retinal_r --&gt; CE5593_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1938C: h_c + nadph_c + o2_c + retinol_c --&gt; CE1761_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1938R: h_r + nadph_r + o2_r + retinol_r --&gt; CE1761_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1942C: 13_cis_retn_c + 2.0 h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5654_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE1942R: 13_cis_retn_r + 2.0 h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5654_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE1943C: h_c + nadph_c + o2_c + retn_c --&gt; CE2957_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1943R: h_r + nadph_r + o2_r + retn_r --&gt; CE2957_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2146C: CE2953_c + udpglcur_c --&gt; CE2958_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2149C: CE2961_c + udpglcur_c --&gt; CE2962_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2149R: CE2961_r + udpglcur_r --&gt; CE2962_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2151C: CE5653_c + udpglcur_c --&gt; CE5757_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2151R: CE5653_r + udpglcur_r --&gt; CE5757_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE2248C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2963_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2249C: 13_cis_retn_c + h_c + nadph_c + o2_c --&gt; CE2964_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RETNCOA: atp_c + coa_c + retn_c --&gt; amp_c + ppi_c + retncoa_c</t>
-  </si>
-  <si>
-    <t>RE2493C: amet_c + cbl2_c --&gt; C06453_c + ahcys_c + 4.0 h_c</t>
-  </si>
-  <si>
-    <t>DOGULND1: 23doguln_c + h2o_c --&gt; co2_c + lyxnt_c</t>
-  </si>
-  <si>
-    <t>DOGULND2: 23doguln_c + h2o_c --&gt; co2_c + xylnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO1: 23doguln_c + h2o2_c --&gt; 2.0 h_c + oxa_c + thrnt_c</t>
-  </si>
-  <si>
-    <t>DOGULNO2: 23doguln_c + h2o_c --&gt; eryth_c + h_c + oxa_c</t>
-  </si>
-  <si>
-    <t>GLACOm: glac_m + 2.0 h2o_m + nad_m --&gt; glcr_m + 3.0 h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>RE1311C: CE2203_c + o2_c --&gt; CE2204_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>RE1311M: CE2203_m + o2_m --&gt; CE2204_m + h2o2_m</t>
-  </si>
-  <si>
-    <t>RE2975C: CE2206_c + h_c + nadph_c + o2_c --&gt; CE2207_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2975M: CE2206_m + h_m + nadph_m + o2_m --&gt; CE2207_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE3144C: CE6027_c + nadph_c + o2_c --&gt; cca_d3_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3144M: CE6027_m + nadph_m + o2_m --&gt; cca_d3_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>HMR_6432: CE7145_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5850_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6433: CE5850_m + atp_m + coa_m + h2o_m + h_m + nad_m + o2_m --&gt; CE5851_m + accoa_m + amp_m + h2o2_m + nadh_m + oh1_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6435: CE5849_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5845_m + accoa_m + amp_m + h2o2_m + nadh_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6436: CE5845_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1925_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6441: M01938_c + h_c + nadph_c + o2_c --&gt; CE7074_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6442: M01938_r + h_r + nadph_r + o2_r --&gt; CE7074_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6450: CE5847_m + atp_m + coa_m + h2o_m + 3.0 h_m + nad_m + o2_m --&gt; CE5848_m + amp_m + h2o2_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6453: CE5723_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE1926_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6471: CE5718_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5719_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6484: CE5855_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5856_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_6486: CE5856_m + atp_m + coa_m + h2o2_m + nad_m --&gt; CE5844_m + amp_m + 2.0 h_m + nadh_m + ppcoa_m + ppi_m</t>
-  </si>
-  <si>
-    <t>RE2383C: CE5842_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE5843_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2383R: CE5842_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE5843_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE2398C: CE5655_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE4898_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2398R: CE5655_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE4898_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3370C: CE7144_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7145_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3370R: CE7144_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7145_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>RE3440C: CE7074_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; CE7072_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE3440R: CE7074_r + h_r + 2.0 nadph_r + 2.0 o2_r --&gt; CE7072_r + 3.0 h2o_r + 2.0 nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_9722: h_c + nadh_c + phyQ_c --&gt; M03159_c + nad_c</t>
-  </si>
-  <si>
-    <t>NMPTRCOX: nmptrc_c + o2_c --&gt; 1mpyr_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>PECGONCOATr: atp_r + coa_r + h_r + pecgon_r --&gt; amp_r + pecgoncoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>DHDDH: dhnpthld_c + nadp_c --&gt; h_c + nadph_c + npthld_c</t>
-  </si>
-  <si>
-    <t>HMR_7147: M02488_c + atp_c + h_c --&gt; M01281_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r0778: HC01652_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>SPRn: 6pthp_n + 2.0 h_n + 2.0 nadph_n --&gt; 2.0 nadp_n + thbpt_n</t>
-  </si>
-  <si>
-    <t>DBPDLMO: CN0016diol_c + h_c + nadph_c + o2_c --&gt; CN0016diolepox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPDLMOr: CN0016diol_r + h_r + nadph_r + o2_r --&gt; CN0016diolepox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DBPYRMO: CN0016_c + 3.0 h_c + nadph_c + o2_c --&gt; CN0016epox_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DBPYRMOr: CN0016_r + 3.0 h_r + nadph_r + o2_r --&gt; CN0016epox_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>DMBADLMO: CN0022_c + h_c + nadph_c + o2_c --&gt; CN0023_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBADLMOr: CN0022_r + h_r + nadph_r + o2_r --&gt; CN0023_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_7053: CN0020_c + h_c + nadph_c + o2_c --&gt; M01196_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>DMBAMOr: CN0020_r + h_r + nadph_r + o2_r --&gt; CN0021_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_6998: M01377_c + gthrd_c + h_c --&gt; M01175_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_6999: M01377_c + h_c + nadph_c + o2_c --&gt; M01376_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7000: M01241_c + h_c + nadph_c + o2_c --&gt; M01242_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7003: gthrd_c + onpthl_c --&gt; M00031_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7013: M00034_c + gthrd_c --&gt; M00033_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7017: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01302_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7020: aflatoxin_c + h_c + nadph_c + o2_c --&gt; M01297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7022: eaflatoxin_c + gthrd_c + h_c --&gt; M01299_c</t>
-  </si>
-  <si>
-    <t>HMR_7023: eaflatoxin_c + h2o_c --&gt; M01295_c</t>
-  </si>
-  <si>
-    <t>HMR_7025: M01294_c --&gt; M00229_c</t>
-  </si>
-  <si>
-    <t>HMR_7028: M01318_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7030: M03044_c + h_c + nadph_c + o2_c --&gt; M02954_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7029: M03044_c + gthrd_c --&gt; M02144_c + M02850_c</t>
-  </si>
-  <si>
-    <t>HMR_7033: M03044_c + h_c + nadph_c + o2_c --&gt; M01441_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7038: M01440_c + h_c + nadh_c --&gt; M03043_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>HMR_7036: M03043_c + h_c + 2.0 nadph_c + 2.0 o2_c --&gt; M03041_c + 3.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7039: M03043_c + udpglcur_c --&gt; M03042_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7041: M01407_c + gthrd_c + h_c --&gt; M00724_c</t>
-  </si>
-  <si>
-    <t>HMR_7042: M01407_c + h2o_c --&gt; M01406_c</t>
-  </si>
-  <si>
-    <t>HMR_7044: M00974_c + h_c + nadph_c + o2_c --&gt; M00975_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7050: M01405_c + gthrd_c + h_c --&gt; M00571_c</t>
-  </si>
-  <si>
-    <t>HMR_7051: M01405_c + h2o_c --&gt; M01404_c</t>
-  </si>
-  <si>
-    <t>HMR_7057: M01196_c + paps_c --&gt; M01195_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7058: M01173_c + h2o_c --&gt; M03038_c</t>
-  </si>
-  <si>
-    <t>HMR_7061: M00932_c + h_c + nadph_c + o2_c --&gt; M00992_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7060: M00932_c + h_c + nadph_c + o2_c --&gt; M00951_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7065: M00929_c + udpglcur_c --&gt; M00928_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7066: M00929_c + udpglcur_c --&gt; M02607_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_7078: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00546_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7079: M00546_c + gthrd_c + h_c --&gt; M00542_c</t>
-  </si>
-  <si>
-    <t>HMR_7080: M00546_c + gthrd_c + h_c --&gt; M00541_c</t>
-  </si>
-  <si>
-    <t>HMR_7081: M00546_c + h2o_c --&gt; M00540_c</t>
-  </si>
-  <si>
-    <t>HMR_7083: M00547_c + gthrd_c + h_c --&gt; M00544_c</t>
-  </si>
-  <si>
-    <t>HMR_7084: M00547_c + gthrd_c + h_c --&gt; M00543_c</t>
+    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
+  </si>
+  <si>
+    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
+  </si>
+  <si>
+    <t>HMR_7092: M00227_c + gthrd_c --&gt; M00565_c + M02144_c</t>
   </si>
   <si>
     <t>HMR_7096: M00228_c + h_c + nadph_c + o2_c --&gt; M01444_c + h2o_c + nadp_c</t>
   </si>
   <si>
-    <t>HMR_7089: M00568_c + gthrd_c + h_c --&gt; M02853_c</t>
-  </si>
-  <si>
-    <t>HMR_7093: M00565_c + gthrd_c --&gt; M00566_c + M02144_c</t>
-  </si>
-  <si>
-    <t>HMR_7097: M01444_c + gthrd_c --&gt; M02144_c + M02854_c</t>
-  </si>
-  <si>
-    <t>HMR_7099: M00242_c + nadph_c + o2_c --&gt; M00636_c + M02143_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7100: M00636_c + gthrd_c --&gt; M02143_c + M02861_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>3OHSUBACte: 3ohsubac_c --&gt; 3ohsubac_e</t>
-  </si>
-  <si>
-    <t>ACOATE120m: ddcacoa_m + h2o_m --&gt; coa_m + ddca_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE120p: ddcacoa_x + h2o_x --&gt; coa_x + ddca_x + h_x</t>
-  </si>
-  <si>
-    <t>ACOATE140m: h2o_m + tdcoa_m --&gt; coa_m + h_m + ttdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE160m: h2o_m + pmtcoa_m --&gt; coa_m + h_m + hdca_m</t>
-  </si>
-  <si>
-    <t>ACOATE1811m: h2o_m + vacccoa_m --&gt; coa_m + h_m + vacc_m</t>
-  </si>
-  <si>
-    <t>ACOATE1812m: h2o_m + od2coa_m --&gt; coa_m + elaid_m + h_m</t>
-  </si>
-  <si>
-    <t>ACOATE1831m: h2o_m + lnlncgcoa_m --&gt; coa_m + h_m + lnlncg_m</t>
-  </si>
-  <si>
-    <t>ACOATE1832m: h2o_m + lnlncacoa_m --&gt; coa_m + h_m + lnlnca_m</t>
-  </si>
-  <si>
-    <t>ACOATE184m: h2o_m + strdnccoa_m --&gt; coa_m + h_m + strdnc_m</t>
-  </si>
-  <si>
-    <t>ACOATE203: eicostricoa_c + h2o_c --&gt; coa_c + eicostri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE223: docastricoa_c + h2o_c --&gt; coa_c + docastri_c + h_c</t>
-  </si>
-  <si>
-    <t>ACOATE226m: c226coa_m + h2o_m --&gt; coa_m + crvnc_m + h_m</t>
-  </si>
-  <si>
-    <t>C12DCACOT: c12dccoa_x + h2o_x --&gt; coa_x + dodecanac_x + h_x</t>
-  </si>
-  <si>
-    <t>C141OHe: 3tetd7ecoacrn_c --&gt; 3tetd7ecoacrn_e</t>
-  </si>
-  <si>
-    <t>C81CRN2tm: c81_c184crn_c --&gt; c81_c184crn_m</t>
-  </si>
-  <si>
-    <t>C81CRN2tx: c81_c184crn_x --&gt; c81_c184crn_c</t>
-  </si>
-  <si>
-    <t>EAR140ym: h_m + nadph_m + tmrs2eACP_m --&gt; myrsACP_m + nadp_m</t>
-  </si>
-  <si>
-    <t>EIC21114TRc: CE4842_c + h2o_c --&gt; coa_c + eic21114tr_c + h_c</t>
-  </si>
-  <si>
-    <t>FA141ACPH: h2o_c + tdeACP_c --&gt; ACP_c + h_c + ttdcea_c</t>
-  </si>
-  <si>
-    <t>FA161ACPH: h2o_c + hdeACP_c --&gt; ACP_c + h_c + hdcea_c</t>
-  </si>
-  <si>
-    <t>FA181ACPH: h2o_c + octeACP_c --&gt; ACP_c + h_c + ocdcea_c</t>
-  </si>
-  <si>
-    <t>FA1821ACPH: h2o_c + lnlcACP_c --&gt; ACP_c + h_c + lnlc_c</t>
-  </si>
-  <si>
-    <t>FA1822ACPH: h2o_c + lneldcACP_c --&gt; ACP_c + h_c + lneldc_c</t>
-  </si>
-  <si>
-    <t>FACOAL1811x: atp_x + coa_x + vacc_x --&gt; amp_x + ppi_x + vacccoa_x</t>
-  </si>
-  <si>
-    <t>FACOAL1822x: atp_x + coa_x + lneldc_x --&gt; amp_x + lneldccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2042x: atp_x + coa_x + eicostet_x --&gt; amp_x + eicostetcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>RE3488X: o2_x + tmndnc_x --&gt; CE7091_x</t>
-  </si>
-  <si>
-    <t>FACOAL2251x: atp_x + coa_x + dcsptn1_x --&gt; amp_x + dcsptn1coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL2252x: atp_x + clpnd_x + coa_x --&gt; amp_x + clpndcoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL226x: atp_x + coa_x + crvnc_x --&gt; amp_x + c226coa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FACOAL244_1x: atp_x + coa_x + tettet6_x --&gt; amp_x + ppi_x + tettet6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_1x: atp_x + coa_x + tetpent6_x --&gt; amp_x + ppi_x + tetpent6coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL245_2x: atp_x + coa_x + tetpent3_x --&gt; amp_x + ppi_x + tetpent3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL246_1x: atp_x + coa_x + tethex3_x --&gt; amp_x + ppi_x + tethex3coa_x</t>
-  </si>
-  <si>
-    <t>FACOAL260x: atp_x + coa_x + hexc_x --&gt; amp_x + hexccoa_x + ppi_x</t>
-  </si>
-  <si>
-    <t>FAOXC130110m: c130coa_m + coa_m + fad_m + h2o_m + nad_m --&gt; accoa_m + c110coa_m + fadh2_m + h_m + nadh_m</t>
-  </si>
-  <si>
-    <t>FAOXC16DCr: atp_r + coa_r + hexdiac_r --&gt; amp_r + hexdicoa_r + ppi_r</t>
-  </si>
-  <si>
-    <t>FAOXC16OHC16r: hdca_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + whhdca_r</t>
-  </si>
-  <si>
-    <t>FAOXC204C205x: eitetcoa_x + o2_x --&gt; eipencoa_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>FAOXC225x: 3docopencoa_x --&gt; 2docopencoa_x</t>
-  </si>
-  <si>
-    <t>FAOXC22C22DCHYr: docosac_r + 2.0 h_r + 3.0 nadph_r + 3.0 o2_r --&gt; docosdiac_r + 4.0 h2o_r + 3.0 nadp_r</t>
-  </si>
-  <si>
-    <t>FAOXC22OHC22r: docosac_r + nadph_r + o2_r --&gt; h2o_r + nadp_r + omhdocosac_r</t>
-  </si>
-  <si>
-    <t>FAOXOHC16C16DCc: h2o_c + 2.0 nad_c + whhdca_c --&gt; 2.0 h_c + hexdiac_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>FAOXOHC22C22DCc: h2o_c + 2.0 nad_c + omhdocosac_c --&gt; docosdiac_c + 2.0 h_c + 2.0 nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_0931: arachd_c + h_c + nadph_c + o2_c --&gt; CE7231_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0932: arachd_c + h_c + nadph_c + o2_c --&gt; M01213_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0933: arachd_c + h_c + nadph_c + o2_c --&gt; M01239_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0935: arachd_c + h_c + nadph_c + o2_c --&gt; M00297_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0936: arachd_c + h_c + nadph_c + o2_c --&gt; CE7228_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0937: arachd_c + h_c + nadph_c + o2_c --&gt; M00396_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0938: arachd_c + h_c + nadph_c + o2_c --&gt; M00414_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0939: arachd_c + h_c + nadph_c + o2_c --&gt; M00426_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0940: arachd_c + h_c + nadph_c + o2_c --&gt; M00430_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_0945: C14768_c + h2o_c --&gt; M01051_c</t>
-  </si>
-  <si>
-    <t>HMR_0949: C14769_c + h2o_c --&gt; M01208_c</t>
-  </si>
-  <si>
-    <t>HMR_0953: C14770_c + h2o_c --&gt; M00277_c</t>
-  </si>
-  <si>
-    <t>HMR_0957: C14771_c + h2o_c --&gt; M00364_c</t>
-  </si>
-  <si>
-    <t>HMR_0963: 5HPET_m + 2.0 gthrd_m --&gt; C04805_m + gthox_m + h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_0985: arachd_n + o2_n --&gt; 15HPET_n</t>
-  </si>
-  <si>
-    <t>HMR_1039: 12HPET_r + 2.0 gthrd_r --&gt; CE0347_r + gthox_r + h2o_r</t>
-  </si>
-  <si>
-    <t>HMR_1063: M01203_c + 2.0 gthrd_c --&gt; M01202_c + gthox_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1064: arachd_c + o2_c --&gt; M00005_c</t>
-  </si>
-  <si>
-    <t>HMR_1067: CE2726_c + atp_c + coa_c + 2.0 h2o_c + nad_c + o2_c --&gt; CE2727_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1070: CE2728_c + atp_c + coa_c + 2.0 h2o_c + h_c + nad_c + o2_c --&gt; CE2729_c + accoa_c + amp_c + h2o2_c + nadh_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1073: CE0347_c + 2.0 h_c + o2_c --&gt; CE2449_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_1079: arachd_c + glyc_c + 4.0 h_c --&gt; CE4922_c + 2.0 h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2561: CE7081_c + o2_c --&gt; CE7109_c + h2o_c</t>
-  </si>
-  <si>
-    <t>HMR_2578: CE7081_x + o2_x --&gt; CE7109_x + h2o_x</t>
-  </si>
-  <si>
-    <t>HMR_2582: h_n + nadph_n + 2.0 o2_n + tmndnc_n --&gt; CE7088_n + h2o_n + nadp_n</t>
-  </si>
-  <si>
-    <t>RE2048N: CE2565_n + o2_n --&gt; CE2566_n + h2o_n</t>
-  </si>
-  <si>
-    <t>HMR_3475: accoa_x + h2o_x --&gt; ac_x + coa_x + h_x</t>
-  </si>
-  <si>
-    <t>RE0573N: docoscoa_n + h_n + malcoa_n --&gt; CE2253_n + co2_n + coa_n</t>
-  </si>
-  <si>
-    <t>RE0580L: h_l + malcoa_l + pmtcoa_l --&gt; 3ohodcoa_l + co2_l + coa_l</t>
-  </si>
-  <si>
-    <t>RE3286R: arachd_r + fadh2_r + o2_r --&gt; C14768_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3287R: arachd_r + fadh2_r + o2_r --&gt; C14770_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3288R: arachd_r + fadh2_r + o2_r --&gt; C14769_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3289R: arachd_r + fadh2_r + o2_r --&gt; C14771_r + fad_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3474C: C04805_c + h_c + nadph_c + o2_c --&gt; CE5815_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3474R: C04805_r + h_r + nadph_r + o2_r --&gt; CE5815_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3475N: 2.0 C04805_n + o2_n --&gt; 2.0 CE7096_n</t>
-  </si>
-  <si>
-    <t>RE3513N: 2.0 CE0347_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3525N: 2.0 C04805_n + o2_n --&gt; 2.0 leuktrB4_n</t>
-  </si>
-  <si>
-    <t>RE3514R: h_r + leuktrB4_r + nadph_r + o2_r --&gt; CE6247_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3518C: C04849_c + h_c + nadph_c + o2_c --&gt; CE6248_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3518R: C04849_r + h_r + nadph_r + o2_r --&gt; CE6248_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3522C: CE0347_c + h_c + nadph_c + o2_c --&gt; CE6251_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3522R: CE0347_r + h_r + nadph_r + o2_r --&gt; CE6251_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3624X: CE4794_x + o2_x --&gt; C05279_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>ALOX12R: arachd_c + o2_c --&gt; 12RHPET_c</t>
-  </si>
-  <si>
-    <t>CBR1: h_c + nadph_c + prostg1_c --&gt; nadp_c + prostge1_c</t>
-  </si>
-  <si>
-    <t>P4504F81r: arachd_r + h_r + nadph_r + o2_r --&gt; 18harachd_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2050C: C13856_c + o2_c --&gt; CE5700_c</t>
-  </si>
-  <si>
-    <t>RE2050R: C13856_r + o2_r --&gt; CE5700_r</t>
-  </si>
-  <si>
-    <t>RE3015C: CE2056_c + h_c + nadph_c + o2_c --&gt; CE3554_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3020R: CE5139_r + h_r + nadph_r + o2_r --&gt; CE5140_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3435R: CE5945_r + h_r + nadph_r + o2_r --&gt; CE5946_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3485N: o2_n + tmndnc_n --&gt; CE6508_n</t>
-  </si>
-  <si>
-    <t>RE3488C: o2_c + tmndnc_c --&gt; CE7091_c</t>
-  </si>
-  <si>
-    <t>RE3488N: o2_n + tmndnc_n --&gt; CE7091_n</t>
-  </si>
-  <si>
-    <t>RE3488R: o2_r + tmndnc_r --&gt; CE7091_r</t>
-  </si>
-  <si>
-    <t>RE3498N: CE7081_n + o2_n --&gt; CE7109_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3498R: CE7081_r + o2_r --&gt; CE7109_r + h2o_r</t>
-  </si>
-  <si>
-    <t>RE3503N: CE7090_n + o2_n --&gt; CE7110_n + h2o_n</t>
-  </si>
-  <si>
-    <t>RE3506C: CE7083_c + h_c + nadph_c + o2_c --&gt; CE7115_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3506R: CE7083_r + h_r + nadph_r + o2_r --&gt; CE7115_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3571C: CE2516_c + 2.0 o2_c --&gt; CE6232_c</t>
-  </si>
-  <si>
-    <t>RE3571R: CE2516_r + 2.0 o2_r --&gt; CE6232_r</t>
-  </si>
-  <si>
-    <t>HMR_1302: CE6195_x + h2o_x --&gt; CE6197_x + coa_x</t>
-  </si>
-  <si>
-    <t>KDNH: h2o_c + kdnp_c --&gt; kdn_c + pi_c</t>
-  </si>
-  <si>
-    <t>GLCAT6g: hs_pre1_g + udpglcur_g --&gt; h_g + hs_pre2_g + udp_g</t>
-  </si>
-  <si>
-    <t>GLCAT7g: hs_pre3_g + udpglcur_g --&gt; h_g + hs_pre4_g + udp_g</t>
-  </si>
-  <si>
-    <t>HMR_4318: atp_c + fru_c --&gt; CE3074_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0864C: CE1787_c + atp_c --&gt; CE2846_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE0875C: CE2847_c + atp_c --&gt; CE2848_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1508C: atp_c + man1p_c --&gt; C03693_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2782C: atp_c + sbt_D_c --&gt; CE3075_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_8585: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c</t>
-  </si>
-  <si>
-    <t>HMR_5395: ggn_c + 8.0 udpg_c --&gt; M01995_c + 8.0 udp_c</t>
-  </si>
-  <si>
-    <t>HMR_9727: udpg_c --&gt; M03161_c + udp_c</t>
-  </si>
-  <si>
-    <t>ADPGLC: adpglc_c + h2o_c --&gt; amp_c + g1p_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>ADPMAN: adpman_c + h2o_c --&gt; amp_c + 2.0 h_c + man1p_c</t>
-  </si>
-  <si>
-    <t>ADPRDPm: adprib_m + h2o_m --&gt; amp_m + 2.0 h_m + r5p_m</t>
-  </si>
-  <si>
-    <t>ADSKn: aps_n + atp_n --&gt; adp_n + h_n + paps_n</t>
-  </si>
-  <si>
-    <t>AP4AH1: ap4a_c + h2o_c --&gt; amp_c + atp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>DADNKn: atp_n + dad_2_n --&gt; adp_n + damp_n + h_n</t>
-  </si>
-  <si>
-    <t>DATPDPm: datp_m + h2o_m --&gt; damp_m + h_m + ppi_m</t>
-  </si>
-  <si>
-    <t>DNTP: apppa_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>NTPP11: h2o_c + xtp_c --&gt; h_c + ppi_c + xmp_c</t>
-  </si>
-  <si>
-    <t>TDPDRR: dtdp4d6dm_c + h_c + nadph_c --&gt; dtdprmn_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2235R: estrone_r + h_r + nadph_r + o2_r --&gt; C05300_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE3013R: estradiol_r + h_r + nadph_r + o2_r --&gt; C05301_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1931: 4mptnl_c + h_c + nadph_c --&gt; M01014_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1933: 20ahchsterol_r + h_r + nadph_r + o2_r --&gt; M00405_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>HMR_1934: M00405_m + 4.0 adxrd_m + 4.0 h_m + 2.0 o2_m --&gt; 17ahprgnlone_m + 4mptnl_m + 4.0 adxo_2_2_m + 3.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1943: h_c + nadph_c + o2_c + prgnlone_c --&gt; M01184_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1996: crtsl_c + nadp_c --&gt; cortsn_c + h_c + nadph_c</t>
-  </si>
-  <si>
-    <t>HMR_6794: 3ityr_L_c + iodine_c --&gt; 35diotyr_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1096M: 17ahprgstrn_m + nadph_m + o2_m --&gt; ac_m + andrstndn_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE1134M: 17ahprgnlone_m + nadph_m + o2_m --&gt; ac_m + dhea_m + h2o_m + nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768C: crtsl_c + h_c + 2.0 nadph_c + o2_c --&gt; C05284_c + ac_c + 2.0 h2o_c + 2.0 nadp_c</t>
-  </si>
-  <si>
-    <t>RE2768M: crtsl_m + h_m + 2.0 nadph_m + o2_m --&gt; C05284_m + ac_m + 2.0 h2o_m + 2.0 nadp_m</t>
-  </si>
-  <si>
-    <t>RE2768R: crtsl_r + h_r + nadph_r --&gt; C05284_r + acald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>GPDDACHOL: g3pc_c + h2o_c --&gt; chol_c + glyc2p_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0002: M02956_e + h2o_e --&gt; M00234_e + M01807_e</t>
-  </si>
-  <si>
-    <t>HMR_0468: HC02085_c + cdpchol_c --&gt; HC02080_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0581: HC02093_m + ctp_m + h_m --&gt; HC02094_m + ppi_m</t>
-  </si>
-  <si>
-    <t>HMR_0582: cdpdag_cho_m + glyc3p_m --&gt; cmp_m + h_m + pgp_cho_m</t>
-  </si>
-  <si>
-    <t>HMR_0586: cdpdag_cho_m + pglyc_cho_m --&gt; clpn_cho_m + cmp_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0605: HC02061_c + dag_cho_c --&gt; M02958_c + coa_c</t>
-  </si>
-  <si>
-    <t>HMR_0613: cdpdag_cho_r + inost_r --&gt; cmp_r + h_r + pail_cho_r</t>
-  </si>
-  <si>
-    <t>HMR_0706: M00550_x + M02114_x --&gt; M02017_x + h_x + hdca_x</t>
-  </si>
-  <si>
-    <t>HMR_0708: M02017_c + h_c + nadph_c --&gt; M00532_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7594: M02114_x + adhap_cho_x --&gt; akgp_cho_x + hdca_x</t>
-  </si>
-  <si>
     <t>HMR_7602: M00223_c + Rtotalcoa_c --&gt; coa_c + dak2gpe_cho_c</t>
   </si>
   <si>
-    <t>HMR_7605: dak2gpe_cho_c + h2o_c --&gt; M00627_c + etha_c</t>
-  </si>
-  <si>
-    <t>HMR_7606: M00223_c + h2o_c --&gt; M00224_c + ethamp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7607: M00223_c + h2o_c + h_c --&gt; M00222_c + etha_c</t>
-  </si>
-  <si>
-    <t>PLA2l: h2o_l + pchol_cho_l --&gt; Rtotal2_l + h_l + lpchol_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_8211: crm_cho_l + h2o_l + h_l --&gt; Rtotal2_l + sphings_l</t>
-  </si>
-  <si>
-    <t>PLA2r: h2o_r + pchol_cho_r --&gt; Rtotal2_r + lpchol_cho_r</t>
-  </si>
-  <si>
-    <t>RE0066M: C01241_m + amet_m --&gt; C04308_m + ahcys_m + 2.0 h_m</t>
-  </si>
-  <si>
-    <t>RE0066R: C01241_r + amet_r --&gt; C04308_r + ahcys_r + 2.0 h_r</t>
-  </si>
-  <si>
-    <t>RE2977C: akgp_cho_c + h_c + nadph_c --&gt; C03968_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3267G: 12dgr120_g + cdpea_g --&gt; cmp_g + h_g + pe_cho_g</t>
-  </si>
-  <si>
-    <t>RE3267N: 12dgr120_n + cdpea_n --&gt; cmp_n + h_n + pe_cho_n</t>
-  </si>
-  <si>
-    <t>RE3267R: 12dgr120_r + cdpea_r --&gt; cmp_r + h_r + pe_cho_r</t>
-  </si>
-  <si>
-    <t>AGMO: ak2g_cho_c + o2_c + thbpt_c --&gt; dhbpt_c + h2o_c + oak2g_cho_c</t>
-  </si>
-  <si>
-    <t>BGAL2l: ga1_cho_l + h2o_l --&gt; ga2_cho_l + gal_l</t>
-  </si>
-  <si>
-    <t>LPS3m: h2o_m + mag_cho_m --&gt; Rtotal2_m + glyc_m + h_m</t>
-  </si>
-  <si>
-    <t>HMR_0792: galside_cho_l + paps_l --&gt; pap_l + sgalside_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0812: cmpacna_c + galgbside_cho_c --&gt; M02491_c + cmp_c</t>
-  </si>
-  <si>
-    <t>HMR_0813: galgbside_cho_c + gdpfuc_c --&gt; M01958_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0814: M02491_c + udpacgal_c --&gt; M03131_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0834: M03160_l + h2o_l --&gt; acnam_l + galside_cho_l + h_l</t>
-  </si>
-  <si>
-    <t>HMR_0840: cmpacna_c + gd1a_cho_c --&gt; cmp_c + gt1alpha_cho_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0857: gt2_cho_c + udpgal_c --&gt; gt1c_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0862: M00808_c + gdpfuc_c --&gt; M01849_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0863: galacglcgalgluside_cho_c + gdpfuc_c --&gt; M01860_c + gdp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0866: acngalacglcgalgluside_cho_c + gdpfuc_c --&gt; galfucgalacglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0871: M02195_c + gdpfuc_c --&gt; M02194_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0880: M02592_c + gdpfuc_c --&gt; M03094_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0882: M02196_c + gdpfuc_c --&gt; M02162_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0884: M02196_c + udpacgal_c --&gt; M03093_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0886: galacgalfuc12gal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfuc12gal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0888: M02683_c + gdpfuc_c --&gt; M02163_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0891: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglc13galacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0893: galacglc13galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacglc13galacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0897: fuc132galacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; M03132_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0902: fucgalacglcgal14acglcgalgluside_cho_c + udpacgal_c --&gt; acgalfucgalacglcgal14acglcgalgluside_cho_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0904: galacgalfucgalacglcgal14acglcgalgluside_cho_c + gdpfuc_c --&gt; fucgalacgalfucgalacglcgal14acglcgalgluside_cho_c + gdp_c</t>
-  </si>
-  <si>
-    <t>HMR_0906: galacglcgal14acglcgalgluside_cho_c + uacgam_c --&gt; acglcgalacglcgal14acglcgalgluside_cho_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>HMR_0908: M02186_c + gdpfuc_c --&gt; M02490_c + gdp_c</t>
-  </si>
-  <si>
-    <t>RE2718C: C01747_c + paps_c --&gt; C02744_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2718G: C01747_g + paps_g --&gt; C02744_g + h_g + pap_g</t>
-  </si>
-  <si>
-    <t>RE2722C: galgluside_cho_c + paps_c --&gt; C03405_c + pap_c</t>
-  </si>
-  <si>
-    <t>RE2722G: galgluside_cho_g + paps_g --&gt; C03405_g + pap_g</t>
-  </si>
-  <si>
-    <t>H8MTer: dolmanp_r + gpi_cho_r --&gt; dolp_r + h_r + m_em_3gacpail_r</t>
-  </si>
-  <si>
-    <t>RE1539C: N1sprm_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + spmd_c</t>
-  </si>
-  <si>
-    <t>RN0002N: 5mthf_n + selhcys_n --&gt; h_n + selmeth_n + thf_n</t>
-  </si>
-  <si>
-    <t>RN0002R: 5mthf_r + selhcys_r --&gt; h_r + selmeth_r + thf_r</t>
-  </si>
-  <si>
-    <t>CARNMT: amet_c + carn_c --&gt; ahcys_c + anser_c + h_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXR: 2.0 ficytb5_c + nadh_c --&gt; 2.0 focytb5_c + h_c + nad_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRm: 2.0 ficytb5_m + nadh_m --&gt; 2.0 focytb5_m + h_m + nad_m</t>
-  </si>
-  <si>
-    <t>HMR_8643: coke_c + h2o_c --&gt; bz_c + egme_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9464: M01678_c + h2o_c --&gt; M01677_c + glc_D_c</t>
-  </si>
-  <si>
-    <t>HMR_9484: M02671_c + h2o_c --&gt; gmp_c + gtp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9485: M01437_c + h2o_c --&gt; M01436_c + acgam_c</t>
-  </si>
-  <si>
-    <t>HMR_9488: 2.0 M00193_c + 4.0 atp_c --&gt; M00192_c + 4.0 adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9490: M03104_c + h2o_c --&gt; HC00250_c + M03105_c</t>
-  </si>
-  <si>
-    <t>HMR_6975: amet_c + peplys_c --&gt; M00213_c + ahcys_c</t>
-  </si>
-  <si>
-    <t>HMR_9491: M03105_c + atp_c + peplys_c --&gt; M00214_c + amp_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_9493: M00190_c + atp_c + h_c --&gt; M00191_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9496: M00201_c + M01310_c --&gt; M00207_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9497: M01360_c + h2o_c --&gt; adp_c + amp_c + 2.0 h_c</t>
-  </si>
-  <si>
-    <t>HMR_9499: M02918_c + h2o_c --&gt; M00200_c + hdca_c</t>
-  </si>
-  <si>
-    <t>HMR_9502: M02669_c + h2o_c --&gt; CE5799_c + CE5800_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9503: atp_c + retinal_11_cis_c --&gt; M02743_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9506: M00915_c + h2o_c --&gt; M02755_c + 2.0 h_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9507: M01129_c + h2o_c --&gt; M02755_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9513: dmlarg_c + h2o_c --&gt; citr_L_c + dma_c</t>
-  </si>
-  <si>
-    <t>HMR_9514: M03053_c + nadph_c + o2_c --&gt; M03054_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_9515: M02545_c + h2o_c --&gt; ac_c + acnam_c</t>
-  </si>
-  <si>
-    <t>HMR_9528: M00187_c + atp_c + h_c --&gt; M02737_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9529: M02542_c + h2o_c --&gt; M02541_c + ala_L_c</t>
-  </si>
-  <si>
-    <t>HMR_9530: M02513_c + h2o_c --&gt; M02521_c + asp_L_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9531: M01018_c + h2o_c --&gt; M02521_c + M02702_c</t>
-  </si>
-  <si>
-    <t>HMR_9532: M02702_c + akg_c + o2_c --&gt; M02701_c + co2_c + succ_c</t>
-  </si>
-  <si>
-    <t>HMR_9534: M00155_c + h2o_c --&gt; ind3ac_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9543: M02375_c + h_c --&gt; M01128_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9545: M02708_c + h2o_c + h_c + o2_c --&gt; M02705_c + h2o2_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HMR_9551: M01838_c + h2o_c --&gt; M02472_c + for_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_9552: M01710_c + h2o_c --&gt; M02493_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_9554: M00683_c + 2.0 h2o_c --&gt; M00774_c + 2.0 Rtotal2_c</t>
-  </si>
-  <si>
-    <t>HMR_9575: M01114_c + selhcys_c --&gt; M02979_c + selmeth_c</t>
-  </si>
-  <si>
-    <t>HMR_9579: M02801_c + atp_c --&gt; M02656_c + adp_c</t>
-  </si>
-  <si>
-    <t>HMR_9806: M03169_c + gthrd_c --&gt; M03170_c + gthox_c</t>
-  </si>
-  <si>
-    <t>INDOXYLF: h2o_c + indole_c + nadp_c --&gt; 2.0 h_c + indoxyl_c + nadph_c</t>
-  </si>
-  <si>
-    <t>LIPB: ApoACP_m + lipACP_m --&gt; ACP_m + CE2102_m</t>
-  </si>
-  <si>
-    <t>LIPS: 2.0 amet_m + ocACP_m + 2.0 so3_m --&gt; 2.0 dad_5_m + lipACP_m + 2.0 met_L_m</t>
-  </si>
-  <si>
-    <t>PCSF: paps_c + pcresol_c --&gt; pap_c + pcs_c</t>
-  </si>
-  <si>
-    <t>r0598: fuc_L_c --&gt; HC00832_c</t>
-  </si>
-  <si>
-    <t>r0611: HC00664_c + itp_c --&gt; HC01180_c + h_c + idp_c</t>
-  </si>
-  <si>
-    <t>r0800: 7.0 amet_c + 2.0 h2o_c --&gt; 6.0 HC01797_c + 7.0 ahcys_c + co2_c + 7.0 h_c</t>
-  </si>
-  <si>
-    <t>r1173: HC02020_l + h2o_l --&gt; chsterol_l + h_l + hdca_l</t>
-  </si>
-  <si>
-    <t>r1176: HC02022_l + h2o_l --&gt; chsterol_l + h_l + ocdca_l</t>
-  </si>
-  <si>
-    <t>r1178: HC02023_l + h2o_l --&gt; chsterol_l + h_l + ocdcea_l</t>
-  </si>
-  <si>
-    <t>r1319: atp_c + h2o_c --&gt; HC02111_c + adp_c + pi_c</t>
-  </si>
-  <si>
-    <t>r1320: atp_m + h2o_m --&gt; HC02111_m + adp_m + pi_m</t>
-  </si>
-  <si>
-    <t>RE1050C: 2.0 CE1950_c + 3.0 h2o2_c --&gt; 2.0 cynt_c + 2.0 h2o_c + 6.0 h_c + 2.0 so3_c</t>
-  </si>
-  <si>
-    <t>RE1050L: 2.0 CE1950_l + 3.0 h2o2_l --&gt; 2.0 cynt_l + 2.0 h2o_l + 6.0 h_l + 2.0 so3_l</t>
-  </si>
-  <si>
-    <t>RE1050N: 2.0 CE1950_n + 3.0 h2o2_n --&gt; 2.0 cynt_n + 2.0 h2o_n + 6.0 h_n + 2.0 so3_n</t>
-  </si>
-  <si>
-    <t>RE2127C: amet_c + bgly_c --&gt; CE2934_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>RE2155R: CE2211_r + h_r + nadh_r + o2_r --&gt; CE5072_r + h2o_r + nad_r</t>
-  </si>
-  <si>
-    <t>RE2221C: CE1297_c + h_c + nadh_c + o2_c --&gt; CE1294_c + h2o_c + nad_c</t>
-  </si>
-  <si>
-    <t>RE2221M: CE1297_m + h_m + nadh_m + o2_m --&gt; CE1294_m + h2o_m + nad_m</t>
-  </si>
-  <si>
-    <t>RE2474C: C06948_c + h_c + nadph_c + o2_c --&gt; C07486_c + fald_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE2474R: C06948_r + h_r + nadph_r + o2_r --&gt; C07486_r + fald_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2622C: CE2615_c + udpglcur_c --&gt; CE2616_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE2622R: CE2615_r + udpglcur_r --&gt; CE2616_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>LAPCOAl: coa_l + h2o_l --&gt; dpcoa_l + pi_l</t>
-  </si>
-  <si>
-    <t>PNTKm: atp_m + pnto_R_m --&gt; 4ppan_m + adp_m + h_m</t>
-  </si>
-  <si>
-    <t>PYLALDOX: h2o_c + nad_c + pylald_c --&gt; 2.0 h_c + nadh_c + peracd_c</t>
-  </si>
-  <si>
-    <t>PYLALDOXm: h2o_m + nad_m + pylald_m --&gt; 2.0 h_m + nadh_m + peracd_m</t>
-  </si>
-  <si>
-    <t>HMR_2441: C04717_c + 2.0 h_c + nadph_c --&gt; M00336_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE3260C: CE2049_c + udpglcur_c --&gt; CE2305_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3260R: CE2049_r + udpglcur_r --&gt; CE2305_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3261C: CE2047_c + udpglcur_c --&gt; CE2303_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3261R: CE2047_r + udpglcur_r --&gt; CE2303_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3264C: CE2049_c + udpglcur_c --&gt; CE2306_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3264R: CE2049_r + udpglcur_r --&gt; CE2306_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3265C: CE2047_c + udpglcur_c --&gt; CE2304_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE3265R: CE2047_r + udpglcur_r --&gt; CE2304_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE3409C: lnlc_c + o2_c --&gt; CE6415_c</t>
-  </si>
-  <si>
-    <t>HMR_6400: 2.0 amet_c + 2.0 h_c + ocACP_c + 2.0 paps_c --&gt; 2.0 dad_5_c + lipACP_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>HMR_7677: 1mncam_c + h2o_c + o2_c --&gt; M02506_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7678: 1mncam_c + h2o_c + o2_c --&gt; M02505_c + h2o2_c + h_c</t>
-  </si>
-  <si>
-    <t>NMNSn: h_n + ncam_n + prpp_n --&gt; nmn_n + ppi_n</t>
-  </si>
-  <si>
-    <t>NT5C: h2o_c + nicrnt_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HMR_6601: alltt_c + h2o_c --&gt; M03122_c + urea_c</t>
-  </si>
-  <si>
-    <t>NTD6l: damp_l + h2o_l --&gt; dad_2_l + pi_l</t>
-  </si>
-  <si>
-    <t>NTD4l: cmp_l + h2o_l --&gt; cytd_l + pi_l</t>
-  </si>
-  <si>
-    <t>GLYOXm: h2o_m + lgt_S_m --&gt; gthrd_m + h_m + lac_D_m</t>
-  </si>
-  <si>
-    <t>LCADi_Dm: h2o_m + lald_D_m + nad_m --&gt; 2.0 h_m + lac_D_m + nadh_m</t>
-  </si>
-  <si>
-    <t>LCADim: h2o_m + lald_L_m + nad_m --&gt; 2.0 h_m + lac_L_m + nadh_m</t>
-  </si>
-  <si>
-    <t>HMR_7168: M00194_c + amet_c --&gt; M00195_c + ahcys_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7170: M01805_c + h2o_c + o2_c --&gt; M00677_c + cys_L_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>AMACR2r: dhcholestancoa_r + 0.5 o2_r --&gt; dhcholoylcoa_r + h2o_r</t>
-  </si>
-  <si>
-    <t>AMACRr: cholcoar_r --&gt; cholcoas_r</t>
-  </si>
-  <si>
-    <t>BAAT3x: dgcholcoa_x + gly_x --&gt; coa_x + dgchol_x + h_x</t>
-  </si>
-  <si>
-    <t>CA24GSr: cholate_r + udpglcur_r --&gt; ca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA24GSr: C02528_r + udpglcur_r --&gt; cdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>CDCA3GSr: C02528_r + udpglcur_r --&gt; cdca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA24GSr: dchac_r + udpglcur_r --&gt; dca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>DCA3GSr: dchac_r + udpglcur_r --&gt; dca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>GDCASULT: M01989_c + paps_c --&gt; gdca3s_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>HC02196c: gly_c + urscholcoa_c --&gt; HC02196_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>HCA6GSr: hyochol_r + udpglcur_r --&gt; hca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HCA24GSr: hyochol_r + udpglcur_r --&gt; hca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA24GSr: M02155_r + udpglcur_r --&gt; h_r + hdca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HDCA6GSr: M02155_r + udpglcur_r --&gt; h_r + hdca6g_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_1742: M01081_c + h_c + nadph_c --&gt; M01077_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1743: M01081_c + h_c + nadph_c --&gt; M01080_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_1746: M01077_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01076_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1747: M01080_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M01079_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1750: M00746_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M02977_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1751: M00753_m + 6.0 adxrd_m + 5.0 h_m + 3.0 o2_m --&gt; M00742_m + 6.0 adxo_2_2_m + 4.0 h2o_m</t>
-  </si>
-  <si>
-    <t>HMR_1754: M02977_c + atp_c + coa_c --&gt; M00615_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1756: M00742_c + atp_c + coa_c + h_c + oh1_c --&gt; M00743_c + amp_c + h2o_c + ppi_c</t>
-  </si>
-  <si>
-    <t>HMR_1760: M00615_x --&gt; HC01459_x</t>
-  </si>
-  <si>
-    <t>HMR_1761: M00743_x --&gt; thcholoylcoa_x</t>
-  </si>
-  <si>
-    <t>LCA24GSr: HC02191_r + udpglcur_r --&gt; lca24g_r + udp_r</t>
-  </si>
-  <si>
-    <t>LCA3GSr: HC02191_r + udpglcur_r --&gt; lca3g_r + udp_r</t>
-  </si>
-  <si>
-    <t>RE1809C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1277_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1809R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1277_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1811C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1279_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1811R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1279_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE1812C: CE1272_c + h_c + nadph_c + o2_c --&gt; CE1278_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1812R: CE1272_r + h_r + nadph_r + o2_r --&gt; CE1278_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>RE2637X: HC02191_x + atp_x + taur_x --&gt; HC02192_x + amp_x + h_x + ppi_x</t>
-  </si>
-  <si>
-    <t>GPIDA2er: em2emgacpail_prot_cho_r + h2o_r --&gt; dem2emgacpail_prot_cho_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>GPIDAer: gpi_prot_cho_r + h2o_r --&gt; dgpi_prot_cho_r + h_r + hdca_r</t>
+    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
+  </si>
+  <si>
+    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
   </si>
   <si>
     <t>H7_TAer: em2emgacpail_cho_r + pre_prot_r --&gt; em2emgacpail_prot_cho_r + gpi_sig_r</t>
   </si>
   <si>
-    <t>M4ATAer: m_em_3gacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + m_em_3gacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>M4BTAer: mem2emgacpail_cho_r + pre_prot_r --&gt; gpi_sig_r + mem2emgacpail_prot_cho_r</t>
-  </si>
-  <si>
-    <t>ACER31r: h2o_r + phcrm_hs_r --&gt; Rtotal_r + phsphings_r</t>
-  </si>
-  <si>
-    <t>BGAL3l: gd1b_cho_l + h2o_l --&gt; gal_l + gd2_cho_l</t>
-  </si>
-  <si>
-    <t>BGAL4l: gm1a_cho_l + h2o_l --&gt; gal_l + gm2a_cho_l</t>
-  </si>
-  <si>
-    <t>HEXA2l: gd2_cho_l + h2o_l --&gt; acgal_l + gd3_cho_l</t>
-  </si>
-  <si>
-    <t>HMR_0733: coa_g + crm_cho_g + h_g --&gt; Rtotal2coa_g + sphings_g</t>
-  </si>
-  <si>
-    <t>HMR_0765: gluside_cho_r + udpgal_r --&gt; galgluside_cho_r + h_r + udp_r</t>
-  </si>
-  <si>
-    <t>NEU38n: gd1a_cho_n + h2o_n --&gt; acnam_n + gm1_cho_n</t>
-  </si>
-  <si>
-    <t>SGPL12r: h2o_r + sphs1p_r --&gt; ethamp_r + h_r + hdca_r</t>
-  </si>
-  <si>
-    <t>SGPL11r: sph1p_r --&gt; ethamp_r + hxdcal_r</t>
-  </si>
-  <si>
-    <t>SMS1S2: crm_cho_g + pchol_cho_g --&gt; dag_cho_g + sphmyln_cho_g</t>
-  </si>
-  <si>
-    <t>SPHK11: atp_c + phsphings_c --&gt; adp_c + h_c + phsph1p_c</t>
-  </si>
-  <si>
-    <t>SPHK21n: atp_n + sphings_n --&gt; adp_n + h_n + sphs1p_n</t>
-  </si>
-  <si>
-    <t>SPHK22n: atp_n + sphgn_n --&gt; adp_n + h_n + sph1p_n</t>
-  </si>
-  <si>
-    <t>SPMD3n: h2o_n + sphmyln_cho_n --&gt; cholp_n + crm_cho_n + h_n</t>
-  </si>
-  <si>
-    <t>DITHYRSULFO: CE2866_c + paps_c --&gt; CE2866osul_c + h_c + pap_c</t>
-  </si>
-  <si>
-    <t>DOPAOQCYS: cys_L_c + dopaqn_c --&gt; 5cysdopa_c</t>
-  </si>
-  <si>
-    <t>GHMT3m: 3htmelys_m + h_m --&gt; 4tmeabut_m + gly_m</t>
-  </si>
-  <si>
-    <t>HMR_6985: M01036_c + udpg_c --&gt; M00232_c + h_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLGALTr: pcollg5hlys_c + udpgal_c --&gt; pcollg5glys_c + udp_c</t>
-  </si>
-  <si>
-    <t>PCLYSOX: akg_c + o2_c + pcollglys_c --&gt; co2_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
-    <t>PLYSPSer: Ntmelys_r + h2o_r --&gt; pepslys_r + tmlys_r</t>
-  </si>
-  <si>
-    <t>ADSELK: adsel_c + atp_c --&gt; 3padsel_c + adp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_7141: M02895_c + h2o_c --&gt; M02469_c + nh4_c + pyr_c</t>
-  </si>
-  <si>
-    <t>RN0001C: h_c + nadph_c + o2_c + selmeth_c --&gt; C05708_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RN0001R: h_r + nadph_r + o2_r + selmeth_r --&gt; C05708_r + h2o_r + nadp_r</t>
-  </si>
-  <si>
-    <t>MMCD: h_c + mmcoa_S_c --&gt; co2_c + ppcoa_c</t>
-  </si>
-  <si>
-    <t>MMCDp: h_x + mmcoa_S_x --&gt; co2_x + ppcoa_x</t>
-  </si>
-  <si>
-    <t>RE1266C: 4mop_c + o2_c --&gt; CE2028_c + co2_c</t>
-  </si>
-  <si>
-    <t>HMR_7188: gpail_cho_r + h2o_r --&gt; M01142_r + 2.0 h_r + pa_cho_r</t>
-  </si>
-  <si>
-    <t>MI3456PK: atp_c + mi3456p_c --&gt; adp_c + h_c + mi13456p_c</t>
-  </si>
-  <si>
-    <t>PI4P3Ker: atp_r + pail4p_cho_r --&gt; adp_r + h_r + pail34p_cho_r</t>
-  </si>
-  <si>
-    <t>BDG2HCGHD: bdg2hc_c + h2o_c --&gt; 2coum_c + glc_D_c + h_c</t>
-  </si>
-  <si>
-    <t>T4HCINNOX: 2.0 T4hcinnm_c + o2_c --&gt; 2.0 34dhcinm_c</t>
-  </si>
-  <si>
-    <t>CARhPTtc: carn_l --&gt; carn_c</t>
-  </si>
-  <si>
-    <t>CPCTDTX: ctp_c + h_c + ntm2amep_c --&gt; cmpntm2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>EPCTX: 2ameph_c + ctp_c + h_c --&gt; cmp2amep_c + ppi_c</t>
-  </si>
-  <si>
-    <t>r1092: 63.0 ala_L_c + 27.0 arg_L_c + 17.0 asn_L_c + 36.0 asp_L_c + 2436.0 atp_c + 35.0 cys_L_c + 20.0 gln_L_c + 62.0 glu_L_c + 13.0 gly_c + 2436.0 h2o_c + 16.0 his_L_c + 9.0 ile_L_c + 64.0 leu_L_c + 60.0 lys_L_c + 7.0 met_L_c + 35.0 phe_L_c + 24.0 pro_L_c + 28.0 ser_L_c + 29.0 thr_L_c + 2.0 trp_L_c + 19.0 tyr_L_c + 43.0 val_L_c --&gt; HC00001_c + 1827.0 adp_c + 609.0 amp_c + 1827.0 pi_c + 609.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1093: 34.0 ala_L_c + 16.0 arg_L_c + 19.0 asn_L_c + 25.0 asp_L_c + 1692.0 atp_c + 3.0 cys_L_c + 17.0 gln_L_c + 29.0 glu_L_c + 16.0 gly_c + 1692.0 h2o_c + 9.0 his_L_c + 20.0 ile_L_c + 59.0 leu_L_c + 26.0 lys_L_c + 14.0 met_L_c + 25.0 phe_L_c + 16.0 pro_L_c + 30.0 ser_L_c + 29.0 thr_L_c + 3.0 trp_L_c + 9.0 tyr_L_c + 24.0 val_L_c --&gt; HC00002_c + 1269.0 adp_c + 423.0 amp_c + 1269.0 pi_c + 423.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1094: 26.0 ala_L_c + 7.0 arg_L_c + 19.0 asn_L_c + 24.0 asp_L_c + 1672.0 atp_c + 3.0 cys_L_c + 18.0 gln_L_c + 32.0 glu_L_c + 24.0 gly_c + 1672.0 h2o_c + 13.0 his_L_c + 20.0 ile_L_c + 51.0 leu_L_c + 34.0 lys_L_c + 10.0 met_L_c + 27.0 phe_L_c + 19.0 pro_L_c + 25.0 ser_L_c + 30.0 thr_L_c + 3.0 trp_L_c + 6.0 tyr_L_c + 27.0 val_L_c --&gt; HC00003_c + 1254.0 adp_c + 418.0 amp_c + 1254.0 pi_c + 418.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1095: 275.0 ala_L_c + 150.0 arg_L_c + 247.0 asn_L_c + 233.0 asp_L_c + 18244.0 atp_c + 25.0 cys_L_c + 230.0 gln_L_c + 298.0 glu_L_c + 207.0 gly_c + 18244.0 h2o_c + 115.0 his_L_c + 285.0 ile_L_c + 533.0 leu_L_c + 357.0 lys_L_c + 79.0 met_L_c + 224.0 phe_L_c + 171.0 pro_L_c + 392.0 ser_L_c + 300.0 thr_L_c + 37.0 trp_L_c + 151.0 tyr_L_c + 252.0 val_L_c --&gt; HC00005_c + 13683.0 adp_c + 4561.0 amp_c + 13683.0 pi_c + 4561.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1097: 3.0 ala_L_m + arg_L_m + asn_L_m + 13.0 asp_L_m + 348.0 atp_m + cys_L_m + 3.0 gln_L_m + 9.0 glu_L_m + 3.0 gly_m + 348.0 h2o_m + his_L_m + 8.0 ile_L_m + 10.0 leu_L_m + 7.0 lys_L_m + 5.0 met_L_m + 3.0 phe_L_m + 5.0 pro_L_m + 3.0 ser_L_m + thr_L_m + 4.0 tyr_L_m + 6.0 val_L_m --&gt; HC02222_m + 261.0 adp_m + 87.0 amp_m + 261.0 pi_m + 87.0 ppi_m</t>
-  </si>
-  <si>
-    <t>r1098: 5.0 ala_L_c + 4.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 332.0 atp_c + 3.0 gln_L_c + 8.0 glu_L_c + 3.0 gly_c + 332.0 h2o_c + 4.0 ile_L_c + 12.0 leu_L_c + 9.0 lys_L_c + 2.0 met_L_c + 4.0 phe_L_c + 4.0 pro_L_c + 9.0 ser_L_c + 3.0 thr_L_c + trp_L_c + 7.0 val_L_c --&gt; HC00006_c + 249.0 adp_c + 83.0 amp_c + 249.0 pi_c + 83.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1099: 7.0 ala_L_c + 2.0 arg_L_c + asn_L_c + 4.0 asp_L_c + 404.0 atp_c + 8.0 gln_L_c + 8.0 glu_L_c + 5.0 gly_c + 404.0 h2o_c + ile_L_c + 15.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 5.0 pro_L_c + 9.0 ser_L_c + 10.0 thr_L_c + trp_L_c + 5.0 tyr_L_c + 7.0 val_L_c --&gt; HC00007_c + 303.0 adp_c + 101.0 amp_c + 303.0 pi_c + 101.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1100: 15.0 ala_L_c + 4.0 arg_L_c + 7.0 asp_L_c + 396.0 atp_c + 6.0 gln_L_c + 5.0 glu_L_c + 3.0 gly_c + 396.0 h2o_c + his_L_c + 11.0 leu_L_c + 6.0 lys_L_c + 3.0 met_L_c + 4.0 phe_L_c + 3.0 pro_L_c + 12.0 ser_L_c + 5.0 thr_L_c + 3.0 trp_L_c + 2.0 tyr_L_c + 9.0 val_L_c --&gt; HC00008_c + 297.0 adp_c + 99.0 amp_c + 297.0 pi_c + 99.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1101: 134.0 ala_L_c + 134.0 arg_L_c + 138.0 asn_L_c + 176.0 asp_L_c + 10696.0 atp_c + 48.0 cys_L_c + 110.0 gln_L_c + 186.0 glu_L_c + 262.0 gly_c + 10696.0 h2o_c + 62.0 his_L_c + 104.0 ile_L_c + 166.0 leu_L_c + 154.0 lys_L_c + 48.0 met_L_c + 98.0 phe_L_c + 114.0 pro_L_c + 278.0 ser_L_c + 182.0 thr_L_c + 60.0 trp_L_c + 98.0 tyr_L_c + 122.0 val_L_c --&gt; HC01852_c + 8022.0 adp_c + 2674.0 amp_c + 8022.0 pi_c + 2674.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1103: 37.0 ala_L_c + 42.0 arg_L_c + 40.0 asn_L_c + 36.0 asp_L_c + 3240.0 atp_c + 48.0 cys_L_c + 31.0 gln_L_c + 56.0 glu_L_c + 62.0 gly_c + 3240.0 h2o_c + 24.0 his_L_c + 22.0 ile_L_c + 48.0 leu_L_c + 49.0 lys_L_c + 11.0 met_L_c + 21.0 phe_L_c + 69.0 pro_L_c + 56.0 ser_L_c + 61.0 thr_L_c + 19.0 trp_L_c + 30.0 tyr_L_c + 48.0 val_L_c --&gt; HC01942_c + 2430.0 adp_c + 810.0 amp_c + 2430.0 pi_c + 810.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1104: 42.0 ala_L_c + 44.0 arg_L_c + 25.0 asn_L_c + 35.0 asp_L_c + 2488.0 atp_c + 26.0 cys_L_c + 26.0 gln_L_c + 51.0 glu_L_c + 49.0 gly_c + 2488.0 h2o_c + 13.0 his_L_c + 22.0 ile_L_c + 51.0 leu_L_c + 29.0 lys_L_c + 9.0 met_L_c + 21.0 phe_L_c + 33.0 pro_L_c + 38.0 ser_L_c + 36.0 thr_L_c + 14.0 trp_L_c + 21.0 tyr_L_c + 37.0 val_L_c --&gt; HC01943_c + 1866.0 adp_c + 622.0 amp_c + 1866.0 pi_c + 622.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1105: 61.0 ala_L_c + 27.0 arg_L_c + 34.0 asn_L_c + 45.0 asp_L_c + 2792.0 atp_c + 40.0 cys_L_c + 17.0 gln_L_c + 42.0 glu_L_c + 52.0 gly_c + 2792.0 h2o_c + 19.0 his_L_c + 15.0 ile_L_c + 65.0 leu_L_c + 58.0 lys_L_c + 10.0 met_L_c + 28.0 phe_L_c + 32.0 pro_L_c + 41.0 ser_L_c + 30.0 thr_L_c + 8.0 trp_L_c + 26.0 tyr_L_c + 48.0 val_L_c --&gt; HC01944_c + 2094.0 adp_c + 698.0 amp_c + 2094.0 pi_c + 698.0 ppi_c</t>
-  </si>
-  <si>
-    <t>r1112: 39.0 ala_L_c + 34.0 arg_L_c + asn_L_c + 11.0 asp_L_c + 1268.0 atp_c + 2.0 cys_L_c + 32.0 gln_L_c + 40.0 glu_L_c + 18.0 gly_c + 1268.0 h2o_c + 2.0 his_L_c + 2.0 ile_L_c + 41.0 leu_L_c + 13.0 lys_L_c + 8.0 met_L_c + 4.0 phe_L_c + 8.0 pro_L_c + 14.0 ser_L_c + 12.0 thr_L_c + 8.0 trp_L_c + 4.0 tyr_L_c + 24.0 val_L_c --&gt; HC00009_c + 951.0 adp_c + 317.0 amp_c + 951.0 pi_c + 317.0 ppi_c</t>
-  </si>
-  <si>
-    <t>RE0690X: CE1940_x + h2o_x + o2_x --&gt; CE1943_x + h2o2_x + nh4_x</t>
-  </si>
-  <si>
-    <t>RE1539X: N1sprm_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + spmd_x</t>
-  </si>
-  <si>
-    <t>ENMAN1g: g1m8masn_g + h2o_g --&gt; glc1man_g + m7masnA_g</t>
-  </si>
-  <si>
-    <t>GDPFPOFTr: Ser_Thr_r + gdpfuc_r --&gt; fser_r + gdp_r + h_r</t>
-  </si>
-  <si>
-    <t>HMR_7625: M02496_c --&gt; M00197_c + adprib_c + h_c</t>
-  </si>
-  <si>
-    <t>FE3tm: fe3_c + h_c --&gt; fe3_m + h_m</t>
-  </si>
-  <si>
-    <t>INDSF: indoxyl_c + paps_c --&gt; inds_c + pap_c</t>
-  </si>
-  <si>
-    <t>HMR_6635: h_c + pchol_cho_c + retinol_c --&gt; M00535_c + M02838_c</t>
-  </si>
-  <si>
-    <t>RE1906C: h_c + nadph_c + o2_c + retinal_cis_9_c --&gt; CE5593_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_6686: CE2963_r + udpglcur_r --&gt; CE2958_r + udp_r</t>
-  </si>
-  <si>
-    <t>r0709: ahdt_n + h2o_n --&gt; HC01710_n</t>
-  </si>
-  <si>
-    <t>DMBAMO: CN0020_c + h_c + nadph_c + o2_c --&gt; CN0021_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7027: M01294_c --&gt; M01318_c</t>
-  </si>
-  <si>
-    <t>HMR_7026: M00229_c + 2.0 h_c --&gt; M01156_c</t>
-  </si>
-  <si>
-    <t>HMR_7035: M01440_c + nad_c --&gt; M03041_c + 2.0 h_c + nadh_c</t>
-  </si>
-  <si>
-    <t>HMR_7059: M00932_c + h_c + nadph_c --&gt; M00929_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7082: M00545_c + 2.0 h_c + nadph_c + o2_c --&gt; M00547_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7088: M00228_c + h_c + nadph_c + o2_c --&gt; M00568_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>FACOAL205x: atp_x + coa_x + tmndnc_x --&gt; amp_x + ppi_x + tmndnccoa_x</t>
-  </si>
-  <si>
-    <t>RE3525R: 2.0 C04805_r + o2_r --&gt; 2.0 leuktrB4_r</t>
-  </si>
-  <si>
-    <t>HMR_1303: CE6195_x + 5.0 h_x + o2_x --&gt; CE6228_x + h2o2_x</t>
-  </si>
-  <si>
-    <t>GBPS: 13dpg_c + g1p_c --&gt; 3pg_c + g16bp_c + h_c</t>
-  </si>
-  <si>
-    <t>DATPDPn: datp_n + h2o_n --&gt; damp_n + h_n + ppi_n</t>
-  </si>
-  <si>
-    <t>HMR_6793: iodine_c + tyr_L_c --&gt; 3ityr_L_c + M02146_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_0881: M02196_c + udpgal_c --&gt; M03094_c + udp_c</t>
-  </si>
-  <si>
-    <t>RE1538C: C03413_c + h2o_c + o2_c --&gt; 3aap_c + N1aspmd_c + h2o2_c</t>
-  </si>
-  <si>
-    <t>FCYTOB5OXRy: 2.0 ficytb5_c + nadph_c --&gt; 2.0 focytb5_c + h_c + nadp_c</t>
-  </si>
-  <si>
-    <t>r0610: HC00664_c + ctp_c --&gt; HC01180_c + cdp_c + h_c</t>
-  </si>
-  <si>
-    <t>HMR_6403: M00210_c + 2.0 amet_c + 2.0 h_c + 2.0 paps_c --&gt; M00209_c + 2.0 dad_5_c + 2.0 met_L_c + 2.0 pap_c</t>
-  </si>
-  <si>
-    <t>NP1: h_c + nac_c + r1p_c --&gt; nicrns_c + pi_c</t>
-  </si>
-  <si>
-    <t>HC02195c: taur_c + urscholcoa_c --&gt; HC02195_c + coa_c + h_c</t>
-  </si>
-  <si>
-    <t>RE1537X: N1aspmd_x + h2o_x + o2_x --&gt; 3aap_x + h2o2_x + ptrc_x</t>
-  </si>
-  <si>
     <t>ENMAN5g: g1m7masnB_g + h2o_g --&gt; glc1man_g + m6masnB2_g</t>
   </si>
   <si>
-    <t>POGLUTr: Ser_Thr_r + udpg_r --&gt; gser_r + udp_r</t>
-  </si>
-  <si>
-    <t>HMR_7054: CN0020_c + h_c + nadph_c + o2_c --&gt; M01173_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>HMR_7091: M00228_c + h_c + nadph_c + o2_c --&gt; M00227_c + h2o_c + nadp_c</t>
-  </si>
-  <si>
-    <t>RE1537C: N1aspmd_c + h2o_c + o2_c --&gt; 3aap_c + h2o2_c + ptrc_c</t>
-  </si>
-  <si>
-    <t>HMR_6983: akg_c + h_c + o2_c + peplys_c --&gt; co2_c + h2o_c + pcollg5hlys_c + succ_c</t>
-  </si>
-  <si>
     <t>H8TAer: gpi_cho_r + pre_prot_r --&gt; gpi_prot_cho_r + gpi_sig_r</t>
-  </si>
-  <si>
-    <t>ENMAN6g: g1m6masnB1_g + h2o_g --&gt; glc1man_g + m5masnB1_g</t>
-  </si>
-  <si>
-    <t>HMR_7092: M00227_c + gthrd_c --&gt; M00565_c + M02144_c</t>
   </si>
 </sst>
 </file>
@@ -5208,7 +5208,7 @@
         <v>859</v>
       </c>
       <c r="C17" t="s">
-        <v>860</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5216,7 +5216,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5224,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5232,7 +5232,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5240,7 +5240,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5248,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5256,7 +5256,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5264,10 +5264,10 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C24" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5275,13 +5275,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
+        <v>865</v>
+      </c>
+      <c r="C25" t="s">
         <v>866</v>
       </c>
-      <c r="C25" t="s">
-        <v>1522</v>
-      </c>
       <c r="D25" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5308,7 +5308,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5316,7 +5316,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6156,10 +6156,10 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
+        <v>926</v>
+      </c>
+      <c r="C134" t="s">
         <v>927</v>
-      </c>
-      <c r="C134" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>931</v>
       </c>
       <c r="C141" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D141" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E141" t="s">
         <v>1560</v>
@@ -6483,10 +6483,10 @@
         <v>963</v>
       </c>
       <c r="C173" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D173" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6641,7 +6641,7 @@
         <v>981</v>
       </c>
       <c r="C192" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>1024</v>
       </c>
       <c r="C249" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>1031</v>
       </c>
       <c r="C256" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7218,7 +7218,7 @@
         <v>1038</v>
       </c>
       <c r="C263" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7229,7 +7229,7 @@
         <v>1039</v>
       </c>
       <c r="C264" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7264,7 +7264,7 @@
         <v>1043</v>
       </c>
       <c r="C268" t="s">
-        <v>1530</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7360,7 +7360,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -7472,7 +7472,7 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -7528,7 +7528,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7688,7 +7688,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7696,7 +7696,7 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7704,7 +7704,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7712,7 +7712,7 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7720,7 +7720,7 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7728,7 +7728,7 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7736,7 +7736,7 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7744,10 +7744,10 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C328" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7755,7 +7755,7 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7763,7 +7763,7 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7771,7 +7771,7 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7779,7 +7779,7 @@
         <v>335</v>
       </c>
       <c r="B332" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7787,7 +7787,7 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7795,7 +7795,7 @@
         <v>337</v>
       </c>
       <c r="B334" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7803,7 +7803,7 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7811,13 +7811,13 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C336" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D336" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7825,7 +7825,7 @@
         <v>340</v>
       </c>
       <c r="B337" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7833,7 +7833,7 @@
         <v>341</v>
       </c>
       <c r="B338" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7841,7 +7841,7 @@
         <v>342</v>
       </c>
       <c r="B339" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7849,7 +7849,7 @@
         <v>343</v>
       </c>
       <c r="B340" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7857,7 +7857,7 @@
         <v>344</v>
       </c>
       <c r="B341" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7865,7 +7865,7 @@
         <v>345</v>
       </c>
       <c r="B342" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7873,7 +7873,7 @@
         <v>346</v>
       </c>
       <c r="B343" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7881,7 +7881,7 @@
         <v>347</v>
       </c>
       <c r="B344" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7889,7 +7889,7 @@
         <v>348</v>
       </c>
       <c r="B345" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7897,7 +7897,7 @@
         <v>349</v>
       </c>
       <c r="B346" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7905,7 +7905,7 @@
         <v>350</v>
       </c>
       <c r="B347" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7913,10 +7913,10 @@
         <v>351</v>
       </c>
       <c r="B348" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C348" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7924,10 +7924,10 @@
         <v>352</v>
       </c>
       <c r="B349" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C349" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7935,13 +7935,13 @@
         <v>353</v>
       </c>
       <c r="B350" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C350" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="D350" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7949,16 +7949,16 @@
         <v>354</v>
       </c>
       <c r="B351" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C351" t="s">
         <v>1119</v>
       </c>
-      <c r="C351" t="s">
-        <v>1143</v>
-      </c>
       <c r="D351" t="s">
-        <v>1144</v>
+        <v>1554</v>
       </c>
       <c r="E351" t="s">
-        <v>1561</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7974,7 +7974,7 @@
         <v>356</v>
       </c>
       <c r="B353" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -7982,7 +7982,7 @@
         <v>357</v>
       </c>
       <c r="B354" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>358</v>
       </c>
       <c r="B355" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C355" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8001,10 +8001,10 @@
         <v>359</v>
       </c>
       <c r="B356" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C356" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8012,7 +8012,7 @@
         <v>360</v>
       </c>
       <c r="B357" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8020,7 +8020,7 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8028,7 +8028,7 @@
         <v>362</v>
       </c>
       <c r="B359" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8036,7 +8036,7 @@
         <v>363</v>
       </c>
       <c r="B360" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8044,7 +8044,7 @@
         <v>364</v>
       </c>
       <c r="B361" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8052,7 +8052,7 @@
         <v>365</v>
       </c>
       <c r="B362" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8060,7 +8060,7 @@
         <v>366</v>
       </c>
       <c r="B363" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8068,7 +8068,7 @@
         <v>367</v>
       </c>
       <c r="B364" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>368</v>
       </c>
       <c r="B365" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8084,13 +8084,13 @@
         <v>369</v>
       </c>
       <c r="B366" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C366" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D366" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8098,7 +8098,7 @@
         <v>370</v>
       </c>
       <c r="B367" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8106,7 +8106,7 @@
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8114,7 +8114,7 @@
         <v>372</v>
       </c>
       <c r="B369" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8122,7 +8122,7 @@
         <v>373</v>
       </c>
       <c r="B370" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>374</v>
       </c>
       <c r="B371" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C371" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8141,7 +8141,7 @@
         <v>375</v>
       </c>
       <c r="B372" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8149,7 +8149,7 @@
         <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8165,7 +8165,7 @@
         <v>378</v>
       </c>
       <c r="B375" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8173,7 +8173,7 @@
         <v>379</v>
       </c>
       <c r="B376" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>380</v>
       </c>
       <c r="B377" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C377" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D377" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8195,7 +8195,7 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8211,7 +8211,7 @@
         <v>383</v>
       </c>
       <c r="B380" t="s">
-        <v>1144</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8219,7 +8219,7 @@
         <v>384</v>
       </c>
       <c r="B381" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8227,10 +8227,10 @@
         <v>385</v>
       </c>
       <c r="B382" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C382" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8238,7 +8238,7 @@
         <v>386</v>
       </c>
       <c r="B383" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8246,7 +8246,7 @@
         <v>387</v>
       </c>
       <c r="B384" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -8254,7 +8254,7 @@
         <v>388</v>
       </c>
       <c r="B385" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -8262,7 +8262,7 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -8270,7 +8270,7 @@
         <v>390</v>
       </c>
       <c r="B387" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -8278,7 +8278,7 @@
         <v>391</v>
       </c>
       <c r="B388" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -8286,7 +8286,7 @@
         <v>392</v>
       </c>
       <c r="B389" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -8294,7 +8294,7 @@
         <v>393</v>
       </c>
       <c r="B390" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -8302,7 +8302,7 @@
         <v>394</v>
       </c>
       <c r="B391" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -8310,7 +8310,7 @@
         <v>395</v>
       </c>
       <c r="B392" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -8318,7 +8318,7 @@
         <v>396</v>
       </c>
       <c r="B393" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -8326,7 +8326,7 @@
         <v>397</v>
       </c>
       <c r="B394" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -8334,7 +8334,7 @@
         <v>398</v>
       </c>
       <c r="B395" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -8342,7 +8342,7 @@
         <v>399</v>
       </c>
       <c r="B396" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -8350,7 +8350,7 @@
         <v>400</v>
       </c>
       <c r="B397" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -8358,7 +8358,7 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -8366,7 +8366,7 @@
         <v>402</v>
       </c>
       <c r="B399" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -8374,7 +8374,7 @@
         <v>403</v>
       </c>
       <c r="B400" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -8382,7 +8382,7 @@
         <v>404</v>
       </c>
       <c r="B401" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -8398,7 +8398,7 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -8406,7 +8406,7 @@
         <v>407</v>
       </c>
       <c r="B404" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -8414,7 +8414,7 @@
         <v>408</v>
       </c>
       <c r="B405" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -8422,7 +8422,7 @@
         <v>409</v>
       </c>
       <c r="B406" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -8430,7 +8430,7 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -8438,7 +8438,7 @@
         <v>411</v>
       </c>
       <c r="B408" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -8446,7 +8446,7 @@
         <v>412</v>
       </c>
       <c r="B409" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -8454,7 +8454,7 @@
         <v>413</v>
       </c>
       <c r="B410" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>414</v>
       </c>
       <c r="B411" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -8470,10 +8470,10 @@
         <v>415</v>
       </c>
       <c r="B412" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C412" t="s">
-        <v>1539</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -8481,7 +8481,7 @@
         <v>416</v>
       </c>
       <c r="B413" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>417</v>
       </c>
       <c r="B414" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -8497,7 +8497,7 @@
         <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -8505,7 +8505,7 @@
         <v>419</v>
       </c>
       <c r="B416" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -8513,7 +8513,7 @@
         <v>420</v>
       </c>
       <c r="B417" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -8521,7 +8521,7 @@
         <v>421</v>
       </c>
       <c r="B418" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -8529,7 +8529,7 @@
         <v>422</v>
       </c>
       <c r="B419" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -8537,7 +8537,7 @@
         <v>423</v>
       </c>
       <c r="B420" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -8545,7 +8545,7 @@
         <v>424</v>
       </c>
       <c r="B421" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -8553,7 +8553,7 @@
         <v>425</v>
       </c>
       <c r="B422" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -8561,7 +8561,7 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -8569,7 +8569,7 @@
         <v>427</v>
       </c>
       <c r="B424" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -8577,7 +8577,7 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -8585,7 +8585,7 @@
         <v>429</v>
       </c>
       <c r="B426" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -8593,7 +8593,7 @@
         <v>430</v>
       </c>
       <c r="B427" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -8601,7 +8601,7 @@
         <v>431</v>
       </c>
       <c r="B428" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -8609,7 +8609,7 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8617,7 +8617,7 @@
         <v>433</v>
       </c>
       <c r="B430" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8625,7 +8625,7 @@
         <v>434</v>
       </c>
       <c r="B431" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8633,7 +8633,7 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8641,7 +8641,7 @@
         <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8649,7 +8649,7 @@
         <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8657,7 +8657,7 @@
         <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8665,7 +8665,7 @@
         <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8673,7 +8673,7 @@
         <v>440</v>
       </c>
       <c r="B437" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8681,7 +8681,7 @@
         <v>441</v>
       </c>
       <c r="B438" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8689,7 +8689,7 @@
         <v>442</v>
       </c>
       <c r="B439" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8697,7 +8697,7 @@
         <v>443</v>
       </c>
       <c r="B440" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8705,7 +8705,7 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8713,7 +8713,7 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8721,7 +8721,7 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8729,7 +8729,7 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8737,7 +8737,7 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8745,7 +8745,7 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8753,7 +8753,7 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8761,7 +8761,7 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8769,7 +8769,7 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8777,7 +8777,7 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8785,7 +8785,7 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8793,7 +8793,7 @@
         <v>455</v>
       </c>
       <c r="B452" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8801,7 +8801,7 @@
         <v>456</v>
       </c>
       <c r="B453" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8809,7 +8809,7 @@
         <v>457</v>
       </c>
       <c r="B454" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8817,13 +8817,13 @@
         <v>458</v>
       </c>
       <c r="B455" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C455" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D455" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8831,7 +8831,7 @@
         <v>459</v>
       </c>
       <c r="B456" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8839,7 +8839,7 @@
         <v>460</v>
       </c>
       <c r="B457" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8847,7 +8847,7 @@
         <v>461</v>
       </c>
       <c r="B458" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8855,7 +8855,7 @@
         <v>462</v>
       </c>
       <c r="B459" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8863,7 +8863,7 @@
         <v>463</v>
       </c>
       <c r="B460" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8871,7 +8871,7 @@
         <v>464</v>
       </c>
       <c r="B461" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8879,7 +8879,7 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8887,7 +8887,7 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8895,7 +8895,7 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8903,7 +8903,7 @@
         <v>468</v>
       </c>
       <c r="B465" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -8911,7 +8911,7 @@
         <v>469</v>
       </c>
       <c r="B466" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -8919,7 +8919,7 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -8927,10 +8927,10 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C468" t="s">
-        <v>1540</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -8938,7 +8938,7 @@
         <v>472</v>
       </c>
       <c r="B469" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8946,10 +8946,10 @@
         <v>473</v>
       </c>
       <c r="B470" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C470" t="s">
-        <v>1229</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>474</v>
       </c>
       <c r="B471" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8965,7 +8965,7 @@
         <v>475</v>
       </c>
       <c r="B472" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -8973,10 +8973,10 @@
         <v>476</v>
       </c>
       <c r="B473" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C473" t="s">
-        <v>1228</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>477</v>
       </c>
       <c r="B474" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -8992,7 +8992,7 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -9000,7 +9000,7 @@
         <v>479</v>
       </c>
       <c r="B476" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -9008,7 +9008,7 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -9016,7 +9016,7 @@
         <v>481</v>
       </c>
       <c r="B478" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -9024,7 +9024,7 @@
         <v>482</v>
       </c>
       <c r="B479" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -9032,7 +9032,7 @@
         <v>483</v>
       </c>
       <c r="B480" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>484</v>
       </c>
       <c r="B481" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>485</v>
       </c>
       <c r="B482" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -9064,7 +9064,7 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -9072,7 +9072,7 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -9088,7 +9088,7 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -9096,7 +9096,7 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -9104,7 +9104,7 @@
         <v>492</v>
       </c>
       <c r="B489" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -9112,7 +9112,7 @@
         <v>493</v>
       </c>
       <c r="B490" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>494</v>
       </c>
       <c r="B491" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>495</v>
       </c>
       <c r="B492" t="s">
-        <v>1174</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -9136,7 +9136,7 @@
         <v>496</v>
       </c>
       <c r="B493" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -9144,7 +9144,7 @@
         <v>497</v>
       </c>
       <c r="B494" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -9152,7 +9152,7 @@
         <v>498</v>
       </c>
       <c r="B495" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -9160,7 +9160,7 @@
         <v>499</v>
       </c>
       <c r="B496" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -9168,7 +9168,7 @@
         <v>500</v>
       </c>
       <c r="B497" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -9176,7 +9176,7 @@
         <v>501</v>
       </c>
       <c r="B498" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -9184,7 +9184,7 @@
         <v>502</v>
       </c>
       <c r="B499" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -9192,7 +9192,7 @@
         <v>503</v>
       </c>
       <c r="B500" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -9200,7 +9200,7 @@
         <v>504</v>
       </c>
       <c r="B501" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -9208,7 +9208,7 @@
         <v>505</v>
       </c>
       <c r="B502" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -9216,10 +9216,10 @@
         <v>506</v>
       </c>
       <c r="B503" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C503" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -9227,7 +9227,7 @@
         <v>507</v>
       </c>
       <c r="B504" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -9235,7 +9235,7 @@
         <v>508</v>
       </c>
       <c r="B505" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>509</v>
       </c>
       <c r="B506" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -9251,7 +9251,7 @@
         <v>510</v>
       </c>
       <c r="B507" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>511</v>
       </c>
       <c r="B508" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -9267,7 +9267,7 @@
         <v>512</v>
       </c>
       <c r="B509" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -9275,7 +9275,7 @@
         <v>513</v>
       </c>
       <c r="B510" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -9283,7 +9283,7 @@
         <v>514</v>
       </c>
       <c r="B511" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -9291,7 +9291,7 @@
         <v>515</v>
       </c>
       <c r="B512" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -9299,7 +9299,7 @@
         <v>516</v>
       </c>
       <c r="B513" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -9307,7 +9307,7 @@
         <v>517</v>
       </c>
       <c r="B514" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -9315,10 +9315,10 @@
         <v>518</v>
       </c>
       <c r="B515" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C515" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -9326,7 +9326,7 @@
         <v>519</v>
       </c>
       <c r="B516" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -9334,7 +9334,7 @@
         <v>520</v>
       </c>
       <c r="B517" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>521</v>
       </c>
       <c r="B518" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -9350,7 +9350,7 @@
         <v>522</v>
       </c>
       <c r="B519" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>523</v>
       </c>
       <c r="B520" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -9366,7 +9366,7 @@
         <v>524</v>
       </c>
       <c r="B521" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -9374,7 +9374,7 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -9382,10 +9382,10 @@
         <v>526</v>
       </c>
       <c r="B523" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C523" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -9393,7 +9393,7 @@
         <v>527</v>
       </c>
       <c r="B524" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>528</v>
       </c>
       <c r="B525" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -9409,7 +9409,7 @@
         <v>529</v>
       </c>
       <c r="B526" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -9417,7 +9417,7 @@
         <v>530</v>
       </c>
       <c r="B527" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -9425,7 +9425,7 @@
         <v>531</v>
       </c>
       <c r="B528" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -9433,7 +9433,7 @@
         <v>532</v>
       </c>
       <c r="B529" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>533</v>
       </c>
       <c r="B530" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -9449,7 +9449,7 @@
         <v>534</v>
       </c>
       <c r="B531" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>535</v>
       </c>
       <c r="B532" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -9465,7 +9465,7 @@
         <v>536</v>
       </c>
       <c r="B533" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -9473,7 +9473,7 @@
         <v>537</v>
       </c>
       <c r="B534" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -9481,10 +9481,10 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C535" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -9492,7 +9492,7 @@
         <v>539</v>
       </c>
       <c r="B536" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>540</v>
       </c>
       <c r="B537" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -9508,7 +9508,7 @@
         <v>541</v>
       </c>
       <c r="B538" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -9516,7 +9516,7 @@
         <v>542</v>
       </c>
       <c r="B539" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -9524,7 +9524,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -9532,7 +9532,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -9548,7 +9548,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -9556,7 +9556,7 @@
         <v>547</v>
       </c>
       <c r="B544" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -9564,7 +9564,7 @@
         <v>548</v>
       </c>
       <c r="B545" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -9572,7 +9572,7 @@
         <v>549</v>
       </c>
       <c r="B546" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -9580,7 +9580,7 @@
         <v>550</v>
       </c>
       <c r="B547" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -9588,7 +9588,7 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -9596,7 +9596,7 @@
         <v>552</v>
       </c>
       <c r="B549" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -9604,7 +9604,7 @@
         <v>553</v>
       </c>
       <c r="B550" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -9612,7 +9612,7 @@
         <v>554</v>
       </c>
       <c r="B551" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -9620,7 +9620,7 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C552" t="s">
         <v>1313</v>
@@ -9631,7 +9631,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -9639,7 +9639,7 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -9647,7 +9647,7 @@
         <v>558</v>
       </c>
       <c r="B555" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -9655,7 +9655,7 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9663,13 +9663,13 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C557" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D557" t="s">
-        <v>1304</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -9677,7 +9677,7 @@
         <v>561</v>
       </c>
       <c r="B558" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -9693,7 +9693,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -9701,7 +9701,7 @@
         <v>564</v>
       </c>
       <c r="B561" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -9712,7 +9712,7 @@
         <v>1306</v>
       </c>
       <c r="C562" t="s">
-        <v>1305</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -9720,7 +9720,7 @@
         <v>566</v>
       </c>
       <c r="B563" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -9958,7 +9958,7 @@
         <v>1328</v>
       </c>
       <c r="C592" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -10113,7 +10113,7 @@
         <v>1345</v>
       </c>
       <c r="C611" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="D611" t="s">
         <v>1557</v>
@@ -10175,7 +10175,7 @@
         <v>1349</v>
       </c>
       <c r="C618" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -10186,7 +10186,7 @@
         <v>1349</v>
       </c>
       <c r="C619" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -10491,10 +10491,10 @@
         <v>659</v>
       </c>
       <c r="B656" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C656" t="s">
         <v>1373</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -10713,7 +10713,7 @@
         <v>1389</v>
       </c>
       <c r="C683" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -11084,7 +11084,7 @@
         <v>1421</v>
       </c>
       <c r="C729" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -11119,7 +11119,7 @@
         <v>1425</v>
       </c>
       <c r="C733" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -11282,7 +11282,7 @@
         <v>1443</v>
       </c>
       <c r="C753" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -11301,7 +11301,7 @@
         <v>758</v>
       </c>
       <c r="B755" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>759</v>
       </c>
       <c r="B756" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -11529,7 +11529,7 @@
         <v>1559</v>
       </c>
       <c r="E782" t="s">
-        <v>1471</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -11546,7 +11546,7 @@
         <v>1559</v>
       </c>
       <c r="E783" t="s">
-        <v>1471</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -11554,7 +11554,7 @@
         <v>787</v>
       </c>
       <c r="B784" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -11562,7 +11562,7 @@
         <v>788</v>
       </c>
       <c r="B785" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -11570,7 +11570,7 @@
         <v>789</v>
       </c>
       <c r="B786" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -11578,7 +11578,7 @@
         <v>790</v>
       </c>
       <c r="B787" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -11586,7 +11586,7 @@
         <v>791</v>
       </c>
       <c r="B788" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -11594,7 +11594,7 @@
         <v>792</v>
       </c>
       <c r="B789" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -11602,7 +11602,7 @@
         <v>793</v>
       </c>
       <c r="B790" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -11610,7 +11610,7 @@
         <v>794</v>
       </c>
       <c r="B791" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -11618,7 +11618,7 @@
         <v>795</v>
       </c>
       <c r="B792" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -11626,7 +11626,7 @@
         <v>796</v>
       </c>
       <c r="B793" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -11634,7 +11634,7 @@
         <v>797</v>
       </c>
       <c r="B794" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -11642,10 +11642,10 @@
         <v>798</v>
       </c>
       <c r="B795" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C795" t="s">
-        <v>1480</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -11653,7 +11653,7 @@
         <v>799</v>
       </c>
       <c r="B796" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -11661,7 +11661,7 @@
         <v>800</v>
       </c>
       <c r="B797" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -11669,7 +11669,7 @@
         <v>801</v>
       </c>
       <c r="B798" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -11677,7 +11677,7 @@
         <v>802</v>
       </c>
       <c r="B799" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -11685,7 +11685,7 @@
         <v>803</v>
       </c>
       <c r="B800" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -11693,7 +11693,7 @@
         <v>804</v>
       </c>
       <c r="B801" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -11701,7 +11701,7 @@
         <v>805</v>
       </c>
       <c r="B802" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -11709,7 +11709,7 @@
         <v>806</v>
       </c>
       <c r="B803" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -11717,7 +11717,7 @@
         <v>807</v>
       </c>
       <c r="B804" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -11725,7 +11725,7 @@
         <v>808</v>
       </c>
       <c r="B805" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -11733,7 +11733,7 @@
         <v>809</v>
       </c>
       <c r="B806" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11741,7 +11741,7 @@
         <v>810</v>
       </c>
       <c r="B807" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11749,7 +11749,7 @@
         <v>811</v>
       </c>
       <c r="B808" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -11757,7 +11757,7 @@
         <v>812</v>
       </c>
       <c r="B809" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11765,7 +11765,7 @@
         <v>813</v>
       </c>
       <c r="B810" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11773,7 +11773,7 @@
         <v>814</v>
       </c>
       <c r="B811" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11781,7 +11781,7 @@
         <v>815</v>
       </c>
       <c r="B812" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11789,7 +11789,7 @@
         <v>816</v>
       </c>
       <c r="B813" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -11797,7 +11797,7 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -11805,7 +11805,7 @@
         <v>818</v>
       </c>
       <c r="B815" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -11813,7 +11813,7 @@
         <v>819</v>
       </c>
       <c r="B816" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -11821,7 +11821,7 @@
         <v>820</v>
       </c>
       <c r="B817" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -11829,7 +11829,7 @@
         <v>821</v>
       </c>
       <c r="B818" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -11837,7 +11837,7 @@
         <v>822</v>
       </c>
       <c r="B819" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -11845,7 +11845,7 @@
         <v>823</v>
       </c>
       <c r="B820" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -11853,7 +11853,7 @@
         <v>824</v>
       </c>
       <c r="B821" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -11861,7 +11861,7 @@
         <v>825</v>
       </c>
       <c r="B822" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -11869,7 +11869,7 @@
         <v>826</v>
       </c>
       <c r="B823" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -11877,7 +11877,7 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -11885,7 +11885,7 @@
         <v>828</v>
       </c>
       <c r="B825" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -11893,7 +11893,7 @@
         <v>829</v>
       </c>
       <c r="B826" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -11901,7 +11901,7 @@
         <v>830</v>
       </c>
       <c r="B827" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -11909,7 +11909,7 @@
         <v>831</v>
       </c>
       <c r="B828" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -11917,7 +11917,7 @@
         <v>832</v>
       </c>
       <c r="B829" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -11925,7 +11925,7 @@
         <v>833</v>
       </c>
       <c r="B830" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -11933,7 +11933,7 @@
         <v>834</v>
       </c>
       <c r="B831" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -11941,7 +11941,7 @@
         <v>835</v>
       </c>
       <c r="B832" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -11949,7 +11949,7 @@
         <v>836</v>
       </c>
       <c r="B833" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -11957,7 +11957,7 @@
         <v>837</v>
       </c>
       <c r="B834" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11965,7 +11965,7 @@
         <v>838</v>
       </c>
       <c r="B835" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11973,7 +11973,7 @@
         <v>839</v>
       </c>
       <c r="B836" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -11981,7 +11981,7 @@
         <v>840</v>
       </c>
       <c r="B837" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -11989,7 +11989,7 @@
         <v>841</v>
       </c>
       <c r="B838" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11997,7 +11997,7 @@
         <v>842</v>
       </c>
       <c r="B839" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -12005,7 +12005,7 @@
         <v>843</v>
       </c>
       <c r="B840" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -12013,7 +12013,7 @@
         <v>844</v>
       </c>
       <c r="B841" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -12021,7 +12021,7 @@
         <v>845</v>
       </c>
       <c r="B842" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -12029,7 +12029,7 @@
         <v>846</v>
       </c>
       <c r="B843" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
   </sheetData>
